--- a/Data.xlsx
+++ b/Data.xlsx
@@ -178,9 +178,6 @@
     <t>3:40,</t>
   </si>
   <si>
-    <t>1008, 673, 1275, 673</t>
-  </si>
-  <si>
     <t>5:50,</t>
   </si>
   <si>
@@ -227,6 +224,9 @@
   </si>
   <si>
     <t>4:45,</t>
+  </si>
+  <si>
+    <t>993, 630, 1260, 630</t>
   </si>
   <si>
     <t>9:06,</t>
@@ -611,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J490"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="A421" workbookViewId="0">
+      <selection activeCell="J441" sqref="J441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>75</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>75</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>76</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>76</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>76</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>77</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>77</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>77</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>78</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>78</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>78</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>79</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>79</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>79</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>80</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>80</v>
       </c>
@@ -3700,9 +3700,6 @@
       </c>
       <c r="F240">
         <v>3</v>
-      </c>
-      <c r="H240" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
@@ -3801,7 +3798,7 @@
         <v>22</v>
       </c>
       <c r="E246" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F246">
         <v>3</v>
@@ -4131,10 +4128,10 @@
         <v>1</v>
       </c>
       <c r="D273" t="s">
+        <v>55</v>
+      </c>
+      <c r="E273" t="s">
         <v>56</v>
-      </c>
-      <c r="E273" t="s">
-        <v>57</v>
       </c>
       <c r="F273">
         <v>1</v>
@@ -4209,7 +4206,7 @@
         <v>22</v>
       </c>
       <c r="E279" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F279">
         <v>3</v>
@@ -4515,7 +4512,7 @@
         <v>22</v>
       </c>
       <c r="E306" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F306">
         <v>3</v>
@@ -4692,7 +4689,7 @@
         <v>3</v>
       </c>
       <c r="G321" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
@@ -4987,7 +4984,7 @@
         <v>22</v>
       </c>
       <c r="E344" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F344">
         <v>3</v>
@@ -5007,7 +5004,7 @@
         <v>22</v>
       </c>
       <c r="E345" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F345">
         <v>3</v>
@@ -5170,7 +5167,7 @@
         <v>22</v>
       </c>
       <c r="E359" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F359">
         <v>3</v>
@@ -5283,7 +5280,7 @@
         <v>22</v>
       </c>
       <c r="E366" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F366">
         <v>3</v>
@@ -5314,7 +5311,7 @@
         <v>22</v>
       </c>
       <c r="E368" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F368">
         <v>3</v>
@@ -5557,7 +5554,7 @@
         <v>22</v>
       </c>
       <c r="E386" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F386">
         <v>3</v>
@@ -5577,7 +5574,7 @@
         <v>22</v>
       </c>
       <c r="E387" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F387">
         <v>3</v>
@@ -5641,7 +5638,7 @@
         <v>22</v>
       </c>
       <c r="E392" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F392">
         <v>3</v>
@@ -5664,7 +5661,7 @@
         <v>3</v>
       </c>
       <c r="G393" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
@@ -5802,7 +5799,7 @@
         <v>22</v>
       </c>
       <c r="E405" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F405">
         <v>3</v>
@@ -5866,13 +5863,13 @@
         <v>22</v>
       </c>
       <c r="E410" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F410">
         <v>3</v>
       </c>
       <c r="G410" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
@@ -6126,7 +6123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>144</v>
       </c>
@@ -6137,7 +6134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>145</v>
       </c>
@@ -6148,7 +6145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>145</v>
       </c>
@@ -6159,7 +6156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>145</v>
       </c>
@@ -6170,7 +6167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>146</v>
       </c>
@@ -6181,7 +6178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>146</v>
       </c>
@@ -6192,7 +6189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>146</v>
       </c>
@@ -6203,7 +6200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>147</v>
       </c>
@@ -6217,13 +6214,13 @@
         <v>22</v>
       </c>
       <c r="E440" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F440">
         <v>3</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>147</v>
       </c>
@@ -6242,8 +6239,11 @@
       <c r="F441">
         <v>3</v>
       </c>
-    </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H441" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>147</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>1001</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>1002</v>
       </c>
@@ -6276,7 +6276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>1003</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>1004</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>1005</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>1006</v>
       </c>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <numFmts count="0"/>
   <fonts count="3">
     <font>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
@@ -30,7 +30,7 @@
       <sz val="11"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <b val="1"/>
       <color theme="1"/>
@@ -451,16 +451,16 @@
   </sheetPr>
   <dimension ref="A1:J490"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="A494" workbookViewId="0">
+      <selection activeCell="E259" sqref="E259"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
     <col width="10" bestFit="1" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="14.4" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Number</t>
@@ -999,7 +999,7 @@
         <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>1.375</v>
+        <v>1.212121212121212</v>
       </c>
     </row>
     <row r="27">
@@ -1230,11 +1230,16 @@
           <t>3/4,</t>
         </is>
       </c>
-      <c r="E38" s="3" t="n">
-        <v>0.2284722222222222</v>
+      <c r="E38" s="3" t="inlineStr">
+        <is>
+          <t>5:29,</t>
+        </is>
       </c>
       <c r="F38" t="n">
         <v>2</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.165048543689321</v>
       </c>
     </row>
     <row r="39">
@@ -1358,6 +1363,19 @@
       <c r="F45" t="n">
         <v>1</v>
       </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>940, 431, 1206, 431</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>861, 755, 1195, 755</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>1.20752427184466</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1525,7 +1543,7 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>1.121739130434783</v>
+        <v>1.115798536375377</v>
       </c>
     </row>
     <row r="55">
@@ -1566,6 +1584,19 @@
       <c r="F56" t="n">
         <v>2</v>
       </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>1205, 533, 1471, 533</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>1148, 873, 1481, 873</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>0.8143172616856827</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1823,8 +1854,10 @@
           <t>1/4,</t>
         </is>
       </c>
-      <c r="E72" s="3" t="n">
-        <v>0.1875</v>
+      <c r="E72" s="3" t="inlineStr">
+        <is>
+          <t>4:30,</t>
+        </is>
       </c>
       <c r="F72" t="n">
         <v>1</v>
@@ -3259,6 +3292,19 @@
       <c r="F176" t="n">
         <v>3</v>
       </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>830, 600, 1096, 600</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>843, 986, 1176, 986</t>
+        </is>
+      </c>
+      <c r="J176" t="n">
+        <v>1.285909712722298</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -4161,6 +4207,19 @@
       <c r="F233" t="n">
         <v>3</v>
       </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>858, 650, 1125, 650</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>855, 985, 1188, 985</t>
+        </is>
+      </c>
+      <c r="J233" t="n">
+        <v>1.283026626914773</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -4271,7 +4330,7 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>1.804613297150611</v>
+        <v>1.726708074534161</v>
       </c>
     </row>
     <row r="241">
@@ -4486,8 +4545,10 @@
           <t>1/4,</t>
         </is>
       </c>
-      <c r="E252" s="3" t="n">
-        <v>0.1458333333333333</v>
+      <c r="E252" s="3" t="inlineStr">
+        <is>
+          <t>3:30,</t>
+        </is>
       </c>
       <c r="F252" t="n">
         <v>3</v>
@@ -4575,8 +4636,10 @@
           <t>1/4,</t>
         </is>
       </c>
-      <c r="E258" s="3" t="n">
-        <v>0.2291666666666667</v>
+      <c r="E258" s="3" t="inlineStr">
+        <is>
+          <t>5:30,</t>
+        </is>
       </c>
       <c r="F258" t="n">
         <v>3</v>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -3,20 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <name val="Arial"/>
       <family val="2"/>
@@ -26,6 +26,7 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
       <sz val="11"/>
     </font>
@@ -37,16 +38,54 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="10"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0E0E3"/>
+        <bgColor rgb="FFD0E0E3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor rgb="FFF4CCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -69,11 +108,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -84,9 +164,48 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="19" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -449,10 +568,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J490"/>
+  <dimension ref="A1:L1159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A494" workbookViewId="0">
-      <selection activeCell="E259" sqref="E259"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -460,7 +579,7 @@
     <col width="10" bestFit="1" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1">
+    <row r="1" ht="37.2" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Number</t>
@@ -509,6 +628,16 @@
       <c r="J1" t="inlineStr">
         <is>
           <t>Computed Speed</t>
+        </is>
+      </c>
+      <c r="K1" s="6" t="inlineStr">
+        <is>
+          <t>real estimition</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>error</t>
         </is>
       </c>
     </row>
@@ -537,6 +666,13 @@
       <c r="F2" t="n">
         <v>1</v>
       </c>
+      <c r="K2" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="18">
+        <f>J2-K2</f>
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -552,6 +688,13 @@
       </c>
       <c r="D3" s="4" t="n"/>
       <c r="E3" s="3" t="n"/>
+      <c r="K3" s="8" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="L3" s="18">
+        <f>J3-K3</f>
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -564,6 +707,13 @@
       </c>
       <c r="C4" t="b">
         <v>0</v>
+      </c>
+      <c r="K4" s="9" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="L4" s="18">
+        <f>J4-K4</f>
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -578,6 +728,13 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
+      <c r="K5" s="7" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="L5" s="18">
+        <f>J5-K5</f>
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -604,6 +761,13 @@
       <c r="F6" t="n">
         <v>2</v>
       </c>
+      <c r="K6" s="8" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="L6" s="18">
+        <f>J6-K6</f>
+        <v/>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -617,6 +781,13 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
+      <c r="K7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="18">
+        <f>J7-K7</f>
+        <v/>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -643,6 +814,23 @@
       <c r="F8" t="n">
         <v>1</v>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>910, 488, 1176, 488</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>855, 758, 1188, 758</t>
+        </is>
+      </c>
+      <c r="K8" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="18">
+        <f>J8-K8</f>
+        <v/>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -656,6 +844,13 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
+      <c r="K9" s="8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="L9" s="18">
+        <f>J9-K9</f>
+        <v/>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -669,6 +864,13 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
+      <c r="K10" s="9" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="L10" s="18">
+        <f>J10-K10</f>
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -700,6 +902,26 @@
           <t>it’s the same as 1 T0</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>856, 458, 1123, 458</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>820, 733, 1153, 733</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>1.000625390869293</v>
+      </c>
+      <c r="K11" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="18">
+        <f>J11-K11</f>
+        <v/>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -713,6 +935,13 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
+      <c r="K12" s="8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="L12" s="18">
+        <f>J12-K12</f>
+        <v/>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -726,6 +955,13 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
+      <c r="K13" s="9" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="L13" s="18">
+        <f>J13-K13</f>
+        <v/>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -739,6 +975,13 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
+      <c r="K14" s="7" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="L14" s="18">
+        <f>J14-K14</f>
+        <v/>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -752,6 +995,13 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
+      <c r="K15" s="8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="L15" s="18">
+        <f>J15-K15</f>
+        <v/>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -765,6 +1015,13 @@
       <c r="C16" t="b">
         <v>0</v>
       </c>
+      <c r="K16" s="9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="L16" s="18">
+        <f>J16-K16</f>
+        <v/>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -791,6 +1048,23 @@
       <c r="F17" t="n">
         <v>1</v>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>996, 415, 1263, 415</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>941, 690, 1275, 690</t>
+        </is>
+      </c>
+      <c r="K17" s="7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="L17" s="18">
+        <f>J17-K17</f>
+        <v/>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -804,6 +1078,13 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
+      <c r="K18" s="8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="L18" s="18">
+        <f>J18-K18</f>
+        <v/>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -817,6 +1098,13 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
+      <c r="K19" s="9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="L19" s="18">
+        <f>J19-K19</f>
+        <v/>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -843,18 +1131,30 @@
       <c r="F20" t="n">
         <v>1</v>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>after the first estimation another person overlap and does the second estimation</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>1026, 413, 1293, 413</t>
+          <t>1008, 416, 1275, 416</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>971, 691, 1305, 691</t>
+          <t>988, 693, 1321, 693</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>1.500909642207398</v>
+        <v>1.376923076923077</v>
+      </c>
+      <c r="K20" s="7" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="L20" s="18">
+        <f>J20-K20</f>
+        <v/>
       </c>
     </row>
     <row r="21">
@@ -882,6 +1182,18 @@
       <c r="F21" t="n">
         <v>2</v>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1075, 1031, 1408, 1031</t>
+        </is>
+      </c>
+      <c r="K21" s="8" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="L21" s="18">
+        <f>J21-K21</f>
+        <v/>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -895,6 +1207,13 @@
       <c r="C22" t="b">
         <v>0</v>
       </c>
+      <c r="K22" s="9" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="L22" s="18">
+        <f>J22-K22</f>
+        <v/>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -931,6 +1250,13 @@
           <t>918, 740, 1251, 740</t>
         </is>
       </c>
+      <c r="K23" s="7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="L23" s="18">
+        <f>J23-K23</f>
+        <v/>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -957,6 +1283,26 @@
       <c r="F24" t="n">
         <v>1</v>
       </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>931, 465, 1198, 465</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>908, 768, 1241, 768</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>1.901719901719902</v>
+      </c>
+      <c r="K24" s="8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="L24" s="18">
+        <f>J24-K24</f>
+        <v/>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -972,6 +1318,13 @@
       </c>
       <c r="D25" s="4" t="n"/>
       <c r="E25" s="3" t="n"/>
+      <c r="K25" s="9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="L25" s="18">
+        <f>J25-K25</f>
+        <v/>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -999,7 +1352,14 @@
         <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>1.212121212121212</v>
+        <v>1.27789046653144</v>
+      </c>
+      <c r="K26" s="7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="L26" s="18">
+        <f>J26-K26</f>
+        <v/>
       </c>
     </row>
     <row r="27">
@@ -1027,6 +1387,26 @@
       <c r="F27" t="n">
         <v>2</v>
       </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>886, 681, 1153, 681</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>860, 773, 1193, 773</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>3.117408906882591</v>
+      </c>
+      <c r="K27" s="8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="L27" s="18">
+        <f>J27-K27</f>
+        <v/>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1040,6 +1420,13 @@
       <c r="C28" t="b">
         <v>0</v>
       </c>
+      <c r="K28" s="9" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="L28" s="18">
+        <f>J28-K28</f>
+        <v/>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1069,6 +1456,13 @@
       <c r="J29" t="n">
         <v>1.567961988800271</v>
       </c>
+      <c r="K29" s="7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="L29" s="18">
+        <f>J29-K29</f>
+        <v/>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1095,6 +1489,13 @@
       <c r="F30" t="n">
         <v>1</v>
       </c>
+      <c r="K30" s="8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L30" s="18">
+        <f>J30-K30</f>
+        <v/>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1108,6 +1509,13 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
+      <c r="K31" s="9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="L31" s="18">
+        <f>J31-K31</f>
+        <v/>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1121,6 +1529,10 @@
       <c r="C32" t="b">
         <v>0</v>
       </c>
+      <c r="L32" s="18">
+        <f>J32-K32</f>
+        <v/>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1134,6 +1546,10 @@
       <c r="C33" t="b">
         <v>0</v>
       </c>
+      <c r="L33" s="18">
+        <f>J33-K33</f>
+        <v/>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1147,6 +1563,10 @@
       <c r="C34" t="b">
         <v>0</v>
       </c>
+      <c r="L34" s="18">
+        <f>J34-K34</f>
+        <v/>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1173,6 +1593,13 @@
       <c r="F35" t="n">
         <v>2</v>
       </c>
+      <c r="K35" s="7" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L35" s="18">
+        <f>J35-K35</f>
+        <v/>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1199,6 +1626,13 @@
       <c r="F36" t="n">
         <v>1</v>
       </c>
+      <c r="K36" s="8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="L36" s="18">
+        <f>J36-K36</f>
+        <v/>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1212,6 +1646,13 @@
       <c r="C37" t="b">
         <v>0</v>
       </c>
+      <c r="K37" s="9" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="L37" s="18">
+        <f>J37-K37</f>
+        <v/>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1241,6 +1682,13 @@
       <c r="J38" t="n">
         <v>1.165048543689321</v>
       </c>
+      <c r="K38" s="7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="L38" s="18">
+        <f>J38-K38</f>
+        <v/>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1254,6 +1702,13 @@
       <c r="C39" t="b">
         <v>0</v>
       </c>
+      <c r="K39" s="8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="L39" s="18">
+        <f>J39-K39</f>
+        <v/>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1267,6 +1722,13 @@
       <c r="C40" t="b">
         <v>0</v>
       </c>
+      <c r="K40" s="9" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="L40" s="18">
+        <f>J40-K40</f>
+        <v/>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1280,6 +1742,13 @@
       <c r="C41" t="b">
         <v>0</v>
       </c>
+      <c r="K41" s="7" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="L41" s="18">
+        <f>J41-K41</f>
+        <v/>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1293,6 +1762,15 @@
       <c r="C42" t="b">
         <v>0</v>
       </c>
+      <c r="K42" s="10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L42" s="18">
+        <f>J42-K42</f>
+        <v/>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1306,6 +1784,15 @@
       <c r="C43" t="b">
         <v>0</v>
       </c>
+      <c r="K43" s="11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L43" s="18">
+        <f>J43-K43</f>
+        <v/>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1337,6 +1824,13 @@
           <t>repeated</t>
         </is>
       </c>
+      <c r="K44" s="7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="L44" s="18">
+        <f>J44-K44</f>
+        <v/>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1376,6 +1870,13 @@
       <c r="J45" t="n">
         <v>1.20752427184466</v>
       </c>
+      <c r="K45" s="8" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="L45" s="18">
+        <f>J45-K45</f>
+        <v/>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1389,6 +1890,13 @@
       <c r="C46" t="b">
         <v>0</v>
       </c>
+      <c r="K46" s="9" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="L46" s="18">
+        <f>J46-K46</f>
+        <v/>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1415,6 +1923,13 @@
       <c r="F47" t="n">
         <v>2</v>
       </c>
+      <c r="K47" s="7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="L47" s="18">
+        <f>J47-K47</f>
+        <v/>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1428,6 +1943,13 @@
       <c r="C48" t="b">
         <v>0</v>
       </c>
+      <c r="K48" s="8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L48" s="18">
+        <f>J48-K48</f>
+        <v/>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1441,6 +1963,13 @@
       <c r="C49" t="b">
         <v>0</v>
       </c>
+      <c r="K49" s="9" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="L49" s="18">
+        <f>J49-K49</f>
+        <v/>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1454,6 +1983,13 @@
       <c r="C50" t="b">
         <v>0</v>
       </c>
+      <c r="K50" s="7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="L50" s="18">
+        <f>J50-K50</f>
+        <v/>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1480,6 +2016,13 @@
       <c r="F51" t="n">
         <v>2</v>
       </c>
+      <c r="K51" s="8" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="L51" s="18">
+        <f>J51-K51</f>
+        <v/>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1493,6 +2036,13 @@
       <c r="C52" t="b">
         <v>0</v>
       </c>
+      <c r="K52" s="9" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="L52" s="18">
+        <f>J52-K52</f>
+        <v/>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1506,6 +2056,13 @@
       <c r="C53" t="b">
         <v>0</v>
       </c>
+      <c r="K53" s="7" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="L53" s="18">
+        <f>J53-K53</f>
+        <v/>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1545,6 +2102,13 @@
       <c r="J54" t="n">
         <v>1.115798536375377</v>
       </c>
+      <c r="K54" s="8" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="L54" s="18">
+        <f>J54-K54</f>
+        <v/>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1558,6 +2122,13 @@
       <c r="C55" t="b">
         <v>0</v>
       </c>
+      <c r="K55" s="9" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="L55" s="18">
+        <f>J55-K55</f>
+        <v/>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1595,7 +2166,14 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>0.8143172616856827</v>
+        <v>0.8326930464848252</v>
+      </c>
+      <c r="K56" s="7" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="L56" s="18">
+        <f>J56-K56</f>
+        <v/>
       </c>
     </row>
     <row r="57">
@@ -1623,6 +2201,23 @@
       <c r="F57" t="n">
         <v>1</v>
       </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>976, 656, 1243, 656</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>898, 1053, 1231, 1053</t>
+        </is>
+      </c>
+      <c r="K57" s="8" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="L57" s="18">
+        <f>J57-K57</f>
+        <v/>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1636,6 +2231,13 @@
       <c r="C58" t="b">
         <v>0</v>
       </c>
+      <c r="K58" s="9" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="L58" s="18">
+        <f>J58-K58</f>
+        <v/>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1649,6 +2251,13 @@
       <c r="C59" t="b">
         <v>0</v>
       </c>
+      <c r="K59" s="7" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="L59" s="18">
+        <f>J59-K59</f>
+        <v/>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1675,6 +2284,26 @@
       <c r="F60" t="n">
         <v>1</v>
       </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>978, 653, 1245, 653</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>913, 1053, 1246, 1053</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>0.9283154121863799</v>
+      </c>
+      <c r="K60" s="8" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="L60" s="18">
+        <f>J60-K60</f>
+        <v/>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1688,6 +2317,13 @@
       <c r="C61" t="b">
         <v>0</v>
       </c>
+      <c r="K61" s="9" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="L61" s="18">
+        <f>J61-K61</f>
+        <v/>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1701,6 +2337,13 @@
       <c r="C62" t="b">
         <v>0</v>
       </c>
+      <c r="K62" s="7" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="L62" s="18">
+        <f>J62-K62</f>
+        <v/>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1714,6 +2357,13 @@
       <c r="C63" t="b">
         <v>0</v>
       </c>
+      <c r="K63" s="8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="L63" s="18">
+        <f>J63-K63</f>
+        <v/>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1727,6 +2377,15 @@
       <c r="C64" t="b">
         <v>0</v>
       </c>
+      <c r="K64" s="11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L64" s="18">
+        <f>J64-K64</f>
+        <v/>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1740,6 +2399,13 @@
       <c r="C65" t="b">
         <v>0</v>
       </c>
+      <c r="K65" s="7" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="L65" s="18">
+        <f>J65-K65</f>
+        <v/>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1753,6 +2419,15 @@
       <c r="C66" t="b">
         <v>0</v>
       </c>
+      <c r="K66" s="10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L66" s="18">
+        <f>J66-K66</f>
+        <v/>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1766,6 +2441,15 @@
       <c r="C67" t="b">
         <v>0</v>
       </c>
+      <c r="K67" s="11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L67" s="18">
+        <f>J67-K67</f>
+        <v/>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1779,6 +2463,13 @@
       <c r="C68" t="b">
         <v>0</v>
       </c>
+      <c r="K68" s="7" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="L68" s="18">
+        <f>J68-K68</f>
+        <v/>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -1810,6 +2501,26 @@
           <t>Second video</t>
         </is>
       </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>831, 633, 1098, 633</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>768, 1025, 1101, 1025</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
+        <v>0.9876710472835659</v>
+      </c>
+      <c r="K69" s="8" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="L69" s="18">
+        <f>J69-K69</f>
+        <v/>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -1823,6 +2534,18 @@
       <c r="C70" t="b">
         <v>0</v>
       </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>808, 631, 1075, 631</t>
+        </is>
+      </c>
+      <c r="K70" s="9" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="L70" s="18">
+        <f>J70-K70</f>
+        <v/>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1836,6 +2559,13 @@
       <c r="C71" t="b">
         <v>0</v>
       </c>
+      <c r="K71" s="7" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="L71" s="18">
+        <f>J71-K71</f>
+        <v/>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1862,6 +2592,26 @@
       <c r="F72" t="n">
         <v>1</v>
       </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>721, 541, 988, 541</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>700, 975, 1033, 975</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
+        <v>1.36381247578458</v>
+      </c>
+      <c r="K72" s="8" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="L72" s="18">
+        <f>J72-K72</f>
+        <v/>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1875,6 +2625,13 @@
       <c r="C73" t="b">
         <v>0</v>
       </c>
+      <c r="K73" s="9" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="L73" s="18">
+        <f>J73-K73</f>
+        <v/>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1901,6 +2658,26 @@
       <c r="F74" t="n">
         <v>2</v>
       </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>1221, 541, 1488, 541</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>1173, 881, 1506, 881</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
+        <v>1.446623093681917</v>
+      </c>
+      <c r="K74" s="7" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="L74" s="18">
+        <f>J74-K74</f>
+        <v/>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -1927,6 +2704,26 @@
       <c r="F75" t="n">
         <v>1</v>
       </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>928, 436, 1195, 436</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>920, 768, 1253, 768</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>1.397791543226502</v>
+      </c>
+      <c r="K75" s="8" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="L75" s="18">
+        <f>J75-K75</f>
+        <v/>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -1940,6 +2737,13 @@
       <c r="C76" t="b">
         <v>0</v>
       </c>
+      <c r="K76" s="9" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="L76" s="18">
+        <f>J76-K76</f>
+        <v/>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -1953,6 +2757,13 @@
       <c r="C77" t="b">
         <v>0</v>
       </c>
+      <c r="K77" s="7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="L77" s="18">
+        <f>J77-K77</f>
+        <v/>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -1966,6 +2777,13 @@
       <c r="C78" t="b">
         <v>0</v>
       </c>
+      <c r="K78" s="8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="L78" s="18">
+        <f>J78-K78</f>
+        <v/>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -1979,6 +2797,13 @@
       <c r="C79" t="b">
         <v>0</v>
       </c>
+      <c r="K79" s="9" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="L79" s="18">
+        <f>J79-K79</f>
+        <v/>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2005,6 +2830,23 @@
       <c r="F80" t="n">
         <v>2</v>
       </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>1218, 538, 1485, 538</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>1171, 880, 1505, 880</t>
+        </is>
+      </c>
+      <c r="K80" s="7" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="L80" s="18">
+        <f>J80-K80</f>
+        <v/>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2031,6 +2873,26 @@
       <c r="F81" t="n">
         <v>1</v>
       </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>976, 655, 1243, 655</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>893, 1053, 1226, 1053</t>
+        </is>
+      </c>
+      <c r="J81" t="n">
+        <v>1.380039656311963</v>
+      </c>
+      <c r="K81" s="8" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="L81" s="18">
+        <f>J81-K81</f>
+        <v/>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -2044,6 +2906,13 @@
       <c r="C82" t="b">
         <v>0</v>
       </c>
+      <c r="K82" s="9" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="L82" s="18">
+        <f>J82-K82</f>
+        <v/>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2057,6 +2926,13 @@
       <c r="C83" t="b">
         <v>0</v>
       </c>
+      <c r="K83" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" s="18">
+        <f>J83-K83</f>
+        <v/>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -2070,6 +2946,13 @@
       <c r="C84" t="b">
         <v>0</v>
       </c>
+      <c r="K84" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" s="18">
+        <f>J84-K84</f>
+        <v/>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -2083,6 +2966,13 @@
       <c r="C85" t="b">
         <v>0</v>
       </c>
+      <c r="K85" s="9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L85" s="18">
+        <f>J85-K85</f>
+        <v/>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -2096,6 +2986,13 @@
       <c r="C86" t="b">
         <v>0</v>
       </c>
+      <c r="K86" s="12" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="L86" s="18">
+        <f>J86-K86</f>
+        <v/>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -2109,6 +3006,13 @@
       <c r="C87" t="b">
         <v>0</v>
       </c>
+      <c r="K87" s="13" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="L87" s="18">
+        <f>J87-K87</f>
+        <v/>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -2122,6 +3026,13 @@
       <c r="C88" t="b">
         <v>0</v>
       </c>
+      <c r="K88" s="14" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="L88" s="18">
+        <f>J88-K88</f>
+        <v/>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -2135,6 +3046,13 @@
       <c r="C89" t="b">
         <v>0</v>
       </c>
+      <c r="K89" s="12" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="L89" s="18">
+        <f>J89-K89</f>
+        <v/>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -2148,6 +3066,15 @@
       <c r="C90" t="b">
         <v>0</v>
       </c>
+      <c r="K90" s="15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L90" s="18">
+        <f>J90-K90</f>
+        <v/>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -2161,6 +3088,15 @@
       <c r="C91" t="b">
         <v>0</v>
       </c>
+      <c r="K91" s="16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L91" s="18">
+        <f>J91-K91</f>
+        <v/>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -2187,6 +3123,16 @@
       <c r="F92" t="n">
         <v>2</v>
       </c>
+      <c r="J92" t="n">
+        <v>1.174112256586483</v>
+      </c>
+      <c r="K92" s="12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="L92" s="18">
+        <f>J92-K92</f>
+        <v/>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -2200,6 +3146,13 @@
       <c r="C93" t="b">
         <v>0</v>
       </c>
+      <c r="K93" s="13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="L93" s="18">
+        <f>J93-K93</f>
+        <v/>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2213,6 +3166,13 @@
       <c r="C94" t="b">
         <v>0</v>
       </c>
+      <c r="K94" s="14" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="L94" s="18">
+        <f>J94-K94</f>
+        <v/>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2226,6 +3186,10 @@
       <c r="C95" t="b">
         <v>0</v>
       </c>
+      <c r="L95" s="18">
+        <f>J95-K95</f>
+        <v/>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -2239,6 +3203,10 @@
       <c r="C96" t="b">
         <v>0</v>
       </c>
+      <c r="L96" s="18">
+        <f>J96-K96</f>
+        <v/>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2252,6 +3220,10 @@
       <c r="C97" t="b">
         <v>0</v>
       </c>
+      <c r="L97" s="18">
+        <f>J97-K97</f>
+        <v/>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -2265,6 +3237,10 @@
       <c r="C98" t="b">
         <v>0</v>
       </c>
+      <c r="L98" s="18">
+        <f>J98-K98</f>
+        <v/>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -2278,6 +3254,10 @@
       <c r="C99" t="b">
         <v>0</v>
       </c>
+      <c r="L99" s="18">
+        <f>J99-K99</f>
+        <v/>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -2291,6 +3271,10 @@
       <c r="C100" t="b">
         <v>0</v>
       </c>
+      <c r="L100" s="18">
+        <f>J100-K100</f>
+        <v/>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -2304,6 +3288,10 @@
       <c r="C101" t="b">
         <v>0</v>
       </c>
+      <c r="L101" s="18">
+        <f>J101-K101</f>
+        <v/>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -2317,6 +3305,10 @@
       <c r="C102" t="b">
         <v>0</v>
       </c>
+      <c r="L102" s="18">
+        <f>J102-K102</f>
+        <v/>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -2330,6 +3322,10 @@
       <c r="C103" t="b">
         <v>0</v>
       </c>
+      <c r="L103" s="18">
+        <f>J103-K103</f>
+        <v/>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -2343,6 +3339,10 @@
       <c r="C104" t="b">
         <v>0</v>
       </c>
+      <c r="L104" s="18">
+        <f>J104-K104</f>
+        <v/>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -2356,6 +3356,10 @@
       <c r="C105" t="b">
         <v>0</v>
       </c>
+      <c r="L105" s="18">
+        <f>J105-K105</f>
+        <v/>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -2369,6 +3373,10 @@
       <c r="C106" t="b">
         <v>0</v>
       </c>
+      <c r="L106" s="18">
+        <f>J106-K106</f>
+        <v/>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -2382,6 +3390,10 @@
       <c r="C107" t="b">
         <v>0</v>
       </c>
+      <c r="L107" s="18">
+        <f>J107-K107</f>
+        <v/>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -2395,6 +3407,10 @@
       <c r="C108" t="b">
         <v>0</v>
       </c>
+      <c r="L108" s="18">
+        <f>J108-K108</f>
+        <v/>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -2408,6 +3424,10 @@
       <c r="C109" t="b">
         <v>0</v>
       </c>
+      <c r="L109" s="18">
+        <f>J109-K109</f>
+        <v/>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -2421,6 +3441,10 @@
       <c r="C110" t="b">
         <v>0</v>
       </c>
+      <c r="L110" s="18">
+        <f>J110-K110</f>
+        <v/>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -2434,6 +3458,10 @@
       <c r="C111" t="b">
         <v>0</v>
       </c>
+      <c r="L111" s="18">
+        <f>J111-K111</f>
+        <v/>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -2447,6 +3475,10 @@
       <c r="C112" t="b">
         <v>0</v>
       </c>
+      <c r="L112" s="18">
+        <f>J112-K112</f>
+        <v/>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -2460,6 +3492,10 @@
       <c r="C113" t="b">
         <v>0</v>
       </c>
+      <c r="L113" s="18">
+        <f>J113-K113</f>
+        <v/>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -2473,6 +3509,10 @@
       <c r="C114" t="b">
         <v>0</v>
       </c>
+      <c r="L114" s="18">
+        <f>J114-K114</f>
+        <v/>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -2486,6 +3526,10 @@
       <c r="C115" t="b">
         <v>0</v>
       </c>
+      <c r="L115" s="18">
+        <f>J115-K115</f>
+        <v/>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -2499,6 +3543,10 @@
       <c r="C116" t="b">
         <v>0</v>
       </c>
+      <c r="L116" s="18">
+        <f>J116-K116</f>
+        <v/>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -2512,6 +3560,10 @@
       <c r="C117" t="b">
         <v>0</v>
       </c>
+      <c r="L117" s="18">
+        <f>J117-K117</f>
+        <v/>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -2525,6 +3577,10 @@
       <c r="C118" t="b">
         <v>0</v>
       </c>
+      <c r="L118" s="18">
+        <f>J118-K118</f>
+        <v/>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -2538,6 +3594,10 @@
       <c r="C119" t="b">
         <v>0</v>
       </c>
+      <c r="L119" s="18">
+        <f>J119-K119</f>
+        <v/>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -2551,6 +3611,10 @@
       <c r="C120" t="b">
         <v>0</v>
       </c>
+      <c r="L120" s="18">
+        <f>J120-K120</f>
+        <v/>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -2564,6 +3628,10 @@
       <c r="C121" t="b">
         <v>0</v>
       </c>
+      <c r="L121" s="18">
+        <f>J121-K121</f>
+        <v/>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -2577,6 +3645,10 @@
       <c r="C122" t="b">
         <v>0</v>
       </c>
+      <c r="L122" s="18">
+        <f>J122-K122</f>
+        <v/>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -2590,6 +3662,10 @@
       <c r="C123" t="b">
         <v>0</v>
       </c>
+      <c r="L123" s="18">
+        <f>J123-K123</f>
+        <v/>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -2603,6 +3679,10 @@
       <c r="C124" t="b">
         <v>0</v>
       </c>
+      <c r="L124" s="18">
+        <f>J124-K124</f>
+        <v/>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -2616,6 +3696,10 @@
       <c r="C125" t="b">
         <v>0</v>
       </c>
+      <c r="L125" s="18">
+        <f>J125-K125</f>
+        <v/>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -2629,6 +3713,10 @@
       <c r="C126" t="b">
         <v>0</v>
       </c>
+      <c r="L126" s="18">
+        <f>J126-K126</f>
+        <v/>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -2642,6 +3730,10 @@
       <c r="C127" t="b">
         <v>0</v>
       </c>
+      <c r="L127" s="18">
+        <f>J127-K127</f>
+        <v/>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -2655,6 +3747,10 @@
       <c r="C128" t="b">
         <v>0</v>
       </c>
+      <c r="L128" s="18">
+        <f>J128-K128</f>
+        <v/>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -2668,6 +3764,10 @@
       <c r="C129" t="b">
         <v>0</v>
       </c>
+      <c r="L129" s="18">
+        <f>J129-K129</f>
+        <v/>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -2681,6 +3781,10 @@
       <c r="C130" t="b">
         <v>0</v>
       </c>
+      <c r="L130" s="18">
+        <f>J130-K130</f>
+        <v/>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -2694,6 +3798,10 @@
       <c r="C131" t="b">
         <v>0</v>
       </c>
+      <c r="L131" s="18">
+        <f>J131-K131</f>
+        <v/>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -2707,6 +3815,10 @@
       <c r="C132" t="b">
         <v>0</v>
       </c>
+      <c r="L132" s="18">
+        <f>J132-K132</f>
+        <v/>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -2720,6 +3832,10 @@
       <c r="C133" t="b">
         <v>0</v>
       </c>
+      <c r="L133" s="18">
+        <f>J133-K133</f>
+        <v/>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -2733,6 +3849,10 @@
       <c r="C134" t="b">
         <v>0</v>
       </c>
+      <c r="L134" s="18">
+        <f>J134-K134</f>
+        <v/>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -2746,6 +3866,10 @@
       <c r="C135" t="b">
         <v>0</v>
       </c>
+      <c r="L135" s="18">
+        <f>J135-K135</f>
+        <v/>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -2759,6 +3883,10 @@
       <c r="C136" t="b">
         <v>0</v>
       </c>
+      <c r="L136" s="18">
+        <f>J136-K136</f>
+        <v/>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -2772,6 +3900,10 @@
       <c r="C137" t="b">
         <v>0</v>
       </c>
+      <c r="L137" s="18">
+        <f>J137-K137</f>
+        <v/>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -2785,6 +3917,10 @@
       <c r="C138" t="b">
         <v>0</v>
       </c>
+      <c r="L138" s="18">
+        <f>J138-K138</f>
+        <v/>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -2798,6 +3934,10 @@
       <c r="C139" t="b">
         <v>0</v>
       </c>
+      <c r="L139" s="18">
+        <f>J139-K139</f>
+        <v/>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -2811,6 +3951,10 @@
       <c r="C140" t="b">
         <v>0</v>
       </c>
+      <c r="L140" s="18">
+        <f>J140-K140</f>
+        <v/>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -2824,6 +3968,10 @@
       <c r="C141" t="b">
         <v>0</v>
       </c>
+      <c r="L141" s="18">
+        <f>J141-K141</f>
+        <v/>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -2837,6 +3985,10 @@
       <c r="C142" t="b">
         <v>0</v>
       </c>
+      <c r="L142" s="18">
+        <f>J142-K142</f>
+        <v/>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -2850,6 +4002,10 @@
       <c r="C143" t="b">
         <v>0</v>
       </c>
+      <c r="L143" s="18">
+        <f>J143-K143</f>
+        <v/>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -2863,6 +4019,10 @@
       <c r="C144" t="b">
         <v>0</v>
       </c>
+      <c r="L144" s="18">
+        <f>J144-K144</f>
+        <v/>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -2876,6 +4036,10 @@
       <c r="C145" t="b">
         <v>0</v>
       </c>
+      <c r="L145" s="18">
+        <f>J145-K145</f>
+        <v/>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -2889,6 +4053,10 @@
       <c r="C146" t="b">
         <v>0</v>
       </c>
+      <c r="L146" s="18">
+        <f>J146-K146</f>
+        <v/>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -2902,6 +4070,10 @@
       <c r="C147" t="b">
         <v>0</v>
       </c>
+      <c r="L147" s="18">
+        <f>J147-K147</f>
+        <v/>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -2915,6 +4087,10 @@
       <c r="C148" t="b">
         <v>0</v>
       </c>
+      <c r="L148" s="18">
+        <f>J148-K148</f>
+        <v/>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -2928,6 +4104,10 @@
       <c r="C149" t="b">
         <v>0</v>
       </c>
+      <c r="L149" s="18">
+        <f>J149-K149</f>
+        <v/>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -2941,6 +4121,10 @@
       <c r="C150" t="b">
         <v>0</v>
       </c>
+      <c r="L150" s="18">
+        <f>J150-K150</f>
+        <v/>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -2954,6 +4138,10 @@
       <c r="C151" t="b">
         <v>0</v>
       </c>
+      <c r="L151" s="18">
+        <f>J151-K151</f>
+        <v/>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -2967,6 +4155,10 @@
       <c r="C152" t="b">
         <v>0</v>
       </c>
+      <c r="L152" s="18">
+        <f>J152-K152</f>
+        <v/>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -2980,6 +4172,10 @@
       <c r="C153" t="b">
         <v>0</v>
       </c>
+      <c r="L153" s="18">
+        <f>J153-K153</f>
+        <v/>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -2993,6 +4189,10 @@
       <c r="C154" t="b">
         <v>0</v>
       </c>
+      <c r="L154" s="18">
+        <f>J154-K154</f>
+        <v/>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -3006,6 +4206,10 @@
       <c r="C155" t="b">
         <v>0</v>
       </c>
+      <c r="L155" s="18">
+        <f>J155-K155</f>
+        <v/>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -3019,6 +4223,10 @@
       <c r="C156" t="b">
         <v>0</v>
       </c>
+      <c r="L156" s="18">
+        <f>J156-K156</f>
+        <v/>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -3032,6 +4240,10 @@
       <c r="C157" t="b">
         <v>0</v>
       </c>
+      <c r="L157" s="18">
+        <f>J157-K157</f>
+        <v/>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -3045,6 +4257,10 @@
       <c r="C158" t="b">
         <v>0</v>
       </c>
+      <c r="L158" s="18">
+        <f>J158-K158</f>
+        <v/>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -3058,6 +4274,10 @@
       <c r="C159" t="b">
         <v>0</v>
       </c>
+      <c r="L159" s="18">
+        <f>J159-K159</f>
+        <v/>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -3071,6 +4291,10 @@
       <c r="C160" t="b">
         <v>0</v>
       </c>
+      <c r="L160" s="18">
+        <f>J160-K160</f>
+        <v/>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -3084,6 +4308,10 @@
       <c r="C161" t="b">
         <v>0</v>
       </c>
+      <c r="L161" s="18">
+        <f>J161-K161</f>
+        <v/>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -3097,6 +4325,10 @@
       <c r="C162" t="b">
         <v>0</v>
       </c>
+      <c r="L162" s="18">
+        <f>J162-K162</f>
+        <v/>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -3110,6 +4342,10 @@
       <c r="C163" t="b">
         <v>0</v>
       </c>
+      <c r="L163" s="18">
+        <f>J163-K163</f>
+        <v/>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -3123,6 +4359,10 @@
       <c r="C164" t="b">
         <v>0</v>
       </c>
+      <c r="L164" s="18">
+        <f>J164-K164</f>
+        <v/>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -3136,6 +4376,10 @@
       <c r="C165" t="b">
         <v>0</v>
       </c>
+      <c r="L165" s="18">
+        <f>J165-K165</f>
+        <v/>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -3149,6 +4393,10 @@
       <c r="C166" t="b">
         <v>0</v>
       </c>
+      <c r="L166" s="18">
+        <f>J166-K166</f>
+        <v/>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -3162,6 +4410,10 @@
       <c r="C167" t="b">
         <v>0</v>
       </c>
+      <c r="L167" s="18">
+        <f>J167-K167</f>
+        <v/>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -3175,6 +4427,10 @@
       <c r="C168" t="b">
         <v>0</v>
       </c>
+      <c r="L168" s="18">
+        <f>J168-K168</f>
+        <v/>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -3188,6 +4444,10 @@
       <c r="C169" t="b">
         <v>0</v>
       </c>
+      <c r="L169" s="18">
+        <f>J169-K169</f>
+        <v/>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -3201,6 +4461,10 @@
       <c r="C170" t="b">
         <v>0</v>
       </c>
+      <c r="L170" s="18">
+        <f>J170-K170</f>
+        <v/>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -3214,6 +4478,10 @@
       <c r="C171" t="b">
         <v>0</v>
       </c>
+      <c r="L171" s="18">
+        <f>J171-K171</f>
+        <v/>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -3227,6 +4495,10 @@
       <c r="C172" t="b">
         <v>0</v>
       </c>
+      <c r="L172" s="18">
+        <f>J172-K172</f>
+        <v/>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -3240,6 +4512,10 @@
       <c r="C173" t="b">
         <v>0</v>
       </c>
+      <c r="L173" s="18">
+        <f>J173-K173</f>
+        <v/>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -3253,6 +4529,10 @@
       <c r="C174" t="b">
         <v>0</v>
       </c>
+      <c r="L174" s="18">
+        <f>J174-K174</f>
+        <v/>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -3266,6 +4546,10 @@
       <c r="C175" t="b">
         <v>0</v>
       </c>
+      <c r="L175" s="18">
+        <f>J175-K175</f>
+        <v/>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -3303,7 +4587,14 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>1.285909712722298</v>
+        <v>1.319942611190818</v>
+      </c>
+      <c r="K176" s="12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="L176" s="18">
+        <f>J176-K176</f>
+        <v/>
       </c>
     </row>
     <row r="177">
@@ -3336,6 +4627,21 @@
           <t>room fliped</t>
         </is>
       </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>993, 626, 1260, 626</t>
+        </is>
+      </c>
+      <c r="J177" t="n">
+        <v>1.215220949263502</v>
+      </c>
+      <c r="K177" s="13" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="L177" s="18">
+        <f>J177-K177</f>
+        <v/>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -3349,6 +4655,13 @@
       <c r="C178" t="b">
         <v>0</v>
       </c>
+      <c r="K178" s="14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="L178" s="18">
+        <f>J178-K178</f>
+        <v/>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -3375,6 +4688,21 @@
       <c r="F179" t="n">
         <v>3</v>
       </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>848, 603, 1115, 603</t>
+        </is>
+      </c>
+      <c r="J179" t="n">
+        <v>1.005046257359125</v>
+      </c>
+      <c r="K179" s="12" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="L179" s="18">
+        <f>J179-K179</f>
+        <v/>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -3388,6 +4716,13 @@
       <c r="C180" t="b">
         <v>0</v>
       </c>
+      <c r="K180" s="13" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="L180" s="18">
+        <f>J180-K180</f>
+        <v/>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -3401,6 +4736,13 @@
       <c r="C181" t="b">
         <v>0</v>
       </c>
+      <c r="K181" s="14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="L181" s="18">
+        <f>J181-K181</f>
+        <v/>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -3414,6 +4756,13 @@
       <c r="C182" t="b">
         <v>0</v>
       </c>
+      <c r="K182" s="12" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="L182" s="18">
+        <f>J182-K182</f>
+        <v/>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -3440,6 +4789,26 @@
       <c r="F183" t="n">
         <v>3</v>
       </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>803, 575, 1070, 575</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>756, 951, 1090, 951</t>
+        </is>
+      </c>
+      <c r="J183" t="n">
+        <v>1.18252427184466</v>
+      </c>
+      <c r="K183" s="13" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="L183" s="18">
+        <f>J183-K183</f>
+        <v/>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -3466,6 +4835,21 @@
       <c r="F184" t="n">
         <v>3</v>
       </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>750, 426, 1016, 426</t>
+        </is>
+      </c>
+      <c r="J184" t="n">
+        <v>1.176923076923077</v>
+      </c>
+      <c r="K184" s="14" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="L184" s="18">
+        <f>J184-K184</f>
+        <v/>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -3479,6 +4863,10 @@
       <c r="C185" t="b">
         <v>0</v>
       </c>
+      <c r="L185" s="18">
+        <f>J185-K185</f>
+        <v/>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -3492,6 +4880,10 @@
       <c r="C186" t="b">
         <v>0</v>
       </c>
+      <c r="L186" s="18">
+        <f>J186-K186</f>
+        <v/>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -3505,6 +4897,10 @@
       <c r="C187" t="b">
         <v>0</v>
       </c>
+      <c r="L187" s="18">
+        <f>J187-K187</f>
+        <v/>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -3518,6 +4914,13 @@
       <c r="C188" t="b">
         <v>0</v>
       </c>
+      <c r="K188" s="12" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="L188" s="18">
+        <f>J188-K188</f>
+        <v/>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -3531,6 +4934,13 @@
       <c r="C189" t="b">
         <v>0</v>
       </c>
+      <c r="K189" s="13" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="L189" s="18">
+        <f>J189-K189</f>
+        <v/>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -3544,6 +4954,15 @@
       <c r="C190" t="b">
         <v>0</v>
       </c>
+      <c r="K190" s="16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L190" s="18">
+        <f>J190-K190</f>
+        <v/>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -3557,6 +4976,10 @@
       <c r="C191" t="b">
         <v>0</v>
       </c>
+      <c r="L191" s="18">
+        <f>J191-K191</f>
+        <v/>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -3570,6 +4993,10 @@
       <c r="C192" t="b">
         <v>0</v>
       </c>
+      <c r="L192" s="18">
+        <f>J192-K192</f>
+        <v/>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -3583,6 +5010,10 @@
       <c r="C193" t="b">
         <v>0</v>
       </c>
+      <c r="L193" s="18">
+        <f>J193-K193</f>
+        <v/>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -3596,6 +5027,10 @@
       <c r="C194" t="b">
         <v>0</v>
       </c>
+      <c r="L194" s="18">
+        <f>J194-K194</f>
+        <v/>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -3609,6 +5044,10 @@
       <c r="C195" t="b">
         <v>0</v>
       </c>
+      <c r="L195" s="18">
+        <f>J195-K195</f>
+        <v/>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -3622,6 +5061,10 @@
       <c r="C196" t="b">
         <v>0</v>
       </c>
+      <c r="L196" s="18">
+        <f>J196-K196</f>
+        <v/>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -3635,6 +5078,13 @@
       <c r="C197" t="b">
         <v>0</v>
       </c>
+      <c r="K197" s="12" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="L197" s="18">
+        <f>J197-K197</f>
+        <v/>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -3661,6 +5111,21 @@
       <c r="F198" t="n">
         <v>3</v>
       </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>770, 706, 1036, 706</t>
+        </is>
+      </c>
+      <c r="J198" t="n">
+        <v>1.058275058275058</v>
+      </c>
+      <c r="K198" s="13" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="L198" s="18">
+        <f>J198-K198</f>
+        <v/>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -3674,6 +5139,15 @@
       <c r="C199" t="b">
         <v>0</v>
       </c>
+      <c r="K199" s="16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L199" s="18">
+        <f>J199-K199</f>
+        <v/>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -3687,6 +5161,13 @@
       <c r="C200" t="b">
         <v>0</v>
       </c>
+      <c r="K200" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" s="18">
+        <f>J200-K200</f>
+        <v/>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -3713,6 +5194,18 @@
       <c r="F201" t="n">
         <v>3</v>
       </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>895, 630, 1161, 630</t>
+        </is>
+      </c>
+      <c r="K201" s="13" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="L201" s="18">
+        <f>J201-K201</f>
+        <v/>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -3726,6 +5219,13 @@
       <c r="C202" t="b">
         <v>0</v>
       </c>
+      <c r="K202" s="14" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="L202" s="18">
+        <f>J202-K202</f>
+        <v/>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -3739,6 +5239,10 @@
       <c r="C203" t="b">
         <v>0</v>
       </c>
+      <c r="L203" s="18">
+        <f>J203-K203</f>
+        <v/>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -3752,6 +5256,10 @@
       <c r="C204" t="b">
         <v>0</v>
       </c>
+      <c r="L204" s="18">
+        <f>J204-K204</f>
+        <v/>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -3765,6 +5273,10 @@
       <c r="C205" t="b">
         <v>0</v>
       </c>
+      <c r="L205" s="18">
+        <f>J205-K205</f>
+        <v/>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -3791,6 +5303,26 @@
       <c r="F206" t="n">
         <v>3</v>
       </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>890, 611, 1156, 611</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>876, 1003, 1210, 1003</t>
+        </is>
+      </c>
+      <c r="J206" t="n">
+        <v>1.410105757931845</v>
+      </c>
+      <c r="K206" s="12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="L206" s="18">
+        <f>J206-K206</f>
+        <v/>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -3817,6 +5349,18 @@
       <c r="F207" t="n">
         <v>3</v>
       </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>891, 628, 1158, 628</t>
+        </is>
+      </c>
+      <c r="K207" s="13" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="L207" s="18">
+        <f>J207-K207</f>
+        <v/>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -3830,6 +5374,13 @@
       <c r="C208" t="b">
         <v>0</v>
       </c>
+      <c r="K208" s="14" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="L208" s="18">
+        <f>J208-K208</f>
+        <v/>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -3843,6 +5394,10 @@
       <c r="C209" t="b">
         <v>0</v>
       </c>
+      <c r="L209" s="18">
+        <f>J209-K209</f>
+        <v/>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -3856,6 +5411,10 @@
       <c r="C210" t="b">
         <v>0</v>
       </c>
+      <c r="L210" s="18">
+        <f>J210-K210</f>
+        <v/>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -3869,6 +5428,10 @@
       <c r="C211" t="b">
         <v>0</v>
       </c>
+      <c r="L211" s="18">
+        <f>J211-K211</f>
+        <v/>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -3882,6 +5445,10 @@
       <c r="C212" t="b">
         <v>0</v>
       </c>
+      <c r="L212" s="18">
+        <f>J212-K212</f>
+        <v/>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -3895,6 +5462,10 @@
       <c r="C213" t="b">
         <v>0</v>
       </c>
+      <c r="L213" s="18">
+        <f>J213-K213</f>
+        <v/>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -3908,6 +5479,10 @@
       <c r="C214" t="b">
         <v>0</v>
       </c>
+      <c r="L214" s="18">
+        <f>J214-K214</f>
+        <v/>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -3921,6 +5496,13 @@
       <c r="C215" t="b">
         <v>0</v>
       </c>
+      <c r="K215" s="12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L215" s="18">
+        <f>J215-K215</f>
+        <v/>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -3934,6 +5516,15 @@
       <c r="C216" t="b">
         <v>0</v>
       </c>
+      <c r="K216" s="15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L216" s="18">
+        <f>J216-K216</f>
+        <v/>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -3947,6 +5538,15 @@
       <c r="C217" t="b">
         <v>0</v>
       </c>
+      <c r="K217" s="16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L217" s="18">
+        <f>J217-K217</f>
+        <v/>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -3973,6 +5573,21 @@
       <c r="F218" t="n">
         <v>3</v>
       </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>841, 600, 1108, 600</t>
+        </is>
+      </c>
+      <c r="J218" t="n">
+        <v>1.074512312120243</v>
+      </c>
+      <c r="K218" s="12" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="L218" s="18">
+        <f>J218-K218</f>
+        <v/>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -3999,6 +5614,21 @@
       <c r="F219" t="n">
         <v>3</v>
       </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>810, 368, 1076, 368</t>
+        </is>
+      </c>
+      <c r="J219" t="n">
+        <v>0.9836726466438219</v>
+      </c>
+      <c r="K219" s="13" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L219" s="18">
+        <f>J219-K219</f>
+        <v/>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -4012,6 +5642,13 @@
       <c r="C220" t="b">
         <v>0</v>
       </c>
+      <c r="K220" s="14" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="L220" s="18">
+        <f>J220-K220</f>
+        <v/>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -4038,6 +5675,23 @@
       <c r="F221" t="n">
         <v>3</v>
       </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>930, 556, 1196, 556</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>813, 1026, 1146, 1026</t>
+        </is>
+      </c>
+      <c r="K221" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" s="18">
+        <f>J221-K221</f>
+        <v/>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -4051,6 +5705,13 @@
       <c r="C222" t="b">
         <v>0</v>
       </c>
+      <c r="K222" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" s="18">
+        <f>J222-K222</f>
+        <v/>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -4064,6 +5725,13 @@
       <c r="C223" t="b">
         <v>0</v>
       </c>
+      <c r="K223" s="14" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="L223" s="18">
+        <f>J223-K223</f>
+        <v/>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -4077,6 +5745,10 @@
       <c r="C224" t="b">
         <v>0</v>
       </c>
+      <c r="L224" s="18">
+        <f>J224-K224</f>
+        <v/>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -4090,6 +5762,10 @@
       <c r="C225" t="b">
         <v>0</v>
       </c>
+      <c r="L225" s="18">
+        <f>J225-K225</f>
+        <v/>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -4103,6 +5779,10 @@
       <c r="C226" t="b">
         <v>0</v>
       </c>
+      <c r="L226" s="18">
+        <f>J226-K226</f>
+        <v/>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -4116,6 +5796,13 @@
       <c r="C227" t="b">
         <v>0</v>
       </c>
+      <c r="K227" s="12" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="L227" s="18">
+        <f>J227-K227</f>
+        <v/>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -4129,6 +5816,15 @@
       <c r="C228" t="b">
         <v>0</v>
       </c>
+      <c r="K228" s="15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L228" s="18">
+        <f>J228-K228</f>
+        <v/>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -4142,6 +5838,15 @@
       <c r="C229" t="b">
         <v>0</v>
       </c>
+      <c r="K229" s="16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L229" s="18">
+        <f>J229-K229</f>
+        <v/>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -4155,6 +5860,10 @@
       <c r="C230" t="b">
         <v>0</v>
       </c>
+      <c r="L230" s="18">
+        <f>J230-K230</f>
+        <v/>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -4168,6 +5877,10 @@
       <c r="C231" t="b">
         <v>0</v>
       </c>
+      <c r="L231" s="18">
+        <f>J231-K231</f>
+        <v/>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -4181,6 +5894,10 @@
       <c r="C232" t="b">
         <v>0</v>
       </c>
+      <c r="L232" s="18">
+        <f>J232-K232</f>
+        <v/>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -4218,7 +5935,14 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>1.283026626914773</v>
+        <v>1.580034423407917</v>
+      </c>
+      <c r="K233" s="12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="L233" s="18">
+        <f>J233-K233</f>
+        <v/>
       </c>
     </row>
     <row r="234">
@@ -4233,6 +5957,13 @@
       <c r="C234" t="b">
         <v>0</v>
       </c>
+      <c r="K234" s="13" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="L234" s="18">
+        <f>J234-K234</f>
+        <v/>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -4246,6 +5977,13 @@
       <c r="C235" t="b">
         <v>0</v>
       </c>
+      <c r="K235" s="14" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="L235" s="18">
+        <f>J235-K235</f>
+        <v/>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -4259,6 +5997,10 @@
       <c r="C236" t="b">
         <v>0</v>
       </c>
+      <c r="L236" s="18">
+        <f>J236-K236</f>
+        <v/>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -4272,6 +6014,10 @@
       <c r="C237" t="b">
         <v>0</v>
       </c>
+      <c r="L237" s="18">
+        <f>J237-K237</f>
+        <v/>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -4285,6 +6031,10 @@
       <c r="C238" t="b">
         <v>0</v>
       </c>
+      <c r="L238" s="18">
+        <f>J238-K238</f>
+        <v/>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -4298,6 +6048,13 @@
       <c r="C239" t="b">
         <v>0</v>
       </c>
+      <c r="K239" s="12" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="L239" s="18">
+        <f>J239-K239</f>
+        <v/>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -4332,6 +6089,13 @@
       <c r="J240" t="n">
         <v>1.726708074534161</v>
       </c>
+      <c r="K240" s="13" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="L240" s="18">
+        <f>J240-K240</f>
+        <v/>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -4345,6 +6109,13 @@
       <c r="C241" t="b">
         <v>0</v>
       </c>
+      <c r="K241" s="14" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="L241" s="18">
+        <f>J241-K241</f>
+        <v/>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -4371,6 +6142,21 @@
       <c r="F242" t="n">
         <v>3</v>
       </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>876, 653, 1143, 653</t>
+        </is>
+      </c>
+      <c r="J242" t="n">
+        <v>1.832167832167832</v>
+      </c>
+      <c r="K242" s="12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="L242" s="18">
+        <f>J242-K242</f>
+        <v/>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -4384,6 +6170,13 @@
       <c r="C243" t="b">
         <v>0</v>
       </c>
+      <c r="K243" s="13" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="L243" s="18">
+        <f>J243-K243</f>
+        <v/>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -4410,6 +6203,26 @@
       <c r="F244" t="n">
         <v>3</v>
       </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>753, 426, 1020, 426</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>770, 670, 1103, 670</t>
+        </is>
+      </c>
+      <c r="J244" t="n">
+        <v>1.536203522504892</v>
+      </c>
+      <c r="K244" s="14" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="L244" s="18">
+        <f>J244-K244</f>
+        <v/>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -4436,6 +6249,26 @@
       <c r="F245" t="n">
         <v>3</v>
       </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>850, 651, 1116, 651</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>835, 985, 1168, 985</t>
+        </is>
+      </c>
+      <c r="J245" t="n">
+        <v>1.201923076923077</v>
+      </c>
+      <c r="K245" s="12" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="L245" s="18">
+        <f>J245-K245</f>
+        <v/>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -4462,6 +6295,21 @@
       <c r="F246" t="n">
         <v>3</v>
       </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>875, 655, 1141, 655</t>
+        </is>
+      </c>
+      <c r="J246" t="n">
+        <v>1.548451548451548</v>
+      </c>
+      <c r="K246" s="13" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="L246" s="18">
+        <f>J246-K246</f>
+        <v/>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -4475,6 +6323,13 @@
       <c r="C247" t="b">
         <v>0</v>
       </c>
+      <c r="K247" s="14" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="L247" s="18">
+        <f>J247-K247</f>
+        <v/>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -4488,6 +6343,13 @@
       <c r="C248" t="b">
         <v>0</v>
       </c>
+      <c r="K248" s="12" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="L248" s="18">
+        <f>J248-K248</f>
+        <v/>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -4501,6 +6363,13 @@
       <c r="C249" t="b">
         <v>0</v>
       </c>
+      <c r="K249" s="13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="L249" s="18">
+        <f>J249-K249</f>
+        <v/>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -4514,6 +6383,13 @@
       <c r="C250" t="b">
         <v>0</v>
       </c>
+      <c r="K250" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" s="18">
+        <f>J250-K250</f>
+        <v/>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -4527,6 +6403,13 @@
       <c r="C251" t="b">
         <v>0</v>
       </c>
+      <c r="K251" s="12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="L251" s="18">
+        <f>J251-K251</f>
+        <v/>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -4553,6 +6436,21 @@
       <c r="F252" t="n">
         <v>3</v>
       </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>896, 655, 1163, 655</t>
+        </is>
+      </c>
+      <c r="J252" t="n">
+        <v>1.904761904761905</v>
+      </c>
+      <c r="K252" s="13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="L252" s="18">
+        <f>J252-K252</f>
+        <v/>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -4566,6 +6464,13 @@
       <c r="C253" t="b">
         <v>0</v>
       </c>
+      <c r="K253" s="14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="L253" s="18">
+        <f>J253-K253</f>
+        <v/>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -4579,6 +6484,13 @@
       <c r="C254" t="b">
         <v>0</v>
       </c>
+      <c r="K254" s="12" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="L254" s="18">
+        <f>J254-K254</f>
+        <v/>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -4592,6 +6504,15 @@
       <c r="C255" t="b">
         <v>0</v>
       </c>
+      <c r="K255" s="15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L255" s="18">
+        <f>J255-K255</f>
+        <v/>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -4605,6 +6526,15 @@
       <c r="C256" t="b">
         <v>0</v>
       </c>
+      <c r="K256" s="16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L256" s="18">
+        <f>J256-K256</f>
+        <v/>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -4618,6 +6548,13 @@
       <c r="C257" t="b">
         <v>0</v>
       </c>
+      <c r="K257" s="12" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="L257" s="18">
+        <f>J257-K257</f>
+        <v/>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -4644,6 +6581,26 @@
       <c r="F258" t="n">
         <v>3</v>
       </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>808, 621, 1075, 621</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>753, 958, 1086, 958</t>
+        </is>
+      </c>
+      <c r="J258" t="n">
+        <v>1.318840579710145</v>
+      </c>
+      <c r="K258" s="13" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="L258" s="18">
+        <f>J258-K258</f>
+        <v/>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -4657,6 +6614,13 @@
       <c r="C259" t="b">
         <v>0</v>
       </c>
+      <c r="K259" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" s="18">
+        <f>J259-K259</f>
+        <v/>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -4670,6 +6634,10 @@
       <c r="C260" t="b">
         <v>0</v>
       </c>
+      <c r="L260" s="18">
+        <f>J260-K260</f>
+        <v/>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -4683,6 +6651,10 @@
       <c r="C261" t="b">
         <v>0</v>
       </c>
+      <c r="L261" s="18">
+        <f>J261-K261</f>
+        <v/>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -4696,6 +6668,10 @@
       <c r="C262" t="b">
         <v>0</v>
       </c>
+      <c r="L262" s="18">
+        <f>J262-K262</f>
+        <v/>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -4709,6 +6685,13 @@
       <c r="C263" t="b">
         <v>0</v>
       </c>
+      <c r="K263" s="12" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="L263" s="18">
+        <f>J263-K263</f>
+        <v/>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -4722,6 +6705,13 @@
       <c r="C264" t="b">
         <v>0</v>
       </c>
+      <c r="K264" s="13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="L264" s="18">
+        <f>J264-K264</f>
+        <v/>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -4735,6 +6725,13 @@
       <c r="C265" t="b">
         <v>0</v>
       </c>
+      <c r="K265" s="14" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="L265" s="18">
+        <f>J265-K265</f>
+        <v/>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -4748,6 +6745,10 @@
       <c r="C266" t="b">
         <v>0</v>
       </c>
+      <c r="L266" s="18">
+        <f>J266-K266</f>
+        <v/>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -4761,6 +6762,10 @@
       <c r="C267" t="b">
         <v>0</v>
       </c>
+      <c r="L267" s="18">
+        <f>J267-K267</f>
+        <v/>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -4774,6 +6779,10 @@
       <c r="C268" t="b">
         <v>0</v>
       </c>
+      <c r="L268" s="18">
+        <f>J268-K268</f>
+        <v/>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -4787,6 +6796,13 @@
       <c r="C269" t="b">
         <v>0</v>
       </c>
+      <c r="K269" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" s="18">
+        <f>J269-K269</f>
+        <v/>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -4800,6 +6816,15 @@
       <c r="C270" t="b">
         <v>0</v>
       </c>
+      <c r="K270" s="15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L270" s="18">
+        <f>J270-K270</f>
+        <v/>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -4813,6 +6838,15 @@
       <c r="C271" t="b">
         <v>0</v>
       </c>
+      <c r="K271" s="16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L271" s="18">
+        <f>J271-K271</f>
+        <v/>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -4839,6 +6873,13 @@
       <c r="F272" t="n">
         <v>3</v>
       </c>
+      <c r="K272" s="12" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="L272" s="18">
+        <f>J272-K272</f>
+        <v/>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -4865,6 +6906,13 @@
       <c r="F273" t="n">
         <v>1</v>
       </c>
+      <c r="K273" s="13" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="L273" s="18">
+        <f>J273-K273</f>
+        <v/>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -4878,6 +6926,13 @@
       <c r="C274" t="b">
         <v>0</v>
       </c>
+      <c r="K274" s="14" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="L274" s="18">
+        <f>J274-K274</f>
+        <v/>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -4891,6 +6946,13 @@
       <c r="C275" t="b">
         <v>0</v>
       </c>
+      <c r="K275" s="12" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="L275" s="18">
+        <f>J275-K275</f>
+        <v/>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -4904,6 +6966,13 @@
       <c r="C276" t="b">
         <v>0</v>
       </c>
+      <c r="K276" s="13" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="L276" s="18">
+        <f>J276-K276</f>
+        <v/>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -4917,6 +6986,13 @@
       <c r="C277" t="b">
         <v>0</v>
       </c>
+      <c r="K277" s="14" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="L277" s="18">
+        <f>J277-K277</f>
+        <v/>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -4930,6 +7006,13 @@
       <c r="C278" t="b">
         <v>0</v>
       </c>
+      <c r="K278" s="12" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="L278" s="18">
+        <f>J278-K278</f>
+        <v/>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -4956,6 +7039,26 @@
       <c r="F279" t="n">
         <v>3</v>
       </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>698, 705, 965, 705</t>
+        </is>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>618, 976, 951, 976</t>
+        </is>
+      </c>
+      <c r="J279" t="n">
+        <v>1.455882352941176</v>
+      </c>
+      <c r="K279" s="13" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="L279" s="18">
+        <f>J279-K279</f>
+        <v/>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -4969,6 +7072,13 @@
       <c r="C280" t="b">
         <v>0</v>
       </c>
+      <c r="K280" s="14" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="L280" s="18">
+        <f>J280-K280</f>
+        <v/>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -4982,6 +7092,13 @@
       <c r="C281" t="b">
         <v>0</v>
       </c>
+      <c r="K281" s="12" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="L281" s="18">
+        <f>J281-K281</f>
+        <v/>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -4995,6 +7112,13 @@
       <c r="C282" t="b">
         <v>0</v>
       </c>
+      <c r="K282" s="13" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="L282" s="18">
+        <f>J282-K282</f>
+        <v/>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -5008,6 +7132,15 @@
       <c r="C283" t="b">
         <v>0</v>
       </c>
+      <c r="K283" s="16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L283" s="18">
+        <f>J283-K283</f>
+        <v/>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -5021,6 +7154,10 @@
       <c r="C284" t="b">
         <v>0</v>
       </c>
+      <c r="L284" s="18">
+        <f>J284-K284</f>
+        <v/>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -5034,6 +7171,10 @@
       <c r="C285" t="b">
         <v>0</v>
       </c>
+      <c r="L285" s="18">
+        <f>J285-K285</f>
+        <v/>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -5047,6 +7188,10 @@
       <c r="C286" t="b">
         <v>0</v>
       </c>
+      <c r="L286" s="18">
+        <f>J286-K286</f>
+        <v/>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -5060,6 +7205,10 @@
       <c r="C287" t="b">
         <v>0</v>
       </c>
+      <c r="L287" s="18">
+        <f>J287-K287</f>
+        <v/>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -5073,6 +7222,10 @@
       <c r="C288" t="b">
         <v>0</v>
       </c>
+      <c r="L288" s="18">
+        <f>J288-K288</f>
+        <v/>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -5086,6 +7239,10 @@
       <c r="C289" t="b">
         <v>0</v>
       </c>
+      <c r="L289" s="18">
+        <f>J289-K289</f>
+        <v/>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -5099,6 +7256,10 @@
       <c r="C290" t="b">
         <v>0</v>
       </c>
+      <c r="L290" s="18">
+        <f>J290-K290</f>
+        <v/>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -5112,6 +7273,10 @@
       <c r="C291" t="b">
         <v>0</v>
       </c>
+      <c r="L291" s="18">
+        <f>J291-K291</f>
+        <v/>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -5125,6 +7290,10 @@
       <c r="C292" t="b">
         <v>0</v>
       </c>
+      <c r="L292" s="18">
+        <f>J292-K292</f>
+        <v/>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -5138,6 +7307,13 @@
       <c r="C293" t="b">
         <v>0</v>
       </c>
+      <c r="K293" s="12" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="L293" s="18">
+        <f>J293-K293</f>
+        <v/>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -5151,8 +7327,15 @@
       <c r="C294" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="295">
+      <c r="K294" s="13" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="L294" s="18">
+        <f>J294-K294</f>
+        <v/>
+      </c>
+    </row>
+    <row r="295" ht="14.4" customHeight="1">
       <c r="A295" t="n">
         <v>98</v>
       </c>
@@ -5163,6 +7346,13 @@
       </c>
       <c r="C295" t="b">
         <v>0</v>
+      </c>
+      <c r="K295" s="14" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="L295" s="18">
+        <f>J295-K295</f>
+        <v/>
       </c>
     </row>
     <row r="296">
@@ -5177,6 +7367,10 @@
       <c r="C296" t="b">
         <v>0</v>
       </c>
+      <c r="L296" s="18">
+        <f>J296-K296</f>
+        <v/>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -5190,6 +7384,10 @@
       <c r="C297" t="b">
         <v>0</v>
       </c>
+      <c r="L297" s="18">
+        <f>J297-K297</f>
+        <v/>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -5203,6 +7401,10 @@
       <c r="C298" t="b">
         <v>0</v>
       </c>
+      <c r="L298" s="18">
+        <f>J298-K298</f>
+        <v/>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -5216,6 +7418,10 @@
       <c r="C299" t="b">
         <v>0</v>
       </c>
+      <c r="L299" s="18">
+        <f>J299-K299</f>
+        <v/>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -5229,6 +7435,10 @@
       <c r="C300" t="b">
         <v>0</v>
       </c>
+      <c r="L300" s="18">
+        <f>J300-K300</f>
+        <v/>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -5242,6 +7452,10 @@
       <c r="C301" t="b">
         <v>0</v>
       </c>
+      <c r="L301" s="18">
+        <f>J301-K301</f>
+        <v/>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -5255,6 +7469,13 @@
       <c r="C302" t="b">
         <v>0</v>
       </c>
+      <c r="K302" s="12" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="L302" s="18">
+        <f>J302-K302</f>
+        <v/>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -5268,6 +7489,13 @@
       <c r="C303" t="b">
         <v>0</v>
       </c>
+      <c r="K303" s="13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="L303" s="18">
+        <f>J303-K303</f>
+        <v/>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -5281,6 +7509,13 @@
       <c r="C304" t="b">
         <v>0</v>
       </c>
+      <c r="K304" s="14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="L304" s="18">
+        <f>J304-K304</f>
+        <v/>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -5294,6 +7529,13 @@
       <c r="C305" t="b">
         <v>0</v>
       </c>
+      <c r="K305" s="12" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="L305" s="18">
+        <f>J305-K305</f>
+        <v/>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -5320,6 +7562,13 @@
       <c r="F306" t="n">
         <v>3</v>
       </c>
+      <c r="K306" s="13" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="L306" s="18">
+        <f>J306-K306</f>
+        <v/>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -5333,6 +7582,13 @@
       <c r="C307" t="b">
         <v>0</v>
       </c>
+      <c r="K307" s="14" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="L307" s="18">
+        <f>J307-K307</f>
+        <v/>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -5346,6 +7602,10 @@
       <c r="C308" t="b">
         <v>0</v>
       </c>
+      <c r="L308" s="18">
+        <f>J308-K308</f>
+        <v/>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -5359,6 +7619,10 @@
       <c r="C309" t="b">
         <v>0</v>
       </c>
+      <c r="L309" s="18">
+        <f>J309-K309</f>
+        <v/>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -5372,6 +7636,10 @@
       <c r="C310" t="b">
         <v>0</v>
       </c>
+      <c r="L310" s="18">
+        <f>J310-K310</f>
+        <v/>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -5385,6 +7653,10 @@
       <c r="C311" t="b">
         <v>0</v>
       </c>
+      <c r="L311" s="18">
+        <f>J311-K311</f>
+        <v/>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -5398,6 +7670,10 @@
       <c r="C312" t="b">
         <v>0</v>
       </c>
+      <c r="L312" s="18">
+        <f>J312-K312</f>
+        <v/>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -5411,6 +7687,10 @@
       <c r="C313" t="b">
         <v>0</v>
       </c>
+      <c r="L313" s="18">
+        <f>J313-K313</f>
+        <v/>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -5424,6 +7704,13 @@
       <c r="C314" t="b">
         <v>0</v>
       </c>
+      <c r="K314" s="12" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="L314" s="18">
+        <f>J314-K314</f>
+        <v/>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -5437,6 +7724,13 @@
       <c r="C315" t="b">
         <v>0</v>
       </c>
+      <c r="K315" s="13" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="L315" s="18">
+        <f>J315-K315</f>
+        <v/>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -5450,6 +7744,13 @@
       <c r="C316" t="b">
         <v>0</v>
       </c>
+      <c r="K316" s="14" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="L316" s="18">
+        <f>J316-K316</f>
+        <v/>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -5463,6 +7764,10 @@
       <c r="C317" t="b">
         <v>0</v>
       </c>
+      <c r="L317" s="18">
+        <f>J317-K317</f>
+        <v/>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -5476,6 +7781,10 @@
       <c r="C318" t="b">
         <v>0</v>
       </c>
+      <c r="L318" s="18">
+        <f>J318-K318</f>
+        <v/>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -5489,6 +7798,10 @@
       <c r="C319" t="b">
         <v>0</v>
       </c>
+      <c r="L319" s="18">
+        <f>J319-K319</f>
+        <v/>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -5502,6 +7815,13 @@
       <c r="C320" t="b">
         <v>0</v>
       </c>
+      <c r="K320" s="12" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="L320" s="18">
+        <f>J320-K320</f>
+        <v/>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -5528,6 +7848,13 @@
           <t>Irrelevant video is incomplete</t>
         </is>
       </c>
+      <c r="K321" s="13" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="L321" s="18">
+        <f>J321-K321</f>
+        <v/>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -5554,6 +7881,13 @@
       <c r="F322" t="n">
         <v>3</v>
       </c>
+      <c r="K322" s="14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L322" s="18">
+        <f>J322-K322</f>
+        <v/>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -5567,6 +7901,13 @@
       <c r="C323" t="b">
         <v>0</v>
       </c>
+      <c r="K323" s="12" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="L323" s="18">
+        <f>J323-K323</f>
+        <v/>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -5580,6 +7921,13 @@
       <c r="C324" t="b">
         <v>0</v>
       </c>
+      <c r="K324" s="13" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="L324" s="18">
+        <f>J324-K324</f>
+        <v/>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -5593,6 +7941,13 @@
       <c r="C325" t="b">
         <v>0</v>
       </c>
+      <c r="K325" s="14" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="L325" s="18">
+        <f>J325-K325</f>
+        <v/>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -5606,6 +7961,13 @@
       <c r="C326" t="b">
         <v>0</v>
       </c>
+      <c r="K326" s="12" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="L326" s="18">
+        <f>J326-K326</f>
+        <v/>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -5619,6 +7981,13 @@
       <c r="C327" t="b">
         <v>0</v>
       </c>
+      <c r="K327" s="13" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="L327" s="18">
+        <f>J327-K327</f>
+        <v/>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -5632,6 +8001,13 @@
       <c r="C328" t="b">
         <v>0</v>
       </c>
+      <c r="K328" s="14" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L328" s="18">
+        <f>J328-K328</f>
+        <v/>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -5645,6 +8021,10 @@
       <c r="C329" t="b">
         <v>0</v>
       </c>
+      <c r="L329" s="18">
+        <f>J329-K329</f>
+        <v/>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -5658,6 +8038,10 @@
       <c r="C330" t="b">
         <v>0</v>
       </c>
+      <c r="L330" s="18">
+        <f>J330-K330</f>
+        <v/>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -5671,6 +8055,10 @@
       <c r="C331" t="b">
         <v>0</v>
       </c>
+      <c r="L331" s="18">
+        <f>J331-K331</f>
+        <v/>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -5684,6 +8072,13 @@
       <c r="C332" t="b">
         <v>0</v>
       </c>
+      <c r="K332" s="12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="L332" s="18">
+        <f>J332-K332</f>
+        <v/>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -5697,6 +8092,13 @@
       <c r="C333" t="b">
         <v>0</v>
       </c>
+      <c r="K333" s="13" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="L333" s="18">
+        <f>J333-K333</f>
+        <v/>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -5710,6 +8112,13 @@
       <c r="C334" t="b">
         <v>0</v>
       </c>
+      <c r="K334" s="14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="L334" s="18">
+        <f>J334-K334</f>
+        <v/>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -5723,6 +8132,13 @@
       <c r="C335" t="b">
         <v>0</v>
       </c>
+      <c r="K335" s="12" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="L335" s="18">
+        <f>J335-K335</f>
+        <v/>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -5736,6 +8152,13 @@
       <c r="C336" t="b">
         <v>0</v>
       </c>
+      <c r="K336" s="13" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="L336" s="18">
+        <f>J336-K336</f>
+        <v/>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -5749,6 +8172,13 @@
       <c r="C337" t="b">
         <v>0</v>
       </c>
+      <c r="K337" s="14" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="L337" s="18">
+        <f>J337-K337</f>
+        <v/>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -5775,6 +8205,13 @@
       <c r="F338" t="n">
         <v>3</v>
       </c>
+      <c r="K338" s="12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="L338" s="18">
+        <f>J338-K338</f>
+        <v/>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -5801,6 +8238,13 @@
       <c r="F339" t="n">
         <v>3</v>
       </c>
+      <c r="K339" s="13" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="L339" s="18">
+        <f>J339-K339</f>
+        <v/>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -5814,6 +8258,13 @@
       <c r="C340" t="b">
         <v>0</v>
       </c>
+      <c r="K340" s="14" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="L340" s="18">
+        <f>J340-K340</f>
+        <v/>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -5840,6 +8291,13 @@
       <c r="F341" t="n">
         <v>3</v>
       </c>
+      <c r="K341" s="12" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="L341" s="18">
+        <f>J341-K341</f>
+        <v/>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -5853,6 +8311,13 @@
       <c r="C342" t="b">
         <v>0</v>
       </c>
+      <c r="K342" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L342" s="18">
+        <f>J342-K342</f>
+        <v/>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -5866,6 +8331,13 @@
       <c r="C343" t="b">
         <v>0</v>
       </c>
+      <c r="K343" s="14" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="L343" s="18">
+        <f>J343-K343</f>
+        <v/>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -5892,6 +8364,13 @@
       <c r="F344" t="n">
         <v>3</v>
       </c>
+      <c r="K344" s="12" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="L344" s="18">
+        <f>J344-K344</f>
+        <v/>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -5918,6 +8397,13 @@
       <c r="F345" t="n">
         <v>3</v>
       </c>
+      <c r="K345" s="13" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="L345" s="18">
+        <f>J345-K345</f>
+        <v/>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -5931,6 +8417,13 @@
       <c r="C346" t="b">
         <v>0</v>
       </c>
+      <c r="K346" s="14" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="L346" s="18">
+        <f>J346-K346</f>
+        <v/>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -5944,6 +8437,13 @@
       <c r="C347" t="b">
         <v>0</v>
       </c>
+      <c r="K347" s="12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="L347" s="18">
+        <f>J347-K347</f>
+        <v/>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -5957,6 +8457,13 @@
       <c r="C348" t="b">
         <v>0</v>
       </c>
+      <c r="K348" s="13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="L348" s="18">
+        <f>J348-K348</f>
+        <v/>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -5970,6 +8477,13 @@
       <c r="C349" t="b">
         <v>0</v>
       </c>
+      <c r="K349" s="14" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="L349" s="18">
+        <f>J349-K349</f>
+        <v/>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -5983,6 +8497,13 @@
       <c r="C350" t="b">
         <v>0</v>
       </c>
+      <c r="K350" s="12" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="L350" s="18">
+        <f>J350-K350</f>
+        <v/>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -5996,6 +8517,13 @@
       <c r="C351" t="b">
         <v>0</v>
       </c>
+      <c r="K351" s="13" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="L351" s="18">
+        <f>J351-K351</f>
+        <v/>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -6009,6 +8537,13 @@
       <c r="C352" t="b">
         <v>0</v>
       </c>
+      <c r="K352" s="14" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L352" s="18">
+        <f>J352-K352</f>
+        <v/>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -6022,6 +8557,10 @@
       <c r="C353" t="b">
         <v>0</v>
       </c>
+      <c r="L353" s="18">
+        <f>J353-K353</f>
+        <v/>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -6035,6 +8574,10 @@
       <c r="C354" t="b">
         <v>0</v>
       </c>
+      <c r="L354" s="18">
+        <f>J354-K354</f>
+        <v/>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -6048,6 +8591,10 @@
       <c r="C355" t="b">
         <v>0</v>
       </c>
+      <c r="L355" s="18">
+        <f>J355-K355</f>
+        <v/>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -6061,6 +8608,10 @@
       <c r="C356" t="b">
         <v>0</v>
       </c>
+      <c r="L356" s="18">
+        <f>J356-K356</f>
+        <v/>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -6074,6 +8625,10 @@
       <c r="C357" t="b">
         <v>0</v>
       </c>
+      <c r="L357" s="18">
+        <f>J357-K357</f>
+        <v/>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -6087,6 +8642,10 @@
       <c r="C358" t="b">
         <v>0</v>
       </c>
+      <c r="L358" s="18">
+        <f>J358-K358</f>
+        <v/>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -6113,6 +8672,13 @@
       <c r="F359" t="n">
         <v>3</v>
       </c>
+      <c r="K359" s="12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="L359" s="18">
+        <f>J359-K359</f>
+        <v/>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -6139,6 +8705,13 @@
       <c r="F360" t="n">
         <v>3</v>
       </c>
+      <c r="K360" s="13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="L360" s="18">
+        <f>J360-K360</f>
+        <v/>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -6152,6 +8725,13 @@
       <c r="C361" t="b">
         <v>0</v>
       </c>
+      <c r="K361" s="14" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="L361" s="18">
+        <f>J361-K361</f>
+        <v/>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -6165,6 +8745,13 @@
       <c r="C362" t="b">
         <v>0</v>
       </c>
+      <c r="K362" s="12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="L362" s="18">
+        <f>J362-K362</f>
+        <v/>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -6178,6 +8765,13 @@
       <c r="C363" t="b">
         <v>0</v>
       </c>
+      <c r="K363" s="13" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="L363" s="18">
+        <f>J363-K363</f>
+        <v/>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -6204,6 +8798,13 @@
       <c r="F364" t="n">
         <v>3</v>
       </c>
+      <c r="K364" s="14" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="L364" s="18">
+        <f>J364-K364</f>
+        <v/>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -6230,6 +8831,13 @@
       <c r="F365" t="n">
         <v>3</v>
       </c>
+      <c r="K365" s="12" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="L365" s="18">
+        <f>J365-K365</f>
+        <v/>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -6256,6 +8864,13 @@
       <c r="F366" t="n">
         <v>3</v>
       </c>
+      <c r="K366" s="13" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="L366" s="18">
+        <f>J366-K366</f>
+        <v/>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -6269,6 +8884,13 @@
       <c r="C367" t="b">
         <v>0</v>
       </c>
+      <c r="K367" s="14" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="L367" s="18">
+        <f>J367-K367</f>
+        <v/>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -6295,6 +8917,13 @@
       <c r="F368" t="n">
         <v>3</v>
       </c>
+      <c r="K368" s="12" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="L368" s="18">
+        <f>J368-K368</f>
+        <v/>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -6321,6 +8950,13 @@
       <c r="F369" t="n">
         <v>3</v>
       </c>
+      <c r="K369" s="13" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="L369" s="18">
+        <f>J369-K369</f>
+        <v/>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -6347,6 +8983,13 @@
       <c r="F370" t="n">
         <v>3</v>
       </c>
+      <c r="K370" s="14" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="L370" s="18">
+        <f>J370-K370</f>
+        <v/>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -6360,6 +9003,13 @@
       <c r="C371" t="b">
         <v>0</v>
       </c>
+      <c r="K371" s="12" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="L371" s="18">
+        <f>J371-K371</f>
+        <v/>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -6386,6 +9036,13 @@
       <c r="F372" t="n">
         <v>3</v>
       </c>
+      <c r="K372" s="13" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="L372" s="18">
+        <f>J372-K372</f>
+        <v/>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -6399,6 +9056,13 @@
       <c r="C373" t="b">
         <v>0</v>
       </c>
+      <c r="K373" s="14" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="L373" s="18">
+        <f>J373-K373</f>
+        <v/>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -6412,6 +9076,10 @@
       <c r="C374" t="b">
         <v>0</v>
       </c>
+      <c r="L374" s="18">
+        <f>J374-K374</f>
+        <v/>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -6425,6 +9093,10 @@
       <c r="C375" t="b">
         <v>0</v>
       </c>
+      <c r="L375" s="18">
+        <f>J375-K375</f>
+        <v/>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -6438,6 +9110,10 @@
       <c r="C376" t="b">
         <v>0</v>
       </c>
+      <c r="L376" s="18">
+        <f>J376-K376</f>
+        <v/>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -6451,6 +9127,10 @@
       <c r="C377" t="b">
         <v>0</v>
       </c>
+      <c r="L377" s="18">
+        <f>J377-K377</f>
+        <v/>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -6464,6 +9144,10 @@
       <c r="C378" t="b">
         <v>0</v>
       </c>
+      <c r="L378" s="18">
+        <f>J378-K378</f>
+        <v/>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -6477,6 +9161,10 @@
       <c r="C379" t="b">
         <v>0</v>
       </c>
+      <c r="L379" s="18">
+        <f>J379-K379</f>
+        <v/>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -6490,6 +9178,13 @@
       <c r="C380" t="b">
         <v>0</v>
       </c>
+      <c r="K380" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L380" s="18">
+        <f>J380-K380</f>
+        <v/>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -6503,6 +9198,13 @@
       <c r="C381" t="b">
         <v>0</v>
       </c>
+      <c r="K381" s="13" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="L381" s="18">
+        <f>J381-K381</f>
+        <v/>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -6529,6 +9231,13 @@
       <c r="F382" t="n">
         <v>3</v>
       </c>
+      <c r="K382" s="14" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="L382" s="18">
+        <f>J382-K382</f>
+        <v/>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -6542,6 +9251,10 @@
       <c r="C383" t="b">
         <v>0</v>
       </c>
+      <c r="L383" s="18">
+        <f>J383-K383</f>
+        <v/>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -6555,6 +9268,10 @@
       <c r="C384" t="b">
         <v>0</v>
       </c>
+      <c r="L384" s="18">
+        <f>J384-K384</f>
+        <v/>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -6568,6 +9285,10 @@
       <c r="C385" t="b">
         <v>0</v>
       </c>
+      <c r="L385" s="18">
+        <f>J385-K385</f>
+        <v/>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -6594,6 +9315,13 @@
       <c r="F386" t="n">
         <v>3</v>
       </c>
+      <c r="K386" s="12" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="L386" s="18">
+        <f>J386-K386</f>
+        <v/>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -6620,6 +9348,13 @@
       <c r="F387" t="n">
         <v>3</v>
       </c>
+      <c r="K387" s="13" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="L387" s="18">
+        <f>J387-K387</f>
+        <v/>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -6633,6 +9368,13 @@
       <c r="C388" t="b">
         <v>0</v>
       </c>
+      <c r="K388" s="14" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="L388" s="18">
+        <f>J388-K388</f>
+        <v/>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -6646,6 +9388,10 @@
       <c r="C389" t="b">
         <v>0</v>
       </c>
+      <c r="L389" s="18">
+        <f>J389-K389</f>
+        <v/>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -6659,6 +9405,10 @@
       <c r="C390" t="b">
         <v>0</v>
       </c>
+      <c r="L390" s="18">
+        <f>J390-K390</f>
+        <v/>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -6672,6 +9422,10 @@
       <c r="C391" t="b">
         <v>0</v>
       </c>
+      <c r="L391" s="18">
+        <f>J391-K391</f>
+        <v/>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -6698,6 +9452,13 @@
       <c r="F392" t="n">
         <v>3</v>
       </c>
+      <c r="K392" s="12" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="L392" s="18">
+        <f>J392-K392</f>
+        <v/>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -6724,6 +9485,13 @@
           <t>Irrelevant video is incomplete</t>
         </is>
       </c>
+      <c r="K393" s="13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="L393" s="18">
+        <f>J393-K393</f>
+        <v/>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -6737,6 +9505,13 @@
       <c r="C394" t="b">
         <v>0</v>
       </c>
+      <c r="K394" s="14" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="L394" s="18">
+        <f>J394-K394</f>
+        <v/>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -6750,6 +9525,10 @@
       <c r="C395" t="b">
         <v>0</v>
       </c>
+      <c r="L395" s="18">
+        <f>J395-K395</f>
+        <v/>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -6763,6 +9542,10 @@
       <c r="C396" t="b">
         <v>0</v>
       </c>
+      <c r="L396" s="18">
+        <f>J396-K396</f>
+        <v/>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -6776,6 +9559,10 @@
       <c r="C397" t="b">
         <v>0</v>
       </c>
+      <c r="L397" s="18">
+        <f>J397-K397</f>
+        <v/>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -6789,6 +9576,10 @@
       <c r="C398" t="b">
         <v>0</v>
       </c>
+      <c r="L398" s="18">
+        <f>J398-K398</f>
+        <v/>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -6802,6 +9593,10 @@
       <c r="C399" t="b">
         <v>0</v>
       </c>
+      <c r="L399" s="18">
+        <f>J399-K399</f>
+        <v/>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -6815,6 +9610,10 @@
       <c r="C400" t="b">
         <v>0</v>
       </c>
+      <c r="L400" s="18">
+        <f>J400-K400</f>
+        <v/>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -6828,6 +9627,10 @@
       <c r="C401" t="b">
         <v>0</v>
       </c>
+      <c r="L401" s="18">
+        <f>J401-K401</f>
+        <v/>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -6841,6 +9644,10 @@
       <c r="C402" t="b">
         <v>0</v>
       </c>
+      <c r="L402" s="18">
+        <f>J402-K402</f>
+        <v/>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -6854,6 +9661,10 @@
       <c r="C403" t="b">
         <v>0</v>
       </c>
+      <c r="L403" s="18">
+        <f>J403-K403</f>
+        <v/>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -6867,6 +9678,13 @@
       <c r="C404" t="b">
         <v>0</v>
       </c>
+      <c r="K404" s="12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="L404" s="18">
+        <f>J404-K404</f>
+        <v/>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -6893,6 +9711,13 @@
       <c r="F405" t="n">
         <v>3</v>
       </c>
+      <c r="K405" s="13" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="L405" s="18">
+        <f>J405-K405</f>
+        <v/>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -6906,6 +9731,13 @@
       <c r="C406" t="b">
         <v>0</v>
       </c>
+      <c r="K406" s="14" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="L406" s="18">
+        <f>J406-K406</f>
+        <v/>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -6919,6 +9751,10 @@
       <c r="C407" t="b">
         <v>0</v>
       </c>
+      <c r="L407" s="18">
+        <f>J407-K407</f>
+        <v/>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -6932,6 +9768,10 @@
       <c r="C408" t="b">
         <v>0</v>
       </c>
+      <c r="L408" s="18">
+        <f>J408-K408</f>
+        <v/>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -6945,6 +9785,10 @@
       <c r="C409" t="b">
         <v>0</v>
       </c>
+      <c r="L409" s="18">
+        <f>J409-K409</f>
+        <v/>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -6976,6 +9820,13 @@
           <t>there is camera Movement</t>
         </is>
       </c>
+      <c r="K410" s="12" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="L410" s="18">
+        <f>J410-K410</f>
+        <v/>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -7002,6 +9853,13 @@
       <c r="F411" t="n">
         <v>3</v>
       </c>
+      <c r="K411" s="13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="L411" s="18">
+        <f>J411-K411</f>
+        <v/>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -7015,6 +9873,13 @@
       <c r="C412" t="b">
         <v>0</v>
       </c>
+      <c r="K412" s="14" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="L412" s="18">
+        <f>J412-K412</f>
+        <v/>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -7028,6 +9893,10 @@
       <c r="C413" t="b">
         <v>0</v>
       </c>
+      <c r="L413" s="18">
+        <f>J413-K413</f>
+        <v/>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -7041,6 +9910,10 @@
       <c r="C414" t="b">
         <v>0</v>
       </c>
+      <c r="L414" s="18">
+        <f>J414-K414</f>
+        <v/>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -7054,6 +9927,10 @@
       <c r="C415" t="b">
         <v>0</v>
       </c>
+      <c r="L415" s="18">
+        <f>J415-K415</f>
+        <v/>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -7067,6 +9944,10 @@
       <c r="C416" t="b">
         <v>0</v>
       </c>
+      <c r="L416" s="18">
+        <f>J416-K416</f>
+        <v/>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -7080,6 +9961,10 @@
       <c r="C417" t="b">
         <v>0</v>
       </c>
+      <c r="L417" s="18">
+        <f>J417-K417</f>
+        <v/>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -7093,6 +9978,10 @@
       <c r="C418" t="b">
         <v>0</v>
       </c>
+      <c r="L418" s="18">
+        <f>J418-K418</f>
+        <v/>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -7106,6 +9995,10 @@
       <c r="C419" t="b">
         <v>0</v>
       </c>
+      <c r="L419" s="18">
+        <f>J419-K419</f>
+        <v/>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -7119,6 +10012,10 @@
       <c r="C420" t="b">
         <v>0</v>
       </c>
+      <c r="L420" s="18">
+        <f>J420-K420</f>
+        <v/>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -7132,6 +10029,10 @@
       <c r="C421" t="b">
         <v>0</v>
       </c>
+      <c r="L421" s="18">
+        <f>J421-K421</f>
+        <v/>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -7145,6 +10046,11 @@
       <c r="C422" t="b">
         <v>0</v>
       </c>
+      <c r="K422" s="17" t="n"/>
+      <c r="L422" s="18">
+        <f>J422-K422</f>
+        <v/>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -7158,6 +10064,11 @@
       <c r="C423" t="b">
         <v>0</v>
       </c>
+      <c r="K423" s="17" t="n"/>
+      <c r="L423" s="18">
+        <f>J423-K423</f>
+        <v/>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -7171,6 +10082,11 @@
       <c r="C424" t="b">
         <v>0</v>
       </c>
+      <c r="K424" s="17" t="n"/>
+      <c r="L424" s="18">
+        <f>J424-K424</f>
+        <v/>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -7184,6 +10100,11 @@
       <c r="C425" t="b">
         <v>0</v>
       </c>
+      <c r="K425" s="17" t="n"/>
+      <c r="L425" s="18">
+        <f>J425-K425</f>
+        <v/>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -7197,6 +10118,11 @@
       <c r="C426" t="b">
         <v>0</v>
       </c>
+      <c r="K426" s="17" t="n"/>
+      <c r="L426" s="18">
+        <f>J426-K426</f>
+        <v/>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -7210,6 +10136,11 @@
       <c r="C427" t="b">
         <v>0</v>
       </c>
+      <c r="K427" s="17" t="n"/>
+      <c r="L427" s="18">
+        <f>J427-K427</f>
+        <v/>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -7223,6 +10154,11 @@
       <c r="C428" t="b">
         <v>0</v>
       </c>
+      <c r="K428" s="17" t="n"/>
+      <c r="L428" s="18">
+        <f>J428-K428</f>
+        <v/>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -7236,6 +10172,11 @@
       <c r="C429" t="b">
         <v>0</v>
       </c>
+      <c r="K429" s="17" t="n"/>
+      <c r="L429" s="18">
+        <f>J429-K429</f>
+        <v/>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -7249,6 +10190,11 @@
       <c r="C430" t="b">
         <v>0</v>
       </c>
+      <c r="K430" s="17" t="n"/>
+      <c r="L430" s="18">
+        <f>J430-K430</f>
+        <v/>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -7262,6 +10208,11 @@
       <c r="C431" t="b">
         <v>0</v>
       </c>
+      <c r="K431" s="17" t="n"/>
+      <c r="L431" s="18">
+        <f>J431-K431</f>
+        <v/>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -7275,6 +10226,11 @@
       <c r="C432" t="b">
         <v>0</v>
       </c>
+      <c r="K432" s="17" t="n"/>
+      <c r="L432" s="18">
+        <f>J432-K432</f>
+        <v/>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -7288,6 +10244,11 @@
       <c r="C433" t="b">
         <v>0</v>
       </c>
+      <c r="K433" s="17" t="n"/>
+      <c r="L433" s="18">
+        <f>J433-K433</f>
+        <v/>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -7301,6 +10262,13 @@
       <c r="C434" t="b">
         <v>0</v>
       </c>
+      <c r="K434" s="12" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="L434" s="18">
+        <f>J434-K434</f>
+        <v/>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -7314,6 +10282,13 @@
       <c r="C435" t="b">
         <v>0</v>
       </c>
+      <c r="K435" s="13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L435" s="18">
+        <f>J435-K435</f>
+        <v/>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -7327,6 +10302,13 @@
       <c r="C436" t="b">
         <v>0</v>
       </c>
+      <c r="K436" s="14" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="L436" s="18">
+        <f>J436-K436</f>
+        <v/>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -7340,6 +10322,10 @@
       <c r="C437" t="b">
         <v>0</v>
       </c>
+      <c r="L437" s="18">
+        <f>J437-K437</f>
+        <v/>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -7353,6 +10339,10 @@
       <c r="C438" t="b">
         <v>0</v>
       </c>
+      <c r="L438" s="18">
+        <f>J438-K438</f>
+        <v/>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -7366,6 +10356,10 @@
       <c r="C439" t="b">
         <v>0</v>
       </c>
+      <c r="L439" s="18">
+        <f>J439-K439</f>
+        <v/>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -7392,6 +10386,13 @@
       <c r="F440" t="n">
         <v>3</v>
       </c>
+      <c r="K440" s="12" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L440" s="18">
+        <f>J440-K440</f>
+        <v/>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -7418,6 +10419,13 @@
       <c r="F441" t="n">
         <v>3</v>
       </c>
+      <c r="K441" s="13" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="L441" s="18">
+        <f>J441-K441</f>
+        <v/>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -7431,6 +10439,13 @@
       <c r="C442" t="b">
         <v>0</v>
       </c>
+      <c r="K442" s="14" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="L442" s="18">
+        <f>J442-K442</f>
+        <v/>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -7548,6 +10563,7 @@
       <c r="C451" t="b">
         <v>1</v>
       </c>
+      <c r="K451" s="17" t="n"/>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -7561,6 +10577,7 @@
       <c r="C452" t="b">
         <v>1</v>
       </c>
+      <c r="K452" s="17" t="n"/>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -7574,6 +10591,7 @@
       <c r="C453" t="b">
         <v>1</v>
       </c>
+      <c r="K453" s="17" t="n"/>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -7587,6 +10605,7 @@
       <c r="C454" t="b">
         <v>1</v>
       </c>
+      <c r="K454" s="17" t="n"/>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -7613,6 +10632,7 @@
       <c r="F455" t="n">
         <v>5</v>
       </c>
+      <c r="K455" s="17" t="n"/>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -7626,6 +10646,7 @@
       <c r="C456" t="b">
         <v>1</v>
       </c>
+      <c r="K456" s="17" t="n"/>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -7652,6 +10673,7 @@
       <c r="F457" t="n">
         <v>5</v>
       </c>
+      <c r="K457" s="17" t="n"/>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -7678,6 +10700,7 @@
       <c r="F458" t="n">
         <v>5</v>
       </c>
+      <c r="K458" s="17" t="n"/>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -7691,6 +10714,7 @@
       <c r="C459" t="b">
         <v>1</v>
       </c>
+      <c r="K459" s="17" t="n"/>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -7704,6 +10728,7 @@
       <c r="C460" t="b">
         <v>1</v>
       </c>
+      <c r="K460" s="17" t="n"/>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -7730,6 +10755,7 @@
       <c r="F461" t="n">
         <v>5</v>
       </c>
+      <c r="K461" s="17" t="n"/>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -7743,6 +10769,7 @@
       <c r="C462" t="b">
         <v>1</v>
       </c>
+      <c r="K462" s="17" t="n"/>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -7756,6 +10783,7 @@
       <c r="C463" t="b">
         <v>1</v>
       </c>
+      <c r="K463" s="17" t="n"/>
     </row>
     <row r="464">
       <c r="A464" t="n">
@@ -7769,6 +10797,7 @@
       <c r="C464" t="b">
         <v>1</v>
       </c>
+      <c r="K464" s="17" t="n"/>
     </row>
     <row r="465">
       <c r="A465" t="n">
@@ -7782,6 +10811,7 @@
       <c r="C465" t="b">
         <v>1</v>
       </c>
+      <c r="K465" s="17" t="n"/>
     </row>
     <row r="466">
       <c r="A466" t="n">
@@ -7795,6 +10825,7 @@
       <c r="C466" t="b">
         <v>1</v>
       </c>
+      <c r="K466" s="17" t="n"/>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -7808,6 +10839,7 @@
       <c r="C467" t="b">
         <v>1</v>
       </c>
+      <c r="K467" s="17" t="n"/>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -7821,6 +10853,7 @@
       <c r="C468" t="b">
         <v>1</v>
       </c>
+      <c r="K468" s="17" t="n"/>
     </row>
     <row r="469">
       <c r="A469" t="n">
@@ -7834,6 +10867,7 @@
       <c r="C469" t="b">
         <v>1</v>
       </c>
+      <c r="K469" s="17" t="n"/>
     </row>
     <row r="470">
       <c r="A470" t="n">
@@ -7847,6 +10881,7 @@
       <c r="C470" t="b">
         <v>1</v>
       </c>
+      <c r="K470" s="17" t="n"/>
     </row>
     <row r="471">
       <c r="A471" t="n">
@@ -7860,6 +10895,7 @@
       <c r="C471" t="b">
         <v>1</v>
       </c>
+      <c r="K471" s="17" t="n"/>
     </row>
     <row r="472">
       <c r="A472" t="n">
@@ -7873,6 +10909,7 @@
       <c r="C472" t="b">
         <v>1</v>
       </c>
+      <c r="K472" s="17" t="n"/>
     </row>
     <row r="473">
       <c r="A473" t="n">
@@ -7886,6 +10923,7 @@
       <c r="C473" t="b">
         <v>1</v>
       </c>
+      <c r="K473" s="17" t="n"/>
     </row>
     <row r="474">
       <c r="A474" t="n">
@@ -7899,6 +10937,7 @@
       <c r="C474" t="b">
         <v>1</v>
       </c>
+      <c r="K474" s="17" t="n"/>
     </row>
     <row r="475">
       <c r="A475" t="n">
@@ -7912,6 +10951,7 @@
       <c r="C475" t="b">
         <v>1</v>
       </c>
+      <c r="K475" s="17" t="n"/>
     </row>
     <row r="476">
       <c r="A476" t="n">
@@ -7925,6 +10965,7 @@
       <c r="C476" t="b">
         <v>1</v>
       </c>
+      <c r="K476" s="17" t="n"/>
     </row>
     <row r="477">
       <c r="A477" t="n">
@@ -7938,6 +10979,7 @@
       <c r="C477" t="b">
         <v>1</v>
       </c>
+      <c r="K477" s="17" t="n"/>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -7951,6 +10993,7 @@
       <c r="C478" t="b">
         <v>1</v>
       </c>
+      <c r="K478" s="17" t="n"/>
     </row>
     <row r="479">
       <c r="A479" t="n">
@@ -7964,6 +11007,7 @@
       <c r="C479" t="b">
         <v>1</v>
       </c>
+      <c r="K479" s="17" t="n"/>
     </row>
     <row r="480">
       <c r="A480" t="n">
@@ -7977,6 +11021,7 @@
       <c r="C480" t="b">
         <v>1</v>
       </c>
+      <c r="K480" s="17" t="n"/>
     </row>
     <row r="481">
       <c r="A481" t="n">
@@ -7990,6 +11035,7 @@
       <c r="C481" t="b">
         <v>1</v>
       </c>
+      <c r="K481" s="17" t="n"/>
     </row>
     <row r="482">
       <c r="A482" t="n">
@@ -8003,6 +11049,7 @@
       <c r="C482" t="b">
         <v>1</v>
       </c>
+      <c r="K482" s="17" t="n"/>
     </row>
     <row r="483">
       <c r="A483" t="n">
@@ -8016,6 +11063,7 @@
       <c r="C483" t="b">
         <v>1</v>
       </c>
+      <c r="K483" s="17" t="n"/>
     </row>
     <row r="484">
       <c r="A484" t="n">
@@ -8029,6 +11077,7 @@
       <c r="C484" t="b">
         <v>1</v>
       </c>
+      <c r="K484" s="17" t="n"/>
     </row>
     <row r="485">
       <c r="A485" t="n">
@@ -8042,6 +11091,7 @@
       <c r="C485" t="b">
         <v>1</v>
       </c>
+      <c r="K485" s="17" t="n"/>
     </row>
     <row r="486">
       <c r="A486" t="n">
@@ -8055,6 +11105,7 @@
       <c r="C486" t="b">
         <v>1</v>
       </c>
+      <c r="K486" s="17" t="n"/>
     </row>
     <row r="487">
       <c r="A487" t="n">
@@ -8068,6 +11119,7 @@
       <c r="C487" t="b">
         <v>1</v>
       </c>
+      <c r="K487" s="17" t="n"/>
     </row>
     <row r="488">
       <c r="A488" t="n">
@@ -8081,6 +11133,7 @@
       <c r="C488" t="b">
         <v>1</v>
       </c>
+      <c r="K488" s="17" t="n"/>
     </row>
     <row r="489">
       <c r="A489" t="n">
@@ -8094,6 +11147,7 @@
       <c r="C489" t="b">
         <v>1</v>
       </c>
+      <c r="K489" s="17" t="n"/>
     </row>
     <row r="490">
       <c r="A490" t="n">
@@ -8107,6 +11161,2014 @@
       <c r="C490" t="b">
         <v>1</v>
       </c>
+      <c r="K490" s="17" t="n"/>
+    </row>
+    <row r="491">
+      <c r="K491" s="17" t="n"/>
+    </row>
+    <row r="492">
+      <c r="K492" s="17" t="n"/>
+    </row>
+    <row r="493">
+      <c r="K493" s="17" t="n"/>
+    </row>
+    <row r="494">
+      <c r="K494" s="17" t="n"/>
+    </row>
+    <row r="495">
+      <c r="K495" s="17" t="n"/>
+    </row>
+    <row r="496">
+      <c r="K496" s="17" t="n"/>
+    </row>
+    <row r="497">
+      <c r="K497" s="17" t="n"/>
+    </row>
+    <row r="498">
+      <c r="K498" s="17" t="n"/>
+    </row>
+    <row r="499">
+      <c r="K499" s="17" t="n"/>
+    </row>
+    <row r="500">
+      <c r="K500" s="17" t="n"/>
+    </row>
+    <row r="501">
+      <c r="K501" s="17" t="n"/>
+    </row>
+    <row r="502">
+      <c r="K502" s="17" t="n"/>
+    </row>
+    <row r="503">
+      <c r="K503" s="17" t="n"/>
+    </row>
+    <row r="504">
+      <c r="K504" s="17" t="n"/>
+    </row>
+    <row r="505">
+      <c r="K505" s="17" t="n"/>
+    </row>
+    <row r="506">
+      <c r="K506" s="17" t="n"/>
+    </row>
+    <row r="507">
+      <c r="K507" s="17" t="n"/>
+    </row>
+    <row r="508">
+      <c r="K508" s="17" t="n"/>
+    </row>
+    <row r="509">
+      <c r="K509" s="17" t="n"/>
+    </row>
+    <row r="510">
+      <c r="K510" s="17" t="n"/>
+    </row>
+    <row r="511">
+      <c r="K511" s="17" t="n"/>
+    </row>
+    <row r="512">
+      <c r="K512" s="17" t="n"/>
+    </row>
+    <row r="513">
+      <c r="K513" s="17" t="n"/>
+    </row>
+    <row r="514">
+      <c r="K514" s="17" t="n"/>
+    </row>
+    <row r="515">
+      <c r="K515" s="17" t="n"/>
+    </row>
+    <row r="516">
+      <c r="K516" s="17" t="n"/>
+    </row>
+    <row r="517">
+      <c r="K517" s="17" t="n"/>
+    </row>
+    <row r="518">
+      <c r="K518" s="17" t="n"/>
+    </row>
+    <row r="519">
+      <c r="K519" s="17" t="n"/>
+    </row>
+    <row r="520">
+      <c r="K520" s="17" t="n"/>
+    </row>
+    <row r="521">
+      <c r="K521" s="17" t="n"/>
+    </row>
+    <row r="522">
+      <c r="K522" s="17" t="n"/>
+    </row>
+    <row r="523">
+      <c r="K523" s="17" t="n"/>
+    </row>
+    <row r="524">
+      <c r="K524" s="17" t="n"/>
+    </row>
+    <row r="525">
+      <c r="K525" s="17" t="n"/>
+    </row>
+    <row r="526">
+      <c r="K526" s="17" t="n"/>
+    </row>
+    <row r="527">
+      <c r="K527" s="17" t="n"/>
+    </row>
+    <row r="528">
+      <c r="K528" s="17" t="n"/>
+    </row>
+    <row r="529">
+      <c r="K529" s="17" t="n"/>
+    </row>
+    <row r="530">
+      <c r="K530" s="17" t="n"/>
+    </row>
+    <row r="531">
+      <c r="K531" s="17" t="n"/>
+    </row>
+    <row r="532">
+      <c r="K532" s="17" t="n"/>
+    </row>
+    <row r="533">
+      <c r="K533" s="17" t="n"/>
+    </row>
+    <row r="534">
+      <c r="K534" s="17" t="n"/>
+    </row>
+    <row r="535">
+      <c r="K535" s="17" t="n"/>
+    </row>
+    <row r="536">
+      <c r="K536" s="17" t="n"/>
+    </row>
+    <row r="537">
+      <c r="K537" s="17" t="n"/>
+    </row>
+    <row r="538">
+      <c r="K538" s="17" t="n"/>
+    </row>
+    <row r="539">
+      <c r="K539" s="17" t="n"/>
+    </row>
+    <row r="540">
+      <c r="K540" s="17" t="n"/>
+    </row>
+    <row r="541">
+      <c r="K541" s="17" t="n"/>
+    </row>
+    <row r="542">
+      <c r="K542" s="17" t="n"/>
+    </row>
+    <row r="543">
+      <c r="K543" s="17" t="n"/>
+    </row>
+    <row r="544">
+      <c r="K544" s="17" t="n"/>
+    </row>
+    <row r="545">
+      <c r="K545" s="17" t="n"/>
+    </row>
+    <row r="546">
+      <c r="K546" s="17" t="n"/>
+    </row>
+    <row r="547">
+      <c r="K547" s="17" t="n"/>
+    </row>
+    <row r="548">
+      <c r="K548" s="17" t="n"/>
+    </row>
+    <row r="549">
+      <c r="K549" s="17" t="n"/>
+    </row>
+    <row r="550">
+      <c r="K550" s="17" t="n"/>
+    </row>
+    <row r="551">
+      <c r="K551" s="17" t="n"/>
+    </row>
+    <row r="552">
+      <c r="K552" s="17" t="n"/>
+    </row>
+    <row r="553">
+      <c r="K553" s="17" t="n"/>
+    </row>
+    <row r="554">
+      <c r="K554" s="17" t="n"/>
+    </row>
+    <row r="555">
+      <c r="K555" s="17" t="n"/>
+    </row>
+    <row r="556">
+      <c r="K556" s="17" t="n"/>
+    </row>
+    <row r="557">
+      <c r="K557" s="17" t="n"/>
+    </row>
+    <row r="558">
+      <c r="K558" s="17" t="n"/>
+    </row>
+    <row r="559">
+      <c r="K559" s="17" t="n"/>
+    </row>
+    <row r="560">
+      <c r="K560" s="17" t="n"/>
+    </row>
+    <row r="561">
+      <c r="K561" s="17" t="n"/>
+    </row>
+    <row r="562">
+      <c r="K562" s="17" t="n"/>
+    </row>
+    <row r="563">
+      <c r="K563" s="17" t="n"/>
+    </row>
+    <row r="564">
+      <c r="K564" s="17" t="n"/>
+    </row>
+    <row r="565">
+      <c r="K565" s="17" t="n"/>
+    </row>
+    <row r="566">
+      <c r="K566" s="17" t="n"/>
+    </row>
+    <row r="567">
+      <c r="K567" s="17" t="n"/>
+    </row>
+    <row r="568">
+      <c r="K568" s="17" t="n"/>
+    </row>
+    <row r="569">
+      <c r="K569" s="17" t="n"/>
+    </row>
+    <row r="570">
+      <c r="K570" s="17" t="n"/>
+    </row>
+    <row r="571">
+      <c r="K571" s="17" t="n"/>
+    </row>
+    <row r="572">
+      <c r="K572" s="17" t="n"/>
+    </row>
+    <row r="573">
+      <c r="K573" s="17" t="n"/>
+    </row>
+    <row r="574">
+      <c r="K574" s="17" t="n"/>
+    </row>
+    <row r="575">
+      <c r="K575" s="17" t="n"/>
+    </row>
+    <row r="576">
+      <c r="K576" s="17" t="n"/>
+    </row>
+    <row r="577">
+      <c r="K577" s="17" t="n"/>
+    </row>
+    <row r="578">
+      <c r="K578" s="17" t="n"/>
+    </row>
+    <row r="579">
+      <c r="K579" s="17" t="n"/>
+    </row>
+    <row r="580">
+      <c r="K580" s="17" t="n"/>
+    </row>
+    <row r="581">
+      <c r="K581" s="17" t="n"/>
+    </row>
+    <row r="582">
+      <c r="K582" s="17" t="n"/>
+    </row>
+    <row r="583">
+      <c r="K583" s="17" t="n"/>
+    </row>
+    <row r="584">
+      <c r="K584" s="17" t="n"/>
+    </row>
+    <row r="585">
+      <c r="K585" s="17" t="n"/>
+    </row>
+    <row r="586">
+      <c r="K586" s="17" t="n"/>
+    </row>
+    <row r="587">
+      <c r="K587" s="17" t="n"/>
+    </row>
+    <row r="588">
+      <c r="K588" s="17" t="n"/>
+    </row>
+    <row r="589">
+      <c r="K589" s="17" t="n"/>
+    </row>
+    <row r="590">
+      <c r="K590" s="17" t="n"/>
+    </row>
+    <row r="591">
+      <c r="K591" s="17" t="n"/>
+    </row>
+    <row r="592">
+      <c r="K592" s="17" t="n"/>
+    </row>
+    <row r="593">
+      <c r="K593" s="17" t="n"/>
+    </row>
+    <row r="594">
+      <c r="K594" s="17" t="n"/>
+    </row>
+    <row r="595">
+      <c r="K595" s="17" t="n"/>
+    </row>
+    <row r="596">
+      <c r="K596" s="17" t="n"/>
+    </row>
+    <row r="597">
+      <c r="K597" s="17" t="n"/>
+    </row>
+    <row r="598">
+      <c r="K598" s="17" t="n"/>
+    </row>
+    <row r="599">
+      <c r="K599" s="17" t="n"/>
+    </row>
+    <row r="600">
+      <c r="K600" s="17" t="n"/>
+    </row>
+    <row r="601">
+      <c r="K601" s="17" t="n"/>
+    </row>
+    <row r="602">
+      <c r="K602" s="17" t="n"/>
+    </row>
+    <row r="603">
+      <c r="K603" s="17" t="n"/>
+    </row>
+    <row r="604">
+      <c r="K604" s="17" t="n"/>
+    </row>
+    <row r="605">
+      <c r="K605" s="17" t="n"/>
+    </row>
+    <row r="606">
+      <c r="K606" s="17" t="n"/>
+    </row>
+    <row r="607">
+      <c r="K607" s="17" t="n"/>
+    </row>
+    <row r="608">
+      <c r="K608" s="17" t="n"/>
+    </row>
+    <row r="609">
+      <c r="K609" s="17" t="n"/>
+    </row>
+    <row r="610">
+      <c r="K610" s="17" t="n"/>
+    </row>
+    <row r="611">
+      <c r="K611" s="17" t="n"/>
+    </row>
+    <row r="612">
+      <c r="K612" s="17" t="n"/>
+    </row>
+    <row r="613">
+      <c r="K613" s="17" t="n"/>
+    </row>
+    <row r="614">
+      <c r="K614" s="17" t="n"/>
+    </row>
+    <row r="615">
+      <c r="K615" s="17" t="n"/>
+    </row>
+    <row r="616">
+      <c r="K616" s="17" t="n"/>
+    </row>
+    <row r="617">
+      <c r="K617" s="17" t="n"/>
+    </row>
+    <row r="618">
+      <c r="K618" s="17" t="n"/>
+    </row>
+    <row r="619">
+      <c r="K619" s="17" t="n"/>
+    </row>
+    <row r="620">
+      <c r="K620" s="17" t="n"/>
+    </row>
+    <row r="621">
+      <c r="K621" s="17" t="n"/>
+    </row>
+    <row r="622">
+      <c r="K622" s="17" t="n"/>
+    </row>
+    <row r="623">
+      <c r="K623" s="17" t="n"/>
+    </row>
+    <row r="624">
+      <c r="K624" s="17" t="n"/>
+    </row>
+    <row r="625">
+      <c r="K625" s="17" t="n"/>
+    </row>
+    <row r="626">
+      <c r="K626" s="17" t="n"/>
+    </row>
+    <row r="627">
+      <c r="K627" s="17" t="n"/>
+    </row>
+    <row r="628">
+      <c r="K628" s="17" t="n"/>
+    </row>
+    <row r="629">
+      <c r="K629" s="17" t="n"/>
+    </row>
+    <row r="630">
+      <c r="K630" s="17" t="n"/>
+    </row>
+    <row r="631">
+      <c r="K631" s="17" t="n"/>
+    </row>
+    <row r="632">
+      <c r="K632" s="17" t="n"/>
+    </row>
+    <row r="633">
+      <c r="K633" s="17" t="n"/>
+    </row>
+    <row r="634">
+      <c r="K634" s="17" t="n"/>
+    </row>
+    <row r="635">
+      <c r="K635" s="17" t="n"/>
+    </row>
+    <row r="636">
+      <c r="K636" s="17" t="n"/>
+    </row>
+    <row r="637">
+      <c r="K637" s="17" t="n"/>
+    </row>
+    <row r="638">
+      <c r="K638" s="17" t="n"/>
+    </row>
+    <row r="639">
+      <c r="K639" s="17" t="n"/>
+    </row>
+    <row r="640">
+      <c r="K640" s="17" t="n"/>
+    </row>
+    <row r="641">
+      <c r="K641" s="17" t="n"/>
+    </row>
+    <row r="642">
+      <c r="K642" s="17" t="n"/>
+    </row>
+    <row r="643">
+      <c r="K643" s="17" t="n"/>
+    </row>
+    <row r="644">
+      <c r="K644" s="17" t="n"/>
+    </row>
+    <row r="645">
+      <c r="K645" s="17" t="n"/>
+    </row>
+    <row r="646">
+      <c r="K646" s="17" t="n"/>
+    </row>
+    <row r="647">
+      <c r="K647" s="17" t="n"/>
+    </row>
+    <row r="648">
+      <c r="K648" s="17" t="n"/>
+    </row>
+    <row r="649">
+      <c r="K649" s="17" t="n"/>
+    </row>
+    <row r="650">
+      <c r="K650" s="17" t="n"/>
+    </row>
+    <row r="651">
+      <c r="K651" s="17" t="n"/>
+    </row>
+    <row r="652">
+      <c r="K652" s="17" t="n"/>
+    </row>
+    <row r="653">
+      <c r="K653" s="17" t="n"/>
+    </row>
+    <row r="654">
+      <c r="K654" s="17" t="n"/>
+    </row>
+    <row r="655">
+      <c r="K655" s="17" t="n"/>
+    </row>
+    <row r="656">
+      <c r="K656" s="17" t="n"/>
+    </row>
+    <row r="657">
+      <c r="K657" s="17" t="n"/>
+    </row>
+    <row r="658">
+      <c r="K658" s="17" t="n"/>
+    </row>
+    <row r="659">
+      <c r="K659" s="17" t="n"/>
+    </row>
+    <row r="660">
+      <c r="K660" s="17" t="n"/>
+    </row>
+    <row r="661">
+      <c r="K661" s="17" t="n"/>
+    </row>
+    <row r="662">
+      <c r="K662" s="17" t="n"/>
+    </row>
+    <row r="663">
+      <c r="K663" s="17" t="n"/>
+    </row>
+    <row r="664">
+      <c r="K664" s="17" t="n"/>
+    </row>
+    <row r="665">
+      <c r="K665" s="17" t="n"/>
+    </row>
+    <row r="666">
+      <c r="K666" s="17" t="n"/>
+    </row>
+    <row r="667">
+      <c r="K667" s="17" t="n"/>
+    </row>
+    <row r="668">
+      <c r="K668" s="17" t="n"/>
+    </row>
+    <row r="669">
+      <c r="K669" s="17" t="n"/>
+    </row>
+    <row r="670">
+      <c r="K670" s="17" t="n"/>
+    </row>
+    <row r="671">
+      <c r="K671" s="17" t="n"/>
+    </row>
+    <row r="672">
+      <c r="K672" s="17" t="n"/>
+    </row>
+    <row r="673">
+      <c r="K673" s="17" t="n"/>
+    </row>
+    <row r="674">
+      <c r="K674" s="17" t="n"/>
+    </row>
+    <row r="675">
+      <c r="K675" s="17" t="n"/>
+    </row>
+    <row r="676">
+      <c r="K676" s="17" t="n"/>
+    </row>
+    <row r="677">
+      <c r="K677" s="17" t="n"/>
+    </row>
+    <row r="678">
+      <c r="K678" s="17" t="n"/>
+    </row>
+    <row r="679">
+      <c r="K679" s="17" t="n"/>
+    </row>
+    <row r="680">
+      <c r="K680" s="17" t="n"/>
+    </row>
+    <row r="681">
+      <c r="K681" s="17" t="n"/>
+    </row>
+    <row r="682">
+      <c r="K682" s="17" t="n"/>
+    </row>
+    <row r="683">
+      <c r="K683" s="17" t="n"/>
+    </row>
+    <row r="684">
+      <c r="K684" s="17" t="n"/>
+    </row>
+    <row r="685">
+      <c r="K685" s="17" t="n"/>
+    </row>
+    <row r="686">
+      <c r="K686" s="17" t="n"/>
+    </row>
+    <row r="687">
+      <c r="K687" s="17" t="n"/>
+    </row>
+    <row r="688">
+      <c r="K688" s="17" t="n"/>
+    </row>
+    <row r="689">
+      <c r="K689" s="17" t="n"/>
+    </row>
+    <row r="690">
+      <c r="K690" s="17" t="n"/>
+    </row>
+    <row r="691">
+      <c r="K691" s="17" t="n"/>
+    </row>
+    <row r="692">
+      <c r="K692" s="17" t="n"/>
+    </row>
+    <row r="693">
+      <c r="K693" s="17" t="n"/>
+    </row>
+    <row r="694">
+      <c r="K694" s="17" t="n"/>
+    </row>
+    <row r="695">
+      <c r="K695" s="17" t="n"/>
+    </row>
+    <row r="696">
+      <c r="K696" s="17" t="n"/>
+    </row>
+    <row r="697">
+      <c r="K697" s="17" t="n"/>
+    </row>
+    <row r="698">
+      <c r="K698" s="17" t="n"/>
+    </row>
+    <row r="699">
+      <c r="K699" s="17" t="n"/>
+    </row>
+    <row r="700">
+      <c r="K700" s="17" t="n"/>
+    </row>
+    <row r="701">
+      <c r="K701" s="17" t="n"/>
+    </row>
+    <row r="702">
+      <c r="K702" s="17" t="n"/>
+    </row>
+    <row r="703">
+      <c r="K703" s="17" t="n"/>
+    </row>
+    <row r="704">
+      <c r="K704" s="17" t="n"/>
+    </row>
+    <row r="705">
+      <c r="K705" s="17" t="n"/>
+    </row>
+    <row r="706">
+      <c r="K706" s="17" t="n"/>
+    </row>
+    <row r="707">
+      <c r="K707" s="17" t="n"/>
+    </row>
+    <row r="708">
+      <c r="K708" s="17" t="n"/>
+    </row>
+    <row r="709">
+      <c r="K709" s="17" t="n"/>
+    </row>
+    <row r="710">
+      <c r="K710" s="17" t="n"/>
+    </row>
+    <row r="711">
+      <c r="K711" s="17" t="n"/>
+    </row>
+    <row r="712">
+      <c r="K712" s="17" t="n"/>
+    </row>
+    <row r="713">
+      <c r="K713" s="17" t="n"/>
+    </row>
+    <row r="714">
+      <c r="K714" s="17" t="n"/>
+    </row>
+    <row r="715">
+      <c r="K715" s="17" t="n"/>
+    </row>
+    <row r="716">
+      <c r="K716" s="17" t="n"/>
+    </row>
+    <row r="717">
+      <c r="K717" s="17" t="n"/>
+    </row>
+    <row r="718">
+      <c r="K718" s="17" t="n"/>
+    </row>
+    <row r="719">
+      <c r="K719" s="17" t="n"/>
+    </row>
+    <row r="720">
+      <c r="K720" s="17" t="n"/>
+    </row>
+    <row r="721">
+      <c r="K721" s="17" t="n"/>
+    </row>
+    <row r="722">
+      <c r="K722" s="17" t="n"/>
+    </row>
+    <row r="723">
+      <c r="K723" s="17" t="n"/>
+    </row>
+    <row r="724">
+      <c r="K724" s="17" t="n"/>
+    </row>
+    <row r="725">
+      <c r="K725" s="17" t="n"/>
+    </row>
+    <row r="726">
+      <c r="K726" s="17" t="n"/>
+    </row>
+    <row r="727">
+      <c r="K727" s="17" t="n"/>
+    </row>
+    <row r="728">
+      <c r="K728" s="17" t="n"/>
+    </row>
+    <row r="729">
+      <c r="K729" s="17" t="n"/>
+    </row>
+    <row r="730">
+      <c r="K730" s="17" t="n"/>
+    </row>
+    <row r="731">
+      <c r="K731" s="17" t="n"/>
+    </row>
+    <row r="732">
+      <c r="K732" s="17" t="n"/>
+    </row>
+    <row r="733">
+      <c r="K733" s="17" t="n"/>
+    </row>
+    <row r="734">
+      <c r="K734" s="17" t="n"/>
+    </row>
+    <row r="735">
+      <c r="K735" s="17" t="n"/>
+    </row>
+    <row r="736">
+      <c r="K736" s="17" t="n"/>
+    </row>
+    <row r="737">
+      <c r="K737" s="17" t="n"/>
+    </row>
+    <row r="738">
+      <c r="K738" s="17" t="n"/>
+    </row>
+    <row r="739">
+      <c r="K739" s="17" t="n"/>
+    </row>
+    <row r="740">
+      <c r="K740" s="17" t="n"/>
+    </row>
+    <row r="741">
+      <c r="K741" s="17" t="n"/>
+    </row>
+    <row r="742">
+      <c r="K742" s="17" t="n"/>
+    </row>
+    <row r="743">
+      <c r="K743" s="17" t="n"/>
+    </row>
+    <row r="744">
+      <c r="K744" s="17" t="n"/>
+    </row>
+    <row r="745">
+      <c r="K745" s="17" t="n"/>
+    </row>
+    <row r="746">
+      <c r="K746" s="17" t="n"/>
+    </row>
+    <row r="747">
+      <c r="K747" s="17" t="n"/>
+    </row>
+    <row r="748">
+      <c r="K748" s="17" t="n"/>
+    </row>
+    <row r="749">
+      <c r="K749" s="17" t="n"/>
+    </row>
+    <row r="750">
+      <c r="K750" s="17" t="n"/>
+    </row>
+    <row r="751">
+      <c r="K751" s="17" t="n"/>
+    </row>
+    <row r="752">
+      <c r="K752" s="17" t="n"/>
+    </row>
+    <row r="753">
+      <c r="K753" s="17" t="n"/>
+    </row>
+    <row r="754">
+      <c r="K754" s="17" t="n"/>
+    </row>
+    <row r="755">
+      <c r="K755" s="17" t="n"/>
+    </row>
+    <row r="756">
+      <c r="K756" s="17" t="n"/>
+    </row>
+    <row r="757">
+      <c r="K757" s="17" t="n"/>
+    </row>
+    <row r="758">
+      <c r="K758" s="17" t="n"/>
+    </row>
+    <row r="759">
+      <c r="K759" s="17" t="n"/>
+    </row>
+    <row r="760">
+      <c r="K760" s="17" t="n"/>
+    </row>
+    <row r="761">
+      <c r="K761" s="17" t="n"/>
+    </row>
+    <row r="762">
+      <c r="K762" s="17" t="n"/>
+    </row>
+    <row r="763">
+      <c r="K763" s="17" t="n"/>
+    </row>
+    <row r="764">
+      <c r="K764" s="17" t="n"/>
+    </row>
+    <row r="765">
+      <c r="K765" s="17" t="n"/>
+    </row>
+    <row r="766">
+      <c r="K766" s="17" t="n"/>
+    </row>
+    <row r="767">
+      <c r="K767" s="17" t="n"/>
+    </row>
+    <row r="768">
+      <c r="K768" s="17" t="n"/>
+    </row>
+    <row r="769">
+      <c r="K769" s="17" t="n"/>
+    </row>
+    <row r="770">
+      <c r="K770" s="17" t="n"/>
+    </row>
+    <row r="771">
+      <c r="K771" s="17" t="n"/>
+    </row>
+    <row r="772">
+      <c r="K772" s="17" t="n"/>
+    </row>
+    <row r="773">
+      <c r="K773" s="17" t="n"/>
+    </row>
+    <row r="774">
+      <c r="K774" s="17" t="n"/>
+    </row>
+    <row r="775">
+      <c r="K775" s="17" t="n"/>
+    </row>
+    <row r="776">
+      <c r="K776" s="17" t="n"/>
+    </row>
+    <row r="777">
+      <c r="K777" s="17" t="n"/>
+    </row>
+    <row r="778">
+      <c r="K778" s="17" t="n"/>
+    </row>
+    <row r="779">
+      <c r="K779" s="17" t="n"/>
+    </row>
+    <row r="780">
+      <c r="K780" s="17" t="n"/>
+    </row>
+    <row r="781">
+      <c r="K781" s="17" t="n"/>
+    </row>
+    <row r="782">
+      <c r="K782" s="17" t="n"/>
+    </row>
+    <row r="783">
+      <c r="K783" s="17" t="n"/>
+    </row>
+    <row r="784">
+      <c r="K784" s="17" t="n"/>
+    </row>
+    <row r="785">
+      <c r="K785" s="17" t="n"/>
+    </row>
+    <row r="786">
+      <c r="K786" s="17" t="n"/>
+    </row>
+    <row r="787">
+      <c r="K787" s="17" t="n"/>
+    </row>
+    <row r="788">
+      <c r="K788" s="17" t="n"/>
+    </row>
+    <row r="789">
+      <c r="K789" s="17" t="n"/>
+    </row>
+    <row r="790">
+      <c r="K790" s="17" t="n"/>
+    </row>
+    <row r="791">
+      <c r="K791" s="17" t="n"/>
+    </row>
+    <row r="792">
+      <c r="K792" s="17" t="n"/>
+    </row>
+    <row r="793">
+      <c r="K793" s="17" t="n"/>
+    </row>
+    <row r="794">
+      <c r="K794" s="17" t="n"/>
+    </row>
+    <row r="795">
+      <c r="K795" s="17" t="n"/>
+    </row>
+    <row r="796">
+      <c r="K796" s="17" t="n"/>
+    </row>
+    <row r="797">
+      <c r="K797" s="17" t="n"/>
+    </row>
+    <row r="798">
+      <c r="K798" s="17" t="n"/>
+    </row>
+    <row r="799">
+      <c r="K799" s="17" t="n"/>
+    </row>
+    <row r="800">
+      <c r="K800" s="17" t="n"/>
+    </row>
+    <row r="801">
+      <c r="K801" s="17" t="n"/>
+    </row>
+    <row r="802">
+      <c r="K802" s="17" t="n"/>
+    </row>
+    <row r="803">
+      <c r="K803" s="17" t="n"/>
+    </row>
+    <row r="804">
+      <c r="K804" s="17" t="n"/>
+    </row>
+    <row r="805">
+      <c r="K805" s="17" t="n"/>
+    </row>
+    <row r="806">
+      <c r="K806" s="17" t="n"/>
+    </row>
+    <row r="807">
+      <c r="K807" s="17" t="n"/>
+    </row>
+    <row r="808">
+      <c r="K808" s="17" t="n"/>
+    </row>
+    <row r="809">
+      <c r="K809" s="17" t="n"/>
+    </row>
+    <row r="810">
+      <c r="K810" s="17" t="n"/>
+    </row>
+    <row r="811">
+      <c r="K811" s="17" t="n"/>
+    </row>
+    <row r="812">
+      <c r="K812" s="17" t="n"/>
+    </row>
+    <row r="813">
+      <c r="K813" s="17" t="n"/>
+    </row>
+    <row r="814">
+      <c r="K814" s="17" t="n"/>
+    </row>
+    <row r="815">
+      <c r="K815" s="17" t="n"/>
+    </row>
+    <row r="816">
+      <c r="K816" s="17" t="n"/>
+    </row>
+    <row r="817">
+      <c r="K817" s="17" t="n"/>
+    </row>
+    <row r="818">
+      <c r="K818" s="17" t="n"/>
+    </row>
+    <row r="819">
+      <c r="K819" s="17" t="n"/>
+    </row>
+    <row r="820">
+      <c r="K820" s="17" t="n"/>
+    </row>
+    <row r="821">
+      <c r="K821" s="17" t="n"/>
+    </row>
+    <row r="822">
+      <c r="K822" s="17" t="n"/>
+    </row>
+    <row r="823">
+      <c r="K823" s="17" t="n"/>
+    </row>
+    <row r="824">
+      <c r="K824" s="17" t="n"/>
+    </row>
+    <row r="825">
+      <c r="K825" s="17" t="n"/>
+    </row>
+    <row r="826">
+      <c r="K826" s="17" t="n"/>
+    </row>
+    <row r="827">
+      <c r="K827" s="17" t="n"/>
+    </row>
+    <row r="828">
+      <c r="K828" s="17" t="n"/>
+    </row>
+    <row r="829">
+      <c r="K829" s="17" t="n"/>
+    </row>
+    <row r="830">
+      <c r="K830" s="17" t="n"/>
+    </row>
+    <row r="831">
+      <c r="K831" s="17" t="n"/>
+    </row>
+    <row r="832">
+      <c r="K832" s="17" t="n"/>
+    </row>
+    <row r="833">
+      <c r="K833" s="17" t="n"/>
+    </row>
+    <row r="834">
+      <c r="K834" s="17" t="n"/>
+    </row>
+    <row r="835">
+      <c r="K835" s="17" t="n"/>
+    </row>
+    <row r="836">
+      <c r="K836" s="17" t="n"/>
+    </row>
+    <row r="837">
+      <c r="K837" s="17" t="n"/>
+    </row>
+    <row r="838">
+      <c r="K838" s="17" t="n"/>
+    </row>
+    <row r="839">
+      <c r="K839" s="17" t="n"/>
+    </row>
+    <row r="840">
+      <c r="K840" s="17" t="n"/>
+    </row>
+    <row r="841">
+      <c r="K841" s="17" t="n"/>
+    </row>
+    <row r="842">
+      <c r="K842" s="17" t="n"/>
+    </row>
+    <row r="843">
+      <c r="K843" s="17" t="n"/>
+    </row>
+    <row r="844">
+      <c r="K844" s="17" t="n"/>
+    </row>
+    <row r="845">
+      <c r="K845" s="17" t="n"/>
+    </row>
+    <row r="846">
+      <c r="K846" s="17" t="n"/>
+    </row>
+    <row r="847">
+      <c r="K847" s="17" t="n"/>
+    </row>
+    <row r="848">
+      <c r="K848" s="17" t="n"/>
+    </row>
+    <row r="849">
+      <c r="K849" s="17" t="n"/>
+    </row>
+    <row r="850">
+      <c r="K850" s="17" t="n"/>
+    </row>
+    <row r="851">
+      <c r="K851" s="17" t="n"/>
+    </row>
+    <row r="852">
+      <c r="K852" s="17" t="n"/>
+    </row>
+    <row r="853">
+      <c r="K853" s="17" t="n"/>
+    </row>
+    <row r="854">
+      <c r="K854" s="17" t="n"/>
+    </row>
+    <row r="855">
+      <c r="K855" s="17" t="n"/>
+    </row>
+    <row r="856">
+      <c r="K856" s="17" t="n"/>
+    </row>
+    <row r="857">
+      <c r="K857" s="17" t="n"/>
+    </row>
+    <row r="858">
+      <c r="K858" s="17" t="n"/>
+    </row>
+    <row r="859">
+      <c r="K859" s="17" t="n"/>
+    </row>
+    <row r="860">
+      <c r="K860" s="17" t="n"/>
+    </row>
+    <row r="861">
+      <c r="K861" s="17" t="n"/>
+    </row>
+    <row r="862">
+      <c r="K862" s="17" t="n"/>
+    </row>
+    <row r="863">
+      <c r="K863" s="17" t="n"/>
+    </row>
+    <row r="864">
+      <c r="K864" s="17" t="n"/>
+    </row>
+    <row r="865">
+      <c r="K865" s="17" t="n"/>
+    </row>
+    <row r="866">
+      <c r="K866" s="17" t="n"/>
+    </row>
+    <row r="867">
+      <c r="K867" s="17" t="n"/>
+    </row>
+    <row r="868">
+      <c r="K868" s="17" t="n"/>
+    </row>
+    <row r="869">
+      <c r="K869" s="17" t="n"/>
+    </row>
+    <row r="870">
+      <c r="K870" s="17" t="n"/>
+    </row>
+    <row r="871">
+      <c r="K871" s="17" t="n"/>
+    </row>
+    <row r="872">
+      <c r="K872" s="17" t="n"/>
+    </row>
+    <row r="873">
+      <c r="K873" s="17" t="n"/>
+    </row>
+    <row r="874">
+      <c r="K874" s="17" t="n"/>
+    </row>
+    <row r="875">
+      <c r="K875" s="17" t="n"/>
+    </row>
+    <row r="876">
+      <c r="K876" s="17" t="n"/>
+    </row>
+    <row r="877">
+      <c r="K877" s="17" t="n"/>
+    </row>
+    <row r="878">
+      <c r="K878" s="17" t="n"/>
+    </row>
+    <row r="879">
+      <c r="K879" s="17" t="n"/>
+    </row>
+    <row r="880">
+      <c r="K880" s="17" t="n"/>
+    </row>
+    <row r="881">
+      <c r="K881" s="17" t="n"/>
+    </row>
+    <row r="882">
+      <c r="K882" s="17" t="n"/>
+    </row>
+    <row r="883">
+      <c r="K883" s="17" t="n"/>
+    </row>
+    <row r="884">
+      <c r="K884" s="17" t="n"/>
+    </row>
+    <row r="885">
+      <c r="K885" s="17" t="n"/>
+    </row>
+    <row r="886">
+      <c r="K886" s="17" t="n"/>
+    </row>
+    <row r="887">
+      <c r="K887" s="17" t="n"/>
+    </row>
+    <row r="888">
+      <c r="K888" s="17" t="n"/>
+    </row>
+    <row r="889">
+      <c r="K889" s="17" t="n"/>
+    </row>
+    <row r="890">
+      <c r="K890" s="17" t="n"/>
+    </row>
+    <row r="891">
+      <c r="K891" s="17" t="n"/>
+    </row>
+    <row r="892">
+      <c r="K892" s="17" t="n"/>
+    </row>
+    <row r="893">
+      <c r="K893" s="17" t="n"/>
+    </row>
+    <row r="894">
+      <c r="K894" s="17" t="n"/>
+    </row>
+    <row r="895">
+      <c r="K895" s="17" t="n"/>
+    </row>
+    <row r="896">
+      <c r="K896" s="17" t="n"/>
+    </row>
+    <row r="897">
+      <c r="K897" s="17" t="n"/>
+    </row>
+    <row r="898">
+      <c r="K898" s="17" t="n"/>
+    </row>
+    <row r="899">
+      <c r="K899" s="17" t="n"/>
+    </row>
+    <row r="900">
+      <c r="K900" s="17" t="n"/>
+    </row>
+    <row r="901">
+      <c r="K901" s="17" t="n"/>
+    </row>
+    <row r="902">
+      <c r="K902" s="17" t="n"/>
+    </row>
+    <row r="903">
+      <c r="K903" s="17" t="n"/>
+    </row>
+    <row r="904">
+      <c r="K904" s="17" t="n"/>
+    </row>
+    <row r="905">
+      <c r="K905" s="17" t="n"/>
+    </row>
+    <row r="906">
+      <c r="K906" s="17" t="n"/>
+    </row>
+    <row r="907">
+      <c r="K907" s="17" t="n"/>
+    </row>
+    <row r="908">
+      <c r="K908" s="17" t="n"/>
+    </row>
+    <row r="909">
+      <c r="K909" s="17" t="n"/>
+    </row>
+    <row r="910">
+      <c r="K910" s="17" t="n"/>
+    </row>
+    <row r="911">
+      <c r="K911" s="17" t="n"/>
+    </row>
+    <row r="912">
+      <c r="K912" s="17" t="n"/>
+    </row>
+    <row r="913">
+      <c r="K913" s="17" t="n"/>
+    </row>
+    <row r="914">
+      <c r="K914" s="17" t="n"/>
+    </row>
+    <row r="915">
+      <c r="K915" s="17" t="n"/>
+    </row>
+    <row r="916">
+      <c r="K916" s="17" t="n"/>
+    </row>
+    <row r="917">
+      <c r="K917" s="17" t="n"/>
+    </row>
+    <row r="918">
+      <c r="K918" s="17" t="n"/>
+    </row>
+    <row r="919">
+      <c r="K919" s="17" t="n"/>
+    </row>
+    <row r="920">
+      <c r="K920" s="17" t="n"/>
+    </row>
+    <row r="921">
+      <c r="K921" s="17" t="n"/>
+    </row>
+    <row r="922">
+      <c r="K922" s="17" t="n"/>
+    </row>
+    <row r="923">
+      <c r="K923" s="17" t="n"/>
+    </row>
+    <row r="924">
+      <c r="K924" s="17" t="n"/>
+    </row>
+    <row r="925">
+      <c r="K925" s="17" t="n"/>
+    </row>
+    <row r="926">
+      <c r="K926" s="17" t="n"/>
+    </row>
+    <row r="927">
+      <c r="K927" s="17" t="n"/>
+    </row>
+    <row r="928">
+      <c r="K928" s="17" t="n"/>
+    </row>
+    <row r="929">
+      <c r="K929" s="17" t="n"/>
+    </row>
+    <row r="930">
+      <c r="K930" s="17" t="n"/>
+    </row>
+    <row r="931">
+      <c r="K931" s="17" t="n"/>
+    </row>
+    <row r="932">
+      <c r="K932" s="17" t="n"/>
+    </row>
+    <row r="933">
+      <c r="K933" s="17" t="n"/>
+    </row>
+    <row r="934">
+      <c r="K934" s="17" t="n"/>
+    </row>
+    <row r="935">
+      <c r="K935" s="17" t="n"/>
+    </row>
+    <row r="936">
+      <c r="K936" s="17" t="n"/>
+    </row>
+    <row r="937">
+      <c r="K937" s="17" t="n"/>
+    </row>
+    <row r="938">
+      <c r="K938" s="17" t="n"/>
+    </row>
+    <row r="939">
+      <c r="K939" s="17" t="n"/>
+    </row>
+    <row r="940">
+      <c r="K940" s="17" t="n"/>
+    </row>
+    <row r="941">
+      <c r="K941" s="17" t="n"/>
+    </row>
+    <row r="942">
+      <c r="K942" s="17" t="n"/>
+    </row>
+    <row r="943">
+      <c r="K943" s="17" t="n"/>
+    </row>
+    <row r="944">
+      <c r="K944" s="17" t="n"/>
+    </row>
+    <row r="945">
+      <c r="K945" s="17" t="n"/>
+    </row>
+    <row r="946">
+      <c r="K946" s="17" t="n"/>
+    </row>
+    <row r="947">
+      <c r="K947" s="17" t="n"/>
+    </row>
+    <row r="948">
+      <c r="K948" s="17" t="n"/>
+    </row>
+    <row r="949">
+      <c r="K949" s="17" t="n"/>
+    </row>
+    <row r="950">
+      <c r="K950" s="17" t="n"/>
+    </row>
+    <row r="951">
+      <c r="K951" s="17" t="n"/>
+    </row>
+    <row r="952">
+      <c r="K952" s="17" t="n"/>
+    </row>
+    <row r="953">
+      <c r="K953" s="17" t="n"/>
+    </row>
+    <row r="954">
+      <c r="K954" s="17" t="n"/>
+    </row>
+    <row r="955">
+      <c r="K955" s="17" t="n"/>
+    </row>
+    <row r="956">
+      <c r="K956" s="17" t="n"/>
+    </row>
+    <row r="957">
+      <c r="K957" s="17" t="n"/>
+    </row>
+    <row r="958">
+      <c r="K958" s="17" t="n"/>
+    </row>
+    <row r="959">
+      <c r="K959" s="17" t="n"/>
+    </row>
+    <row r="960">
+      <c r="K960" s="17" t="n"/>
+    </row>
+    <row r="961">
+      <c r="K961" s="17" t="n"/>
+    </row>
+    <row r="962">
+      <c r="K962" s="17" t="n"/>
+    </row>
+    <row r="963">
+      <c r="K963" s="17" t="n"/>
+    </row>
+    <row r="964">
+      <c r="K964" s="17" t="n"/>
+    </row>
+    <row r="965">
+      <c r="K965" s="17" t="n"/>
+    </row>
+    <row r="966">
+      <c r="K966" s="17" t="n"/>
+    </row>
+    <row r="967">
+      <c r="K967" s="17" t="n"/>
+    </row>
+    <row r="968">
+      <c r="K968" s="17" t="n"/>
+    </row>
+    <row r="969">
+      <c r="K969" s="17" t="n"/>
+    </row>
+    <row r="970">
+      <c r="K970" s="17" t="n"/>
+    </row>
+    <row r="971">
+      <c r="K971" s="17" t="n"/>
+    </row>
+    <row r="972">
+      <c r="K972" s="17" t="n"/>
+    </row>
+    <row r="973">
+      <c r="K973" s="17" t="n"/>
+    </row>
+    <row r="974">
+      <c r="K974" s="17" t="n"/>
+    </row>
+    <row r="975">
+      <c r="K975" s="17" t="n"/>
+    </row>
+    <row r="976">
+      <c r="K976" s="17" t="n"/>
+    </row>
+    <row r="977">
+      <c r="K977" s="17" t="n"/>
+    </row>
+    <row r="978">
+      <c r="K978" s="17" t="n"/>
+    </row>
+    <row r="979">
+      <c r="K979" s="17" t="n"/>
+    </row>
+    <row r="980">
+      <c r="K980" s="17" t="n"/>
+    </row>
+    <row r="981">
+      <c r="K981" s="17" t="n"/>
+    </row>
+    <row r="982">
+      <c r="K982" s="17" t="n"/>
+    </row>
+    <row r="983">
+      <c r="K983" s="17" t="n"/>
+    </row>
+    <row r="984">
+      <c r="K984" s="17" t="n"/>
+    </row>
+    <row r="985">
+      <c r="K985" s="17" t="n"/>
+    </row>
+    <row r="986">
+      <c r="K986" s="17" t="n"/>
+    </row>
+    <row r="987">
+      <c r="K987" s="17" t="n"/>
+    </row>
+    <row r="988">
+      <c r="K988" s="17" t="n"/>
+    </row>
+    <row r="989">
+      <c r="K989" s="17" t="n"/>
+    </row>
+    <row r="990">
+      <c r="K990" s="17" t="n"/>
+    </row>
+    <row r="991">
+      <c r="K991" s="17" t="n"/>
+    </row>
+    <row r="992">
+      <c r="K992" s="17" t="n"/>
+    </row>
+    <row r="993">
+      <c r="K993" s="17" t="n"/>
+    </row>
+    <row r="994">
+      <c r="K994" s="17" t="n"/>
+    </row>
+    <row r="995">
+      <c r="K995" s="17" t="n"/>
+    </row>
+    <row r="996">
+      <c r="K996" s="17" t="n"/>
+    </row>
+    <row r="997">
+      <c r="K997" s="17" t="n"/>
+    </row>
+    <row r="998">
+      <c r="K998" s="17" t="n"/>
+    </row>
+    <row r="999">
+      <c r="K999" s="17" t="n"/>
+    </row>
+    <row r="1000">
+      <c r="K1000" s="17" t="n"/>
+    </row>
+    <row r="1001">
+      <c r="K1001" s="17" t="n"/>
+    </row>
+    <row r="1002">
+      <c r="K1002" s="17" t="n"/>
+    </row>
+    <row r="1003">
+      <c r="K1003" s="17" t="n"/>
+    </row>
+    <row r="1004">
+      <c r="K1004" s="17" t="n"/>
+    </row>
+    <row r="1005">
+      <c r="K1005" s="17" t="n"/>
+    </row>
+    <row r="1006">
+      <c r="K1006" s="17" t="n"/>
+    </row>
+    <row r="1007">
+      <c r="K1007" s="17" t="n"/>
+    </row>
+    <row r="1008">
+      <c r="K1008" s="17" t="n"/>
+    </row>
+    <row r="1009">
+      <c r="K1009" s="17" t="n"/>
+    </row>
+    <row r="1010">
+      <c r="K1010" s="17" t="n"/>
+    </row>
+    <row r="1011">
+      <c r="K1011" s="17" t="n"/>
+    </row>
+    <row r="1012">
+      <c r="K1012" s="17" t="n"/>
+    </row>
+    <row r="1013">
+      <c r="K1013" s="17" t="n"/>
+    </row>
+    <row r="1014">
+      <c r="K1014" s="17" t="n"/>
+    </row>
+    <row r="1015">
+      <c r="K1015" s="17" t="n"/>
+    </row>
+    <row r="1016">
+      <c r="K1016" s="17" t="n"/>
+    </row>
+    <row r="1017">
+      <c r="K1017" s="17" t="n"/>
+    </row>
+    <row r="1018">
+      <c r="K1018" s="17" t="n"/>
+    </row>
+    <row r="1019">
+      <c r="K1019" s="17" t="n"/>
+    </row>
+    <row r="1020">
+      <c r="K1020" s="17" t="n"/>
+    </row>
+    <row r="1021">
+      <c r="K1021" s="17" t="n"/>
+    </row>
+    <row r="1022">
+      <c r="K1022" s="17" t="n"/>
+    </row>
+    <row r="1023">
+      <c r="K1023" s="17" t="n"/>
+    </row>
+    <row r="1024">
+      <c r="K1024" s="17" t="n"/>
+    </row>
+    <row r="1025">
+      <c r="K1025" s="17" t="n"/>
+    </row>
+    <row r="1026">
+      <c r="K1026" s="17" t="n"/>
+    </row>
+    <row r="1027">
+      <c r="K1027" s="17" t="n"/>
+    </row>
+    <row r="1028">
+      <c r="K1028" s="17" t="n"/>
+    </row>
+    <row r="1029">
+      <c r="K1029" s="17" t="n"/>
+    </row>
+    <row r="1030">
+      <c r="K1030" s="17" t="n"/>
+    </row>
+    <row r="1031">
+      <c r="K1031" s="17" t="n"/>
+    </row>
+    <row r="1032">
+      <c r="K1032" s="17" t="n"/>
+    </row>
+    <row r="1033">
+      <c r="K1033" s="17" t="n"/>
+    </row>
+    <row r="1034">
+      <c r="K1034" s="17" t="n"/>
+    </row>
+    <row r="1035">
+      <c r="K1035" s="17" t="n"/>
+    </row>
+    <row r="1036">
+      <c r="K1036" s="17" t="n"/>
+    </row>
+    <row r="1037">
+      <c r="K1037" s="17" t="n"/>
+    </row>
+    <row r="1038">
+      <c r="K1038" s="17" t="n"/>
+    </row>
+    <row r="1039">
+      <c r="K1039" s="17" t="n"/>
+    </row>
+    <row r="1040">
+      <c r="K1040" s="17" t="n"/>
+    </row>
+    <row r="1041">
+      <c r="K1041" s="17" t="n"/>
+    </row>
+    <row r="1042">
+      <c r="K1042" s="17" t="n"/>
+    </row>
+    <row r="1043">
+      <c r="K1043" s="17" t="n"/>
+    </row>
+    <row r="1044">
+      <c r="K1044" s="17" t="n"/>
+    </row>
+    <row r="1045">
+      <c r="K1045" s="17" t="n"/>
+    </row>
+    <row r="1046">
+      <c r="K1046" s="17" t="n"/>
+    </row>
+    <row r="1047">
+      <c r="K1047" s="17" t="n"/>
+    </row>
+    <row r="1048">
+      <c r="K1048" s="17" t="n"/>
+    </row>
+    <row r="1049">
+      <c r="K1049" s="17" t="n"/>
+    </row>
+    <row r="1050">
+      <c r="K1050" s="17" t="n"/>
+    </row>
+    <row r="1051">
+      <c r="K1051" s="17" t="n"/>
+    </row>
+    <row r="1052">
+      <c r="K1052" s="17" t="n"/>
+    </row>
+    <row r="1053">
+      <c r="K1053" s="17" t="n"/>
+    </row>
+    <row r="1054">
+      <c r="K1054" s="17" t="n"/>
+    </row>
+    <row r="1055">
+      <c r="K1055" s="17" t="n"/>
+    </row>
+    <row r="1056">
+      <c r="K1056" s="17" t="n"/>
+    </row>
+    <row r="1057">
+      <c r="K1057" s="17" t="n"/>
+    </row>
+    <row r="1058">
+      <c r="K1058" s="17" t="n"/>
+    </row>
+    <row r="1059">
+      <c r="K1059" s="17" t="n"/>
+    </row>
+    <row r="1060">
+      <c r="K1060" s="17" t="n"/>
+    </row>
+    <row r="1061">
+      <c r="K1061" s="17" t="n"/>
+    </row>
+    <row r="1062">
+      <c r="K1062" s="17" t="n"/>
+    </row>
+    <row r="1063">
+      <c r="K1063" s="17" t="n"/>
+    </row>
+    <row r="1064">
+      <c r="K1064" s="17" t="n"/>
+    </row>
+    <row r="1065">
+      <c r="K1065" s="17" t="n"/>
+    </row>
+    <row r="1066">
+      <c r="K1066" s="17" t="n"/>
+    </row>
+    <row r="1067">
+      <c r="K1067" s="17" t="n"/>
+    </row>
+    <row r="1068">
+      <c r="K1068" s="17" t="n"/>
+    </row>
+    <row r="1069">
+      <c r="K1069" s="17" t="n"/>
+    </row>
+    <row r="1070">
+      <c r="K1070" s="17" t="n"/>
+    </row>
+    <row r="1071">
+      <c r="K1071" s="17" t="n"/>
+    </row>
+    <row r="1072">
+      <c r="K1072" s="17" t="n"/>
+    </row>
+    <row r="1073">
+      <c r="K1073" s="17" t="n"/>
+    </row>
+    <row r="1074">
+      <c r="K1074" s="17" t="n"/>
+    </row>
+    <row r="1075">
+      <c r="K1075" s="17" t="n"/>
+    </row>
+    <row r="1076">
+      <c r="K1076" s="17" t="n"/>
+    </row>
+    <row r="1077">
+      <c r="K1077" s="17" t="n"/>
+    </row>
+    <row r="1078">
+      <c r="K1078" s="17" t="n"/>
+    </row>
+    <row r="1079">
+      <c r="K1079" s="17" t="n"/>
+    </row>
+    <row r="1080">
+      <c r="K1080" s="17" t="n"/>
+    </row>
+    <row r="1081">
+      <c r="K1081" s="17" t="n"/>
+    </row>
+    <row r="1082">
+      <c r="K1082" s="17" t="n"/>
+    </row>
+    <row r="1083">
+      <c r="K1083" s="17" t="n"/>
+    </row>
+    <row r="1084">
+      <c r="K1084" s="17" t="n"/>
+    </row>
+    <row r="1085">
+      <c r="K1085" s="17" t="n"/>
+    </row>
+    <row r="1086">
+      <c r="K1086" s="17" t="n"/>
+    </row>
+    <row r="1087">
+      <c r="K1087" s="17" t="n"/>
+    </row>
+    <row r="1088">
+      <c r="K1088" s="17" t="n"/>
+    </row>
+    <row r="1089">
+      <c r="K1089" s="17" t="n"/>
+    </row>
+    <row r="1090">
+      <c r="K1090" s="17" t="n"/>
+    </row>
+    <row r="1091">
+      <c r="K1091" s="17" t="n"/>
+    </row>
+    <row r="1092">
+      <c r="K1092" s="17" t="n"/>
+    </row>
+    <row r="1093">
+      <c r="K1093" s="17" t="n"/>
+    </row>
+    <row r="1094">
+      <c r="K1094" s="17" t="n"/>
+    </row>
+    <row r="1095">
+      <c r="K1095" s="17" t="n"/>
+    </row>
+    <row r="1096">
+      <c r="K1096" s="17" t="n"/>
+    </row>
+    <row r="1097">
+      <c r="K1097" s="17" t="n"/>
+    </row>
+    <row r="1098">
+      <c r="K1098" s="17" t="n"/>
+    </row>
+    <row r="1099">
+      <c r="K1099" s="17" t="n"/>
+    </row>
+    <row r="1100">
+      <c r="K1100" s="17" t="n"/>
+    </row>
+    <row r="1101">
+      <c r="K1101" s="17" t="n"/>
+    </row>
+    <row r="1102">
+      <c r="K1102" s="17" t="n"/>
+    </row>
+    <row r="1103">
+      <c r="K1103" s="17" t="n"/>
+    </row>
+    <row r="1104">
+      <c r="K1104" s="17" t="n"/>
+    </row>
+    <row r="1105">
+      <c r="K1105" s="17" t="n"/>
+    </row>
+    <row r="1106">
+      <c r="K1106" s="17" t="n"/>
+    </row>
+    <row r="1107">
+      <c r="K1107" s="17" t="n"/>
+    </row>
+    <row r="1108">
+      <c r="K1108" s="17" t="n"/>
+    </row>
+    <row r="1109">
+      <c r="K1109" s="17" t="n"/>
+    </row>
+    <row r="1110">
+      <c r="K1110" s="17" t="n"/>
+    </row>
+    <row r="1111">
+      <c r="K1111" s="17" t="n"/>
+    </row>
+    <row r="1112">
+      <c r="K1112" s="17" t="n"/>
+    </row>
+    <row r="1113">
+      <c r="K1113" s="17" t="n"/>
+    </row>
+    <row r="1114">
+      <c r="K1114" s="17" t="n"/>
+    </row>
+    <row r="1115">
+      <c r="K1115" s="17" t="n"/>
+    </row>
+    <row r="1116">
+      <c r="K1116" s="17" t="n"/>
+    </row>
+    <row r="1117">
+      <c r="K1117" s="17" t="n"/>
+    </row>
+    <row r="1118">
+      <c r="K1118" s="17" t="n"/>
+    </row>
+    <row r="1119">
+      <c r="K1119" s="17" t="n"/>
+    </row>
+    <row r="1120">
+      <c r="K1120" s="17" t="n"/>
+    </row>
+    <row r="1121">
+      <c r="K1121" s="17" t="n"/>
+    </row>
+    <row r="1122">
+      <c r="K1122" s="17" t="n"/>
+    </row>
+    <row r="1123">
+      <c r="K1123" s="17" t="n"/>
+    </row>
+    <row r="1124">
+      <c r="K1124" s="17" t="n"/>
+    </row>
+    <row r="1125">
+      <c r="K1125" s="17" t="n"/>
+    </row>
+    <row r="1126">
+      <c r="K1126" s="17" t="n"/>
+    </row>
+    <row r="1127">
+      <c r="K1127" s="17" t="n"/>
+    </row>
+    <row r="1128">
+      <c r="K1128" s="17" t="n"/>
+    </row>
+    <row r="1129">
+      <c r="K1129" s="17" t="n"/>
+    </row>
+    <row r="1130">
+      <c r="K1130" s="17" t="n"/>
+    </row>
+    <row r="1131">
+      <c r="K1131" s="17" t="n"/>
+    </row>
+    <row r="1132">
+      <c r="K1132" s="17" t="n"/>
+    </row>
+    <row r="1133">
+      <c r="K1133" s="17" t="n"/>
+    </row>
+    <row r="1134">
+      <c r="K1134" s="17" t="n"/>
+    </row>
+    <row r="1135">
+      <c r="K1135" s="17" t="n"/>
+    </row>
+    <row r="1136">
+      <c r="K1136" s="17" t="n"/>
+    </row>
+    <row r="1137">
+      <c r="K1137" s="17" t="n"/>
+    </row>
+    <row r="1138">
+      <c r="K1138" s="17" t="n"/>
+    </row>
+    <row r="1139">
+      <c r="K1139" s="17" t="n"/>
+    </row>
+    <row r="1140">
+      <c r="K1140" s="17" t="n"/>
+    </row>
+    <row r="1141">
+      <c r="K1141" s="17" t="n"/>
+    </row>
+    <row r="1142">
+      <c r="K1142" s="17" t="n"/>
+    </row>
+    <row r="1143">
+      <c r="K1143" s="17" t="n"/>
+    </row>
+    <row r="1144">
+      <c r="K1144" s="17" t="n"/>
+    </row>
+    <row r="1145">
+      <c r="K1145" s="17" t="n"/>
+    </row>
+    <row r="1146">
+      <c r="K1146" s="17" t="n"/>
+    </row>
+    <row r="1147">
+      <c r="K1147" s="17" t="n"/>
+    </row>
+    <row r="1148">
+      <c r="K1148" s="17" t="n"/>
+    </row>
+    <row r="1149">
+      <c r="K1149" s="17" t="n"/>
+    </row>
+    <row r="1150">
+      <c r="K1150" s="17" t="n"/>
+    </row>
+    <row r="1151">
+      <c r="K1151" s="17" t="n"/>
+    </row>
+    <row r="1152">
+      <c r="K1152" s="17" t="n"/>
+    </row>
+    <row r="1153">
+      <c r="K1153" s="17" t="n"/>
+    </row>
+    <row r="1154">
+      <c r="K1154" s="17" t="n"/>
+    </row>
+    <row r="1155">
+      <c r="K1155" s="17" t="n"/>
+    </row>
+    <row r="1156">
+      <c r="K1156" s="17" t="n"/>
+    </row>
+    <row r="1157">
+      <c r="K1157" s="17" t="n"/>
+    </row>
+    <row r="1158">
+      <c r="K1158" s="17" t="n"/>
+    </row>
+    <row r="1159">
+      <c r="K1159" s="17" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <name val="Arial"/>
       <family val="2"/>
@@ -58,8 +58,29 @@
       <sz val="10"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Roboto"/>
+      <color rgb="FF1F1F1F"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Roboto"/>
+      <color rgb="FF1F1F1F"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -82,6 +103,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF4CCCC"/>
         <bgColor rgb="FFF4CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEEAF6"/>
+        <bgColor rgb="FFDEEAF6"/>
       </patternFill>
     </fill>
   </fills>
@@ -148,12 +175,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -201,11 +229,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" pivotButton="0" quotePrefix="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 4" xfId="3"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -570,8 +604,8 @@
   </sheetPr>
   <dimension ref="A1:L1159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="O234" sqref="O234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -666,6 +700,19 @@
       <c r="F2" t="n">
         <v>1</v>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>860, 460, 1126, 460</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>820, 735, 1153, 735</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>0.9960049593607936</v>
+      </c>
       <c r="K2" s="7" t="n">
         <v>1</v>
       </c>
@@ -755,7 +802,7 @@
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>12:00,</t>
+          <t>0:00,</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -1058,6 +1105,9 @@
           <t>941, 690, 1275, 690</t>
         </is>
       </c>
+      <c r="J17" t="n">
+        <v>1.434634974533107</v>
+      </c>
       <c r="K17" s="7" t="n">
         <v>1.33</v>
       </c>
@@ -1182,6 +1232,11 @@
       <c r="F21" t="n">
         <v>2</v>
       </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>901, 533, 1168, 533</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr">
         <is>
           <t>1075, 1031, 1408, 1031</t>
@@ -1294,7 +1349,7 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>1.901719901719902</v>
+        <v>1.863442389758179</v>
       </c>
       <c r="K24" s="8" t="n">
         <v>1.36</v>
@@ -1352,7 +1407,7 @@
         <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>1.27789046653144</v>
+        <v>1.283714578354387</v>
       </c>
       <c r="K26" s="7" t="n">
         <v>1.4</v>
@@ -1489,6 +1544,19 @@
       <c r="F30" t="n">
         <v>1</v>
       </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>928, 446, 1195, 446</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>928, 783, 1261, 783</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>1.327953044754219</v>
+      </c>
       <c r="K30" s="8" t="n">
         <v>1.5</v>
       </c>
@@ -1626,6 +1694,19 @@
       <c r="F36" t="n">
         <v>1</v>
       </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>926, 438, 1193, 438</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>941, 773, 1275, 773</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
+        <v>1.087063453025086</v>
+      </c>
       <c r="K36" s="8" t="n">
         <v>1.22</v>
       </c>
@@ -1824,6 +1905,19 @@
           <t>repeated</t>
         </is>
       </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>820, 483, 1086, 483</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>780, 723, 1113, 723</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>1.428773919206237</v>
+      </c>
       <c r="K44" s="7" t="n">
         <v>1.33</v>
       </c>
@@ -1923,6 +2017,19 @@
       <c r="F47" t="n">
         <v>2</v>
       </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>1225, 541, 1491, 541</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>1186, 880, 1520, 880</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>1.481707317073171</v>
+      </c>
       <c r="K47" s="7" t="n">
         <v>1.1</v>
       </c>
@@ -2016,6 +2123,16 @@
       <c r="F51" t="n">
         <v>2</v>
       </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>881, 688, 1148, 688</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>1096, 1070, 1430, 1070</t>
+        </is>
+      </c>
       <c r="K51" s="8" t="n">
         <v>0.84</v>
       </c>
@@ -2100,7 +2217,7 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>1.115798536375377</v>
+        <v>1.157699443413729</v>
       </c>
       <c r="K54" s="8" t="n">
         <v>1.39</v>
@@ -4587,7 +4704,7 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>1.319942611190818</v>
+        <v>1.297674418604651</v>
       </c>
       <c r="K176" s="12" t="n">
         <v>1.36</v>
@@ -5199,6 +5316,9 @@
           <t>895, 630, 1161, 630</t>
         </is>
       </c>
+      <c r="J201" t="n">
+        <v>1.847903340440654</v>
+      </c>
       <c r="K201" s="13" t="n">
         <v>1.34</v>
       </c>
@@ -5354,6 +5474,9 @@
           <t>891, 628, 1158, 628</t>
         </is>
       </c>
+      <c r="J207" t="n">
+        <v>1.658263305322129</v>
+      </c>
       <c r="K207" s="13" t="n">
         <v>1.16</v>
       </c>
@@ -5685,6 +5808,9 @@
           <t>813, 1026, 1146, 1026</t>
         </is>
       </c>
+      <c r="J221" t="n">
+        <v>1.380039656311963</v>
+      </c>
       <c r="K221" s="12" t="n">
         <v>1</v>
       </c>
@@ -5935,7 +6061,7 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>1.580034423407917</v>
+        <v>2.071428571428571</v>
       </c>
       <c r="K233" s="12" t="n">
         <v>1.36</v>
@@ -7562,6 +7688,14 @@
       <c r="F306" t="n">
         <v>3</v>
       </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>995, 630, 1261, 630</t>
+        </is>
+      </c>
+      <c r="J306" t="n">
+        <v>1.101288204091942</v>
+      </c>
       <c r="K306" s="13" t="n">
         <v>1.11</v>
       </c>
@@ -7833,7 +7967,7 @@
         </is>
       </c>
       <c r="C321" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -7881,6 +8015,19 @@
       <c r="F322" t="n">
         <v>3</v>
       </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>760, 405, 1026, 405</t>
+        </is>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>766, 650, 1100, 650</t>
+        </is>
+      </c>
+      <c r="J322" t="n">
+        <v>1.090999256136871</v>
+      </c>
       <c r="K322" s="14" t="n">
         <v>1.25</v>
       </c>
@@ -8205,6 +8352,14 @@
       <c r="F338" t="n">
         <v>3</v>
       </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>816, 596, 1083, 596</t>
+        </is>
+      </c>
+      <c r="J338" t="n">
+        <v>0.8181818181818181</v>
+      </c>
       <c r="K338" s="12" t="n">
         <v>1.33</v>
       </c>
@@ -8238,6 +8393,16 @@
       <c r="F339" t="n">
         <v>3</v>
       </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>811, 565, 1078, 565</t>
+        </is>
+      </c>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>735, 881, 1068, 881</t>
+        </is>
+      </c>
       <c r="K339" s="13" t="n">
         <v>1.51</v>
       </c>
@@ -8291,6 +8456,14 @@
       <c r="F341" t="n">
         <v>3</v>
       </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>836, 598, 1103, 598</t>
+        </is>
+      </c>
+      <c r="J341" t="n">
+        <v>1.277173913043478</v>
+      </c>
       <c r="K341" s="12" t="n">
         <v>1.13</v>
       </c>
@@ -8364,6 +8537,19 @@
       <c r="F344" t="n">
         <v>3</v>
       </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>1036, 546, 1303, 546</t>
+        </is>
+      </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>1138, 970, 1471, 970</t>
+        </is>
+      </c>
+      <c r="J344" t="n">
+        <v>1.421362489486964</v>
+      </c>
       <c r="K344" s="12" t="n">
         <v>1.26</v>
       </c>
@@ -8391,11 +8577,19 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>4:05,</t>
+          <t>4:08,</t>
         </is>
       </c>
       <c r="F345" t="n">
         <v>3</v>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>886, 588, 1153, 588</t>
+        </is>
+      </c>
+      <c r="J345" t="n">
+        <v>1.196428571428571</v>
       </c>
       <c r="K345" s="13" t="n">
         <v>1.17</v>
@@ -8672,6 +8866,19 @@
       <c r="F359" t="n">
         <v>3</v>
       </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>896, 563, 1163, 563</t>
+        </is>
+      </c>
+      <c r="I359" t="inlineStr">
+        <is>
+          <t>776, 1031, 1110, 1031</t>
+        </is>
+      </c>
+      <c r="J359" t="n">
+        <v>1.254901960784314</v>
+      </c>
       <c r="K359" s="12" t="n">
         <v>1.33</v>
       </c>
@@ -8705,6 +8912,19 @@
       <c r="F360" t="n">
         <v>3</v>
       </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>836, 546, 1103, 546</t>
+        </is>
+      </c>
+      <c r="I360" t="inlineStr">
+        <is>
+          <t>765, 871, 1098, 871</t>
+        </is>
+      </c>
+      <c r="J360" t="n">
+        <v>1.137078651685393</v>
+      </c>
       <c r="K360" s="13" t="n">
         <v>1.33</v>
       </c>
@@ -8798,6 +9018,14 @@
       <c r="F364" t="n">
         <v>3</v>
       </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>756, 426, 1023, 426</t>
+        </is>
+      </c>
+      <c r="J364" t="n">
+        <v>1.370005189413596</v>
+      </c>
       <c r="K364" s="14" t="n">
         <v>1.37</v>
       </c>
@@ -8831,6 +9059,16 @@
       <c r="F365" t="n">
         <v>3</v>
       </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>925, 558, 1191, 558</t>
+        </is>
+      </c>
+      <c r="I365" t="inlineStr">
+        <is>
+          <t>1023, 948, 1356, 948</t>
+        </is>
+      </c>
       <c r="K365" s="12" t="n">
         <v>1.19</v>
       </c>
@@ -8864,6 +9102,14 @@
       <c r="F366" t="n">
         <v>3</v>
       </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>813, 611, 1080, 611</t>
+        </is>
+      </c>
+      <c r="J366" t="n">
+        <v>1.076774505070015</v>
+      </c>
       <c r="K366" s="13" t="n">
         <v>1.08</v>
       </c>
@@ -8917,6 +9163,16 @@
       <c r="F368" t="n">
         <v>3</v>
       </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>835, 598, 1101, 598</t>
+        </is>
+      </c>
+      <c r="I368" t="inlineStr">
+        <is>
+          <t>841, 990, 1175, 990</t>
+        </is>
+      </c>
       <c r="K368" s="12" t="n">
         <v>1.16</v>
       </c>
@@ -8944,11 +9200,24 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>5:30,</t>
+          <t>5:33,</t>
         </is>
       </c>
       <c r="F369" t="n">
         <v>3</v>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>763, 558, 1030, 558</t>
+        </is>
+      </c>
+      <c r="I369" t="inlineStr">
+        <is>
+          <t>671, 881, 1005, 881</t>
+        </is>
+      </c>
+      <c r="J369" t="n">
+        <v>1.266666666666667</v>
       </c>
       <c r="K369" s="13" t="n">
         <v>1.1</v>
@@ -8983,6 +9252,14 @@
       <c r="F370" t="n">
         <v>3</v>
       </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>750, 425, 1016, 425</t>
+        </is>
+      </c>
+      <c r="J370" t="n">
+        <v>1.07563025210084</v>
+      </c>
       <c r="K370" s="14" t="n">
         <v>1.13</v>
       </c>
@@ -9036,6 +9313,16 @@
       <c r="F372" t="n">
         <v>3</v>
       </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>903, 628, 1170, 628</t>
+        </is>
+      </c>
+      <c r="I372" t="inlineStr">
+        <is>
+          <t>955, 1003, 1288, 1003</t>
+        </is>
+      </c>
       <c r="K372" s="13" t="n">
         <v>1.08</v>
       </c>
@@ -9231,6 +9518,19 @@
       <c r="F382" t="n">
         <v>3</v>
       </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>761, 423, 1028, 423</t>
+        </is>
+      </c>
+      <c r="I382" t="inlineStr">
+        <is>
+          <t>758, 673, 1091, 673</t>
+        </is>
+      </c>
+      <c r="J382" t="n">
+        <v>1.256578947368421</v>
+      </c>
       <c r="K382" s="14" t="n">
         <v>1.47</v>
       </c>
@@ -9315,6 +9615,19 @@
       <c r="F386" t="n">
         <v>3</v>
       </c>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>800, 616, 1066, 616</t>
+        </is>
+      </c>
+      <c r="I386" t="inlineStr">
+        <is>
+          <t>786, 913, 1120, 913</t>
+        </is>
+      </c>
+      <c r="J386" t="n">
+        <v>1.126785399400458</v>
+      </c>
       <c r="K386" s="12" t="n">
         <v>1.26</v>
       </c>
@@ -9348,6 +9661,19 @@
       <c r="F387" t="n">
         <v>3</v>
       </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>713, 661, 980, 661</t>
+        </is>
+      </c>
+      <c r="I387" t="inlineStr">
+        <is>
+          <t>616, 973, 950, 973</t>
+        </is>
+      </c>
+      <c r="J387" t="n">
+        <v>1.438415159345392</v>
+      </c>
       <c r="K387" s="13" t="n">
         <v>1.32</v>
       </c>
@@ -9452,6 +9778,19 @@
       <c r="F392" t="n">
         <v>3</v>
       </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>886, 560, 1153, 560</t>
+        </is>
+      </c>
+      <c r="I392" t="inlineStr">
+        <is>
+          <t>910, 1016, 1243, 1016</t>
+        </is>
+      </c>
+      <c r="J392" t="n">
+        <v>1.026315789473684</v>
+      </c>
       <c r="K392" s="12" t="n">
         <v>1.26</v>
       </c>
@@ -9470,7 +9809,7 @@
         </is>
       </c>
       <c r="C393" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -9711,6 +10050,19 @@
       <c r="F405" t="n">
         <v>3</v>
       </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>786, 560, 1053, 560</t>
+        </is>
+      </c>
+      <c r="I405" t="inlineStr">
+        <is>
+          <t>698, 880, 1031, 880</t>
+        </is>
+      </c>
+      <c r="J405" t="n">
+        <v>2.036238136324418</v>
+      </c>
       <c r="K405" s="13" t="n">
         <v>1.43</v>
       </c>
@@ -9820,6 +10172,16 @@
           <t>there is camera Movement</t>
         </is>
       </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>855, 530, 1121, 530</t>
+        </is>
+      </c>
+      <c r="I410" t="inlineStr">
+        <is>
+          <t>805, 956, 1138, 956</t>
+        </is>
+      </c>
       <c r="K410" s="12" t="n">
         <v>1.26</v>
       </c>
@@ -9853,6 +10215,21 @@
       <c r="F411" t="n">
         <v>3</v>
       </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>incomplete video the second walking isn't avalible.</t>
+        </is>
+      </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>851, 556, 1118, 556</t>
+        </is>
+      </c>
+      <c r="I411" t="inlineStr">
+        <is>
+          <t>798, 888, 1131, 888</t>
+        </is>
+      </c>
       <c r="K411" s="13" t="n">
         <v>1.33</v>
       </c>
@@ -10386,6 +10763,19 @@
       <c r="F440" t="n">
         <v>3</v>
       </c>
+      <c r="H440" t="inlineStr">
+        <is>
+          <t>801, 653, 1068, 653</t>
+        </is>
+      </c>
+      <c r="I440" t="inlineStr">
+        <is>
+          <t>778, 913, 1111, 913</t>
+        </is>
+      </c>
+      <c r="J440" t="n">
+        <v>1.368052856587641</v>
+      </c>
       <c r="K440" s="12" t="n">
         <v>1.05</v>
       </c>
@@ -10419,6 +10809,14 @@
       <c r="F441" t="n">
         <v>3</v>
       </c>
+      <c r="H441" t="inlineStr">
+        <is>
+          <t>985, 628, 1251, 628</t>
+        </is>
+      </c>
+      <c r="J441" t="n">
+        <v>0.9109730848861284</v>
+      </c>
       <c r="K441" s="13" t="n">
         <v>0.92</v>
       </c>
@@ -10459,6 +10857,13 @@
       <c r="C443" t="b">
         <v>0</v>
       </c>
+      <c r="K443" s="23" t="n">
+        <v>1.26984126984127</v>
+      </c>
+      <c r="L443" s="18">
+        <f>J443-K443</f>
+        <v/>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -10472,6 +10877,13 @@
       <c r="C444" t="b">
         <v>0</v>
       </c>
+      <c r="K444" s="23" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="L444" s="18">
+        <f>J444-K444</f>
+        <v/>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -10485,6 +10897,13 @@
       <c r="C445" t="b">
         <v>0</v>
       </c>
+      <c r="K445" s="23" t="n">
+        <v>1.212121212121212</v>
+      </c>
+      <c r="L445" s="18">
+        <f>J445-K445</f>
+        <v/>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -10498,6 +10917,13 @@
       <c r="C446" t="b">
         <v>0</v>
       </c>
+      <c r="K446" s="23" t="n">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="L446" s="18">
+        <f>J446-K446</f>
+        <v/>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -10511,6 +10937,13 @@
       <c r="C447" t="b">
         <v>0</v>
       </c>
+      <c r="K447" s="23" t="n">
+        <v>1.26984126984127</v>
+      </c>
+      <c r="L447" s="18">
+        <f>J447-K447</f>
+        <v/>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -10524,6 +10957,13 @@
       <c r="C448" t="b">
         <v>0</v>
       </c>
+      <c r="K448" s="23" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="L448" s="18">
+        <f>J448-K448</f>
+        <v/>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -10537,6 +10977,13 @@
       <c r="C449" t="b">
         <v>0</v>
       </c>
+      <c r="K449" s="23" t="n">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="L449" s="18">
+        <f>J449-K449</f>
+        <v/>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -10548,7 +10995,14 @@
         </is>
       </c>
       <c r="C450" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K450" s="23" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L450" s="18">
+        <f>J450-K450</f>
+        <v/>
       </c>
     </row>
     <row r="451">
@@ -10561,9 +11015,15 @@
         </is>
       </c>
       <c r="C451" t="b">
-        <v>1</v>
-      </c>
-      <c r="K451" s="17" t="n"/>
+        <v>0</v>
+      </c>
+      <c r="K451" s="23" t="n">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="L451" s="18">
+        <f>J451-K451</f>
+        <v/>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -10571,13 +11031,35 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>T0</t>
+          <t>10_Walking_WIN_20210421_10_06_51_Pro.mp4</t>
         </is>
       </c>
       <c r="C452" t="b">
         <v>1</v>
       </c>
-      <c r="K452" s="17" t="n"/>
+      <c r="D452" s="4" t="inlineStr">
+        <is>
+          <t>3/4,</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>11:57,</t>
+        </is>
+      </c>
+      <c r="F452" t="n">
+        <v>6</v>
+      </c>
+      <c r="J452" t="n">
+        <v>1.240195039219843</v>
+      </c>
+      <c r="K452" s="23" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="L452" s="18">
+        <f>J452-K452</f>
+        <v/>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -10585,13 +11067,45 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>T0</t>
+          <t>11_Walking_WIN_20210421_10_58_59_Pro.mp4</t>
         </is>
       </c>
       <c r="C453" t="b">
         <v>1</v>
       </c>
-      <c r="K453" s="17" t="n"/>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>3/4,</t>
+        </is>
+      </c>
+      <c r="E453" s="19" t="inlineStr">
+        <is>
+          <t>32:02,</t>
+        </is>
+      </c>
+      <c r="F453" t="n">
+        <v>6</v>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>703, 521, 970, 521</t>
+        </is>
+      </c>
+      <c r="I453" t="inlineStr">
+        <is>
+          <t>740, 928, 1073, 928</t>
+        </is>
+      </c>
+      <c r="J453" t="n">
+        <v>1.212121212121212</v>
+      </c>
+      <c r="K453" s="23" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="L453" s="18">
+        <f>J453-K453</f>
+        <v/>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -10603,9 +11117,15 @@
         </is>
       </c>
       <c r="C454" t="b">
-        <v>1</v>
-      </c>
-      <c r="K454" s="17" t="n"/>
+        <v>0</v>
+      </c>
+      <c r="K454" s="23" t="n">
+        <v>1.081081081081081</v>
+      </c>
+      <c r="L454" s="18">
+        <f>J454-K454</f>
+        <v/>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -10613,7 +11133,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>T0</t>
+          <t>13_Walking_WIN_20210421_10_34_54_Pro.mp4</t>
         </is>
       </c>
       <c r="C455" t="b">
@@ -10632,7 +11152,21 @@
       <c r="F455" t="n">
         <v>5</v>
       </c>
-      <c r="K455" s="17" t="n"/>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>438, 275, 705, 275</t>
+        </is>
+      </c>
+      <c r="J455" t="n">
+        <v>0.8770806658130601</v>
+      </c>
+      <c r="K455" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L455" s="18">
+        <f>J455-K455</f>
+        <v/>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -10640,13 +11174,45 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>T0</t>
+          <t>14_Side+Walking_WIN_20210421_11_53_19_Pro.mp4</t>
         </is>
       </c>
       <c r="C456" t="b">
         <v>1</v>
       </c>
-      <c r="K456" s="17" t="n"/>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>3/4,</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>26:00,</t>
+        </is>
+      </c>
+      <c r="F456" t="n">
+        <v>6</v>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>740, 520, 1006, 520</t>
+        </is>
+      </c>
+      <c r="I456" t="inlineStr">
+        <is>
+          <t>773, 923, 1106, 923</t>
+        </is>
+      </c>
+      <c r="J456" t="n">
+        <v>1.218211648892535</v>
+      </c>
+      <c r="K456" s="23" t="n">
+        <v>1.129943502824859</v>
+      </c>
+      <c r="L456" s="18">
+        <f>J456-K456</f>
+        <v/>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -10654,7 +11220,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>T0</t>
+          <t>15_Walking_WIN_20210421_11_33_16_Pro.mp4</t>
         </is>
       </c>
       <c r="C457" t="b">
@@ -10673,7 +11239,26 @@
       <c r="F457" t="n">
         <v>5</v>
       </c>
-      <c r="K457" s="17" t="n"/>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>438, 273, 705, 273</t>
+        </is>
+      </c>
+      <c r="I457" t="inlineStr">
+        <is>
+          <t>353, 470, 686, 470</t>
+        </is>
+      </c>
+      <c r="J457" t="n">
+        <v>0.7920878354827466</v>
+      </c>
+      <c r="K457" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L457" s="18">
+        <f>J457-K457</f>
+        <v/>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -10681,7 +11266,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>T0</t>
+          <t>16_Walking_WIN_20210421_12_28_14_Pro.mp4</t>
         </is>
       </c>
       <c r="C458" t="b">
@@ -10700,7 +11285,26 @@
       <c r="F458" t="n">
         <v>5</v>
       </c>
-      <c r="K458" s="17" t="n"/>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>450, 243, 716, 243</t>
+        </is>
+      </c>
+      <c r="I458" t="inlineStr">
+        <is>
+          <t>361, 441, 695, 441</t>
+        </is>
+      </c>
+      <c r="J458" t="n">
+        <v>1.162552398695855</v>
+      </c>
+      <c r="K458" s="23" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="L458" s="18">
+        <f>J458-K458</f>
+        <v/>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -10708,13 +11312,45 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>T0</t>
+          <t>17_Side+Walking_WIN_20210421_12_41_21_Pro.mp4</t>
         </is>
       </c>
       <c r="C459" t="b">
         <v>1</v>
       </c>
-      <c r="K459" s="17" t="n"/>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>3/4,</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>24:19,</t>
+        </is>
+      </c>
+      <c r="F459" t="n">
+        <v>6</v>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>740, 521, 1006, 521</t>
+        </is>
+      </c>
+      <c r="I459" t="inlineStr">
+        <is>
+          <t>770, 923, 1103, 923</t>
+        </is>
+      </c>
+      <c r="J459" t="n">
+        <v>1.246233318984072</v>
+      </c>
+      <c r="K459" s="23" t="n">
+        <v>1.066666666666667</v>
+      </c>
+      <c r="L459" s="18">
+        <f>J459-K459</f>
+        <v/>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -10722,13 +11358,35 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>T0</t>
+          <t>18_Side+Walking_WIN_20210421_13_22_30_Pro.mp4</t>
         </is>
       </c>
       <c r="C460" t="b">
         <v>1</v>
       </c>
-      <c r="K460" s="17" t="n"/>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>3/4,</t>
+        </is>
+      </c>
+      <c r="E460" s="19" t="inlineStr">
+        <is>
+          <t>26:52,</t>
+        </is>
+      </c>
+      <c r="F460" t="n">
+        <v>6</v>
+      </c>
+      <c r="J460" t="n">
+        <v>1.03725782414307</v>
+      </c>
+      <c r="K460" s="23" t="n">
+        <v>1.081081081081081</v>
+      </c>
+      <c r="L460" s="18">
+        <f>J460-K460</f>
+        <v/>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -10736,7 +11394,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>T0</t>
+          <t>19_Walking_WIN_20210421_13_29_03_Pro.mp4</t>
         </is>
       </c>
       <c r="C461" t="b">
@@ -10755,7 +11413,26 @@
       <c r="F461" t="n">
         <v>5</v>
       </c>
-      <c r="K461" s="17" t="n"/>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>333, 303, 600, 303</t>
+        </is>
+      </c>
+      <c r="I461" t="inlineStr">
+        <is>
+          <t>251, 508, 585, 508</t>
+        </is>
+      </c>
+      <c r="J461" t="n">
+        <v>0.8909589041095891</v>
+      </c>
+      <c r="K461" s="23" t="n">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="L461" s="18">
+        <f>J461-K461</f>
+        <v/>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -10763,13 +11440,42 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>T0</t>
+          <t>20_Walking+Side_WIN_20210428_09_49_44_Pro.mp4</t>
         </is>
       </c>
       <c r="C462" t="b">
         <v>1</v>
       </c>
-      <c r="K462" s="17" t="n"/>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>3/4,</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>9:15,</t>
+        </is>
+      </c>
+      <c r="F462" t="n">
+        <v>6</v>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>723, 583, 990, 583</t>
+        </is>
+      </c>
+      <c r="I462" t="inlineStr">
+        <is>
+          <t>658, 901, 991, 901</t>
+        </is>
+      </c>
+      <c r="K462" s="23" t="n">
+        <v>1.509433962264151</v>
+      </c>
+      <c r="L462" s="18">
+        <f>J462-K462</f>
+        <v/>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -10777,13 +11483,35 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>T0</t>
+          <t>21_Walking_WIN_20210428_09_24_12_Pro.mp4</t>
         </is>
       </c>
       <c r="C463" t="b">
         <v>1</v>
       </c>
-      <c r="K463" s="17" t="n"/>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>4/4,</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>6:58,</t>
+        </is>
+      </c>
+      <c r="F463" t="n">
+        <v>5</v>
+      </c>
+      <c r="J463" t="n">
+        <v>1.579220779220779</v>
+      </c>
+      <c r="K463" s="23" t="n">
+        <v>2.105263157894737</v>
+      </c>
+      <c r="L463" s="18">
+        <f>J463-K463</f>
+        <v/>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
@@ -10791,13 +11519,35 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>T0</t>
+          <t>22_Walking_WIN_20210428_09_58_43_Pro.mp4</t>
         </is>
       </c>
       <c r="C464" t="b">
         <v>1</v>
       </c>
-      <c r="K464" s="17" t="n"/>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>4/4,</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>6:48,</t>
+        </is>
+      </c>
+      <c r="F464" t="n">
+        <v>5</v>
+      </c>
+      <c r="J464" t="n">
+        <v>1.420168067226891</v>
+      </c>
+      <c r="K464" s="23" t="n">
+        <v>1.616161616161616</v>
+      </c>
+      <c r="L464" s="18">
+        <f>J464-K464</f>
+        <v/>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
@@ -10805,13 +11555,50 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>T0</t>
+          <t>23_Walking_WIN_20210428_11_12_49_Pro.mp4</t>
         </is>
       </c>
       <c r="C465" t="b">
         <v>1</v>
       </c>
-      <c r="K465" s="17" t="n"/>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>3/4,</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>7:40,</t>
+        </is>
+      </c>
+      <c r="F465" t="n">
+        <v>6</v>
+      </c>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>we need to recompute the speed</t>
+        </is>
+      </c>
+      <c r="H465" t="inlineStr">
+        <is>
+          <t>841, 540, 1108, 540</t>
+        </is>
+      </c>
+      <c r="I465" t="inlineStr">
+        <is>
+          <t>1018, 976, 1351, 976</t>
+        </is>
+      </c>
+      <c r="J465" t="n">
+        <v>1.191037735849056</v>
+      </c>
+      <c r="K465" s="23" t="n">
+        <v>1.095890410958904</v>
+      </c>
+      <c r="L465" s="18">
+        <f>J465-K465</f>
+        <v/>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
@@ -10819,13 +11606,35 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>T0</t>
+          <t>24_Walking_WIN_20210428_10_35_46_Pro.mp4</t>
         </is>
       </c>
       <c r="C466" t="b">
         <v>1</v>
       </c>
-      <c r="K466" s="17" t="n"/>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>4/4,</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>5:25,</t>
+        </is>
+      </c>
+      <c r="F466" t="n">
+        <v>5</v>
+      </c>
+      <c r="J466" t="n">
+        <v>1.512365250475586</v>
+      </c>
+      <c r="K466" s="23" t="n">
+        <v>1.904761904761905</v>
+      </c>
+      <c r="L466" s="18">
+        <f>J466-K466</f>
+        <v/>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -10833,13 +11642,35 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>T0</t>
+          <t>25_Walking_WIN_20210428_11_13_34_Pro.mp4</t>
         </is>
       </c>
       <c r="C467" t="b">
         <v>1</v>
       </c>
-      <c r="K467" s="17" t="n"/>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>4/4,</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>7:34,</t>
+        </is>
+      </c>
+      <c r="F467" t="n">
+        <v>5</v>
+      </c>
+      <c r="J467" t="n">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="K467" s="23" t="n">
+        <v>1.379310344827586</v>
+      </c>
+      <c r="L467" s="18">
+        <f>J467-K467</f>
+        <v/>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -10851,9 +11682,15 @@
         </is>
       </c>
       <c r="C468" t="b">
-        <v>1</v>
-      </c>
-      <c r="K468" s="17" t="n"/>
+        <v>0</v>
+      </c>
+      <c r="K468" s="23" t="n">
+        <v>0.3478260869565217</v>
+      </c>
+      <c r="L468" s="18">
+        <f>J468-K468</f>
+        <v/>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
@@ -10861,13 +11698,45 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>T0</t>
+          <t>27_Walking_WIN_20210428_13_09_37_Pro.mp4</t>
         </is>
       </c>
       <c r="C469" t="b">
         <v>1</v>
       </c>
-      <c r="K469" s="17" t="n"/>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>3/4,</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>7:49,</t>
+        </is>
+      </c>
+      <c r="F469" t="n">
+        <v>6</v>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>841, 551, 1108, 551</t>
+        </is>
+      </c>
+      <c r="I469" t="inlineStr">
+        <is>
+          <t>1036, 976, 1370, 976</t>
+        </is>
+      </c>
+      <c r="J469" t="n">
+        <v>1.29091960670908</v>
+      </c>
+      <c r="K469" s="23" t="n">
+        <v>1.176470588235294</v>
+      </c>
+      <c r="L469" s="18">
+        <f>J469-K469</f>
+        <v/>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
@@ -10875,13 +11744,35 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>T0</t>
+          <t>28_Walking_WIN_20210428_12_22_36_Pro.mp4</t>
         </is>
       </c>
       <c r="C470" t="b">
         <v>1</v>
       </c>
-      <c r="K470" s="17" t="n"/>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>3/4,</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>7:05,</t>
+        </is>
+      </c>
+      <c r="F470" t="n">
+        <v>5</v>
+      </c>
+      <c r="J470" t="n">
+        <v>1.204335608189482</v>
+      </c>
+      <c r="K470" s="23" t="n">
+        <v>1.151079136690647</v>
+      </c>
+      <c r="L470" s="18">
+        <f>J470-K470</f>
+        <v/>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
@@ -10889,13 +11780,35 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>T0</t>
+          <t>29_Walking_WIN_20210428_13_39_20_Pro.mp4</t>
         </is>
       </c>
       <c r="C471" t="b">
         <v>1</v>
       </c>
-      <c r="K471" s="17" t="n"/>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>3/4,</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>6:15,</t>
+        </is>
+      </c>
+      <c r="F471" t="n">
+        <v>5</v>
+      </c>
+      <c r="J471" t="n">
+        <v>1.106578276389597</v>
+      </c>
+      <c r="K471" s="23" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="L471" s="18">
+        <f>J471-K471</f>
+        <v/>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
@@ -10903,13 +11816,35 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>T0</t>
+          <t>30_Walking_WIN_20210428_13_54_22_Pro.mp4</t>
         </is>
       </c>
       <c r="C472" t="b">
         <v>1</v>
       </c>
-      <c r="K472" s="17" t="n"/>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>3/4,</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>6:36,</t>
+        </is>
+      </c>
+      <c r="F472" t="n">
+        <v>6</v>
+      </c>
+      <c r="J472" t="n">
+        <v>1.289655172413793</v>
+      </c>
+      <c r="K472" s="23" t="n">
+        <v>1.081081081081081</v>
+      </c>
+      <c r="L472" s="18">
+        <f>J472-K472</f>
+        <v/>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
@@ -10917,13 +11852,42 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>T0</t>
+          <t>31_Walking_WIN_20210428_14_42_02_Pro.mp4</t>
         </is>
       </c>
       <c r="C473" t="b">
         <v>1</v>
       </c>
-      <c r="K473" s="17" t="n"/>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>3/4,</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>7:32,</t>
+        </is>
+      </c>
+      <c r="F473" t="n">
+        <v>5</v>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>791, 481, 1058, 481</t>
+        </is>
+      </c>
+      <c r="I473" t="inlineStr">
+        <is>
+          <t>760, 683, 1093, 683</t>
+        </is>
+      </c>
+      <c r="K473" s="23" t="n">
+        <v>1.038961038961039</v>
+      </c>
+      <c r="L473" s="18">
+        <f>J473-K473</f>
+        <v/>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
@@ -10931,13 +11895,35 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>T0</t>
+          <t>32_Side+Walking_WIN_20210428_14_18_22_Pro.mp4</t>
         </is>
       </c>
       <c r="C474" t="b">
         <v>1</v>
       </c>
-      <c r="K474" s="17" t="n"/>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>3/4,</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>26:00,</t>
+        </is>
+      </c>
+      <c r="F474" t="n">
+        <v>6</v>
+      </c>
+      <c r="J474" t="n">
+        <v>1.184594436879984</v>
+      </c>
+      <c r="K474" s="23" t="n">
+        <v>1.038961038961039</v>
+      </c>
+      <c r="L474" s="18">
+        <f>J474-K474</f>
+        <v/>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
@@ -10945,13 +11931,35 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>T0</t>
+          <t>33_Walking_WIN_20210428_15_27_48_Pro.mp4</t>
         </is>
       </c>
       <c r="C475" t="b">
         <v>1</v>
       </c>
-      <c r="K475" s="17" t="n"/>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>3/4,</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>9:11,</t>
+        </is>
+      </c>
+      <c r="F475" t="n">
+        <v>6</v>
+      </c>
+      <c r="J475" t="n">
+        <v>1.404709748083242</v>
+      </c>
+      <c r="K475" s="23" t="n">
+        <v>1.13960113960114</v>
+      </c>
+      <c r="L475" s="18">
+        <f>J475-K475</f>
+        <v/>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
@@ -10959,13 +11967,35 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>T0</t>
+          <t>34_WIN_20210428_15_29_41_Pro.mp4</t>
         </is>
       </c>
       <c r="C476" t="b">
         <v>1</v>
       </c>
-      <c r="K476" s="17" t="n"/>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>3/4,</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>8:44,</t>
+        </is>
+      </c>
+      <c r="F476" t="n">
+        <v>5</v>
+      </c>
+      <c r="J476" t="n">
+        <v>1.04735883424408</v>
+      </c>
+      <c r="K476" s="23" t="n">
+        <v>1.012658227848101</v>
+      </c>
+      <c r="L476" s="18">
+        <f>J476-K476</f>
+        <v/>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
@@ -10977,9 +12007,15 @@
         </is>
       </c>
       <c r="C477" t="b">
-        <v>1</v>
-      </c>
-      <c r="K477" s="17" t="n"/>
+        <v>0</v>
+      </c>
+      <c r="K477" s="23" t="n">
+        <v>1.230769230769231</v>
+      </c>
+      <c r="L477" s="18">
+        <f>J477-K477</f>
+        <v/>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -10987,13 +12023,35 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>T0</t>
+          <t>36_Walking_WIN_20210513_09_27_32_Pro.mp4</t>
         </is>
       </c>
       <c r="C478" t="b">
         <v>1</v>
       </c>
-      <c r="K478" s="17" t="n"/>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>3/4,</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>6:02,</t>
+        </is>
+      </c>
+      <c r="F478" t="n">
+        <v>5</v>
+      </c>
+      <c r="J478" t="n">
+        <v>1.194769169803844</v>
+      </c>
+      <c r="K478" s="23" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="L478" s="18">
+        <f>J478-K478</f>
+        <v/>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
@@ -11001,13 +12059,35 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>T0</t>
+          <t>37_Side+Walking_WIN_20210513_08_56_23_Pro.mp4</t>
         </is>
       </c>
       <c r="C479" t="b">
         <v>1</v>
       </c>
-      <c r="K479" s="17" t="n"/>
+      <c r="D479" s="4" t="inlineStr">
+        <is>
+          <t>3/4,</t>
+        </is>
+      </c>
+      <c r="E479" s="3" t="inlineStr">
+        <is>
+          <t>12:18,</t>
+        </is>
+      </c>
+      <c r="F479" t="n">
+        <v>6</v>
+      </c>
+      <c r="J479" t="n">
+        <v>1.144518121536924</v>
+      </c>
+      <c r="K479" s="23" t="n">
+        <v>1.538461538461538</v>
+      </c>
+      <c r="L479" s="18">
+        <f>J479-K479</f>
+        <v/>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
@@ -11015,13 +12095,35 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>T0</t>
+          <t>38_Walking_WIN_20210513_09_44_21_Pro.mp4</t>
         </is>
       </c>
       <c r="C480" t="b">
         <v>1</v>
       </c>
-      <c r="K480" s="17" t="n"/>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>3/4,</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>8:54,</t>
+        </is>
+      </c>
+      <c r="F480" t="n">
+        <v>6</v>
+      </c>
+      <c r="J480" t="n">
+        <v>0.952921157118548</v>
+      </c>
+      <c r="K480" s="23" t="n">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="L480" s="18">
+        <f>J480-K480</f>
+        <v/>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
@@ -11029,13 +12131,35 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>T0</t>
+          <t>39_Walking_WIN_20210513_10_07_29_Pro.mp4</t>
         </is>
       </c>
       <c r="C481" t="b">
         <v>1</v>
       </c>
-      <c r="K481" s="17" t="n"/>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>3/4,</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>5:39,</t>
+        </is>
+      </c>
+      <c r="F481" t="n">
+        <v>5</v>
+      </c>
+      <c r="J481" t="n">
+        <v>0.9639953542392568</v>
+      </c>
+      <c r="K481" s="23" t="n">
+        <v>1.111111111111111</v>
+      </c>
+      <c r="L481" s="18">
+        <f>J481-K481</f>
+        <v/>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
@@ -11043,13 +12167,35 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>T0</t>
+          <t>40_Walking_WIN_20210513_10_43_57_Pro.mp4</t>
         </is>
       </c>
       <c r="C482" t="b">
         <v>1</v>
       </c>
-      <c r="K482" s="17" t="n"/>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>3/4,</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>7:53,</t>
+        </is>
+      </c>
+      <c r="F482" t="n">
+        <v>6</v>
+      </c>
+      <c r="J482" t="n">
+        <v>1.188235294117647</v>
+      </c>
+      <c r="K482" s="23" t="n">
+        <v>1.24031007751938</v>
+      </c>
+      <c r="L482" s="18">
+        <f>J482-K482</f>
+        <v/>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
@@ -11057,13 +12203,35 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>T0</t>
+          <t>41_Side+Walking_WIN_20210513_11_31_19_Pro.mp4</t>
         </is>
       </c>
       <c r="C483" t="b">
         <v>1</v>
       </c>
-      <c r="K483" s="17" t="n"/>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>3/4,</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>14:26,</t>
+        </is>
+      </c>
+      <c r="F483" t="n">
+        <v>6</v>
+      </c>
+      <c r="J483" t="n">
+        <v>1.245161290322581</v>
+      </c>
+      <c r="K483" s="23" t="n">
+        <v>1.290322580645161</v>
+      </c>
+      <c r="L483" s="18">
+        <f>J483-K483</f>
+        <v/>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
@@ -11071,13 +12239,35 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>T0</t>
+          <t>42_Walking_WIN_20210513_10_46_07_Pro.mp4</t>
         </is>
       </c>
       <c r="C484" t="b">
         <v>1</v>
       </c>
-      <c r="K484" s="17" t="n"/>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>3/4,</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>5:34,</t>
+        </is>
+      </c>
+      <c r="F484" t="n">
+        <v>5</v>
+      </c>
+      <c r="J484" t="n">
+        <v>1.225638353309015</v>
+      </c>
+      <c r="K484" s="23" t="n">
+        <v>1.428571428571429</v>
+      </c>
+      <c r="L484" s="18">
+        <f>J484-K484</f>
+        <v/>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
@@ -11085,13 +12275,35 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>T0</t>
+          <t>43_Walking_WIN_20210513_11_37_12_Pro.mp4</t>
         </is>
       </c>
       <c r="C485" t="b">
         <v>1</v>
       </c>
-      <c r="K485" s="17" t="n"/>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>3/4,</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>7:46,</t>
+        </is>
+      </c>
+      <c r="F485" t="n">
+        <v>6</v>
+      </c>
+      <c r="J485" t="n">
+        <v>0.9762845849802371</v>
+      </c>
+      <c r="K485" s="23" t="n">
+        <v>1.025641025641026</v>
+      </c>
+      <c r="L485" s="18">
+        <f>J485-K485</f>
+        <v/>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
@@ -11099,13 +12311,45 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>T0</t>
+          <t>44_Walking_WIN_20210513_13_34_57_Pro.mp4</t>
         </is>
       </c>
       <c r="C486" t="b">
         <v>1</v>
       </c>
-      <c r="K486" s="17" t="n"/>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>3/4,</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>7:12,</t>
+        </is>
+      </c>
+      <c r="F486" t="n">
+        <v>6</v>
+      </c>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>758, 495, 1025, 495</t>
+        </is>
+      </c>
+      <c r="I486" t="inlineStr">
+        <is>
+          <t>538, 763, 871, 763</t>
+        </is>
+      </c>
+      <c r="J486" t="n">
+        <v>1.079903147699758</v>
+      </c>
+      <c r="K486" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L486" s="18">
+        <f>J486-K486</f>
+        <v/>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
@@ -11113,13 +12357,35 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>T0</t>
+          <t>45_Walking_WIN_20210513_13_33_16_Pro.mp4</t>
         </is>
       </c>
       <c r="C487" t="b">
         <v>1</v>
       </c>
-      <c r="K487" s="17" t="n"/>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>3/4,</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>8:57,</t>
+        </is>
+      </c>
+      <c r="F487" t="n">
+        <v>5</v>
+      </c>
+      <c r="J487" t="n">
+        <v>0.8901098901098901</v>
+      </c>
+      <c r="K487" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L487" s="18">
+        <f>J487-K487</f>
+        <v/>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
@@ -11127,13 +12393,35 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>T0</t>
+          <t>46_Walking_WIN_20210513_14_24_58_Pro.mp4</t>
         </is>
       </c>
       <c r="C488" t="b">
         <v>1</v>
       </c>
-      <c r="K488" s="17" t="n"/>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>3/4,</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>6:20,</t>
+        </is>
+      </c>
+      <c r="F488" t="n">
+        <v>5</v>
+      </c>
+      <c r="J488" t="n">
+        <v>1.263297872340426</v>
+      </c>
+      <c r="K488" s="23" t="n">
+        <v>1.403508771929824</v>
+      </c>
+      <c r="L488" s="18">
+        <f>J488-K488</f>
+        <v/>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
@@ -11141,13 +12429,35 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>T0</t>
+          <t>47_Walking_WIN_20210513_14_32_38_Pro.mp4</t>
         </is>
       </c>
       <c r="C489" t="b">
         <v>1</v>
       </c>
-      <c r="K489" s="17" t="n"/>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>3/4,</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>4:38,</t>
+        </is>
+      </c>
+      <c r="F489" t="n">
+        <v>6</v>
+      </c>
+      <c r="J489" t="n">
+        <v>1.153952843273232</v>
+      </c>
+      <c r="K489" s="23" t="n">
+        <v>1.324503311258278</v>
+      </c>
+      <c r="L489" s="18">
+        <f>J489-K489</f>
+        <v/>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
@@ -11155,663 +12465,4819 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>T0</t>
+          <t>48_Walking_WIN_20210513_15_20_12_Pro.mp4</t>
         </is>
       </c>
       <c r="C490" t="b">
         <v>1</v>
       </c>
-      <c r="K490" s="17" t="n"/>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>3/4,</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>4:43,</t>
+        </is>
+      </c>
+      <c r="F490" t="n">
+        <v>6</v>
+      </c>
+      <c r="J490" t="n">
+        <v>1.247575953458306</v>
+      </c>
+      <c r="K490" s="23" t="n">
+        <v>1.111111111111111</v>
+      </c>
+      <c r="L490" s="18">
+        <f>J490-K490</f>
+        <v/>
+      </c>
     </row>
     <row r="491">
-      <c r="K491" s="17" t="n"/>
+      <c r="A491" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>17_WIN_20211219_10_08_29_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C491" t="b">
+        <v>1</v>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>3:59,</t>
+        </is>
+      </c>
+      <c r="F491" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="492">
-      <c r="K492" s="17" t="n"/>
+      <c r="A492" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>18_WIN_20211219_10_37_14_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C492" t="b">
+        <v>1</v>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>4:55,</t>
+        </is>
+      </c>
+      <c r="F492" t="n">
+        <v>2</v>
+      </c>
+      <c r="K492" s="22" t="n"/>
     </row>
     <row r="493">
-      <c r="K493" s="17" t="n"/>
+      <c r="A493" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>19_WIN_20211219_11_10_24_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C493" t="b">
+        <v>1</v>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>7:25,</t>
+        </is>
+      </c>
+      <c r="F493" t="n">
+        <v>2</v>
+      </c>
+      <c r="K493" s="22" t="n"/>
     </row>
     <row r="494">
-      <c r="K494" s="17" t="n"/>
+      <c r="A494" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>24_WIN_20211219_14_25_15_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C494" t="b">
+        <v>1</v>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>5:20,</t>
+        </is>
+      </c>
+      <c r="F494" t="n">
+        <v>2</v>
+      </c>
+      <c r="K494" s="22" t="n"/>
     </row>
     <row r="495">
-      <c r="K495" s="17" t="n"/>
+      <c r="A495" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>25_WIN_20211219_14_54_12_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C495" t="b">
+        <v>1</v>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>4:10,</t>
+        </is>
+      </c>
+      <c r="F495" t="n">
+        <v>2</v>
+      </c>
+      <c r="K495" s="22" t="n"/>
     </row>
     <row r="496">
-      <c r="K496" s="17" t="n"/>
+      <c r="A496" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>26_WIN_20211219_15_21_44_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C496" t="b">
+        <v>1</v>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>3:50,</t>
+        </is>
+      </c>
+      <c r="F496" t="n">
+        <v>2</v>
+      </c>
+      <c r="K496" s="22" t="n"/>
     </row>
     <row r="497">
-      <c r="K497" s="17" t="n"/>
+      <c r="A497" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>27_WIN_20211219_16_02_58_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C497" t="b">
+        <v>1</v>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>5:35,</t>
+        </is>
+      </c>
+      <c r="F497" t="n">
+        <v>2</v>
+      </c>
+      <c r="K497" s="22" t="n"/>
     </row>
     <row r="498">
-      <c r="K498" s="17" t="n"/>
+      <c r="A498" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>WIN_20211219_12_15_34_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C498" t="b">
+        <v>0</v>
+      </c>
+      <c r="K498" s="22" t="n"/>
     </row>
     <row r="499">
-      <c r="K499" s="17" t="n"/>
+      <c r="A499" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>WIN_20211219_12_48_23_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C499" t="b">
+        <v>0</v>
+      </c>
+      <c r="K499" s="22" t="n"/>
     </row>
     <row r="500">
-      <c r="K500" s="17" t="n"/>
+      <c r="A500" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>WIN_20211219_13_19_22_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C500" t="b">
+        <v>0</v>
+      </c>
+      <c r="K500" s="22" t="n"/>
     </row>
     <row r="501">
-      <c r="K501" s="17" t="n"/>
+      <c r="A501" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>WIN_20211219_13_19_22_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C501" t="b">
+        <v>0</v>
+      </c>
+      <c r="K501" s="22" t="n"/>
     </row>
     <row r="502">
-      <c r="K502" s="17" t="n"/>
+      <c r="A502" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>16_00017.MTS</t>
+        </is>
+      </c>
+      <c r="C502" t="b">
+        <v>1</v>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>5:15,</t>
+        </is>
+      </c>
+      <c r="F502" t="n">
+        <v>2</v>
+      </c>
+      <c r="K502" s="22" t="n"/>
     </row>
     <row r="503">
-      <c r="K503" s="17" t="n"/>
+      <c r="A503" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>NotRecruited__00016.MTS</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>7:45,</t>
+        </is>
+      </c>
+      <c r="F503" t="n">
+        <v>2</v>
+      </c>
+      <c r="K503" s="22" t="n"/>
     </row>
     <row r="504">
-      <c r="K504" s="17" t="n"/>
+      <c r="A504" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>13_WIN_20211226_09_49_26_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C504" t="b">
+        <v>0</v>
+      </c>
+      <c r="F504" t="n">
+        <v>2</v>
+      </c>
+      <c r="K504" s="22" t="n"/>
     </row>
     <row r="505">
-      <c r="K505" s="17" t="n"/>
+      <c r="A505" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>28_WIN_20211226_09_07_08_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C505" t="b">
+        <v>1</v>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>8:30,</t>
+        </is>
+      </c>
+      <c r="F505" t="n">
+        <v>2</v>
+      </c>
+      <c r="K505" s="22" t="n"/>
     </row>
     <row r="506">
-      <c r="K506" s="17" t="n"/>
+      <c r="A506" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>30_DroppedOut_WIN_20211226_11_05_17_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C506" t="b">
+        <v>1</v>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>4:07,</t>
+        </is>
+      </c>
+      <c r="F506" t="n">
+        <v>2</v>
+      </c>
+      <c r="K506" s="22" t="n"/>
     </row>
     <row r="507">
+      <c r="A507" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>31_WIN_20211226_11_35_26_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C507" t="b">
+        <v>1</v>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>3:43,</t>
+        </is>
+      </c>
+      <c r="F507" t="n">
+        <v>2</v>
+      </c>
       <c r="K507" s="17" t="n"/>
     </row>
     <row r="508">
+      <c r="A508" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>NotRecruited_WIN_20211226_10_31_49_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C508" t="b">
+        <v>1</v>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>5:50,</t>
+        </is>
+      </c>
+      <c r="F508" t="n">
+        <v>2</v>
+      </c>
       <c r="K508" s="17" t="n"/>
     </row>
     <row r="509">
+      <c r="A509" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>78_WIN_20220202_18_23_13_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C509" t="b">
+        <v>0</v>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>it's in the patient number files.</t>
+        </is>
+      </c>
+      <c r="F509" t="n">
+        <v>3</v>
+      </c>
       <c r="K509" s="17" t="n"/>
     </row>
     <row r="510">
+      <c r="A510" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>80_WIN_20220202_17_28_47_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C510" t="b">
+        <v>1</v>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>3:34,</t>
+        </is>
+      </c>
+      <c r="F510" t="n">
+        <v>3</v>
+      </c>
       <c r="K510" s="17" t="n"/>
     </row>
     <row r="511">
+      <c r="A511" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>82_WIN_20220202_16_32_22_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C511" t="b">
+        <v>1</v>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>5:30,</t>
+        </is>
+      </c>
+      <c r="F511" t="n">
+        <v>3</v>
+      </c>
       <c r="K511" s="17" t="n"/>
     </row>
     <row r="512">
+      <c r="A512" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>123_WIN_20220202_14_52_12_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>5:00,</t>
+        </is>
+      </c>
+      <c r="F512" t="n">
+        <v>3</v>
+      </c>
       <c r="K512" s="17" t="n"/>
     </row>
     <row r="513">
+      <c r="A513" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>NotRecruited_WIN_20220202_17_55_52_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C513" t="b">
+        <v>1</v>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>3:40,</t>
+        </is>
+      </c>
+      <c r="F513" t="n">
+        <v>3</v>
+      </c>
       <c r="K513" s="17" t="n"/>
     </row>
     <row r="514">
+      <c r="A514" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>59_WIN_20220202_18_48_21_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C514" t="b">
+        <v>1</v>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>4:20,</t>
+        </is>
+      </c>
+      <c r="F514" t="n">
+        <v>3</v>
+      </c>
       <c r="K514" s="17" t="n"/>
     </row>
     <row r="515">
+      <c r="A515" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>60_WIN_20220202_17_02_07_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C515" t="b">
+        <v>1</v>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>3:44,</t>
+        </is>
+      </c>
+      <c r="F515" t="n">
+        <v>3</v>
+      </c>
       <c r="K515" s="17" t="n"/>
     </row>
     <row r="516">
+      <c r="A516" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>63_WIN_20220202_13_56_30_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C516" t="b">
+        <v>1</v>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>4:33,</t>
+        </is>
+      </c>
+      <c r="F516" t="n">
+        <v>3</v>
+      </c>
       <c r="K516" s="17" t="n"/>
     </row>
     <row r="517">
+      <c r="A517" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>72_WIN_20220202_15_24_34_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C517" t="b">
+        <v>1</v>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>4:40,</t>
+        </is>
+      </c>
+      <c r="F517" t="n">
+        <v>3</v>
+      </c>
       <c r="K517" s="17" t="n"/>
     </row>
     <row r="518">
+      <c r="A518" t="n">
+        <v>2027</v>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>73_WIN_20220202_14_24_13_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C518" t="b">
+        <v>1</v>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>4:12,</t>
+        </is>
+      </c>
+      <c r="F518" t="n">
+        <v>3</v>
+      </c>
       <c r="K518" s="17" t="n"/>
     </row>
     <row r="519">
+      <c r="A519" t="n">
+        <v>2028</v>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>76_WIN_20220202_15_53_55_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C519" t="b">
+        <v>1</v>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>6:05,</t>
+        </is>
+      </c>
+      <c r="F519" t="n">
+        <v>3</v>
+      </c>
       <c r="K519" s="17" t="n"/>
     </row>
     <row r="520">
+      <c r="A520" t="n">
+        <v>2029</v>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>67_VID_20220207_171133.mp4</t>
+        </is>
+      </c>
+      <c r="C520" t="b">
+        <v>1</v>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>5:40,</t>
+        </is>
+      </c>
+      <c r="F520" t="n">
+        <v>3</v>
+      </c>
       <c r="K520" s="17" t="n"/>
     </row>
     <row r="521">
+      <c r="A521" t="n">
+        <v>2030</v>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>69_VID_20220207_161933.mp4</t>
+        </is>
+      </c>
+      <c r="C521" t="b">
+        <v>1</v>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>7:30,</t>
+        </is>
+      </c>
+      <c r="F521" t="n">
+        <v>3</v>
+      </c>
       <c r="K521" s="17" t="n"/>
     </row>
     <row r="522">
+      <c r="A522" t="n">
+        <v>2031</v>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>74_VID_20220207_160347.mp4</t>
+        </is>
+      </c>
+      <c r="C522" t="b">
+        <v>1</v>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>5:20,</t>
+        </is>
+      </c>
+      <c r="F522" t="n">
+        <v>3</v>
+      </c>
       <c r="K522" s="17" t="n"/>
     </row>
     <row r="523">
+      <c r="A523" t="n">
+        <v>2032</v>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>98_VID_20220207_185649.mp4</t>
+        </is>
+      </c>
+      <c r="C523" t="b">
+        <v>1</v>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>4:15,</t>
+        </is>
+      </c>
+      <c r="F523" t="n">
+        <v>3</v>
+      </c>
       <c r="K523" s="17" t="n"/>
     </row>
     <row r="524">
+      <c r="A524" t="n">
+        <v>2033</v>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>115_VID_20220207_164933.mp4</t>
+        </is>
+      </c>
+      <c r="C524" t="b">
+        <v>1</v>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>5:26,</t>
+        </is>
+      </c>
+      <c r="F524" t="n">
+        <v>3</v>
+      </c>
       <c r="K524" s="17" t="n"/>
     </row>
     <row r="525">
+      <c r="A525" t="n">
+        <v>2034</v>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>117_VID_20220207_182326.mp4</t>
+        </is>
+      </c>
+      <c r="C525" t="b">
+        <v>1</v>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>6:20,</t>
+        </is>
+      </c>
+      <c r="F525" t="n">
+        <v>3</v>
+      </c>
       <c r="K525" s="17" t="n"/>
     </row>
     <row r="526">
+      <c r="A526" t="n">
+        <v>2035</v>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>119_T0_DropOut_VID_20220207_154150.mp4</t>
+        </is>
+      </c>
+      <c r="C526" t="b">
+        <v>1</v>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>11:45,</t>
+        </is>
+      </c>
+      <c r="F526" t="n">
+        <v>3</v>
+      </c>
       <c r="K526" s="17" t="n"/>
     </row>
     <row r="527">
+      <c r="A527" t="n">
+        <v>2036</v>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>120_VID_20220207_163641.mp4</t>
+        </is>
+      </c>
+      <c r="C527" t="b">
+        <v>1</v>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>4:05,</t>
+        </is>
+      </c>
+      <c r="F527" t="n">
+        <v>3</v>
+      </c>
       <c r="K527" s="17" t="n"/>
     </row>
     <row r="528">
+      <c r="A528" t="n">
+        <v>2037</v>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>121_VID_20220207_174611.mp4</t>
+        </is>
+      </c>
+      <c r="C528" t="b">
+        <v>1</v>
+      </c>
+      <c r="E528" s="3" t="inlineStr">
+        <is>
+          <t>4:48,</t>
+        </is>
+      </c>
+      <c r="F528" t="n">
+        <v>3</v>
+      </c>
       <c r="K528" s="17" t="n"/>
     </row>
     <row r="529">
+      <c r="A529" t="n">
+        <v>2038</v>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>122_VID_20220207_171847.mp4</t>
+        </is>
+      </c>
+      <c r="C529" t="b">
+        <v>1</v>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>3:45,</t>
+        </is>
+      </c>
+      <c r="F529" t="n">
+        <v>3</v>
+      </c>
       <c r="K529" s="17" t="n"/>
     </row>
     <row r="530">
+      <c r="A530" t="n">
+        <v>2039</v>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>124_IMG_3355.MOV</t>
+        </is>
+      </c>
+      <c r="C530" t="b">
+        <v>1</v>
+      </c>
+      <c r="E530" s="3" t="inlineStr">
+        <is>
+          <t>4:50,</t>
+        </is>
+      </c>
+      <c r="F530" t="n">
+        <v>3</v>
+      </c>
       <c r="K530" s="17" t="n"/>
     </row>
     <row r="531">
+      <c r="A531" t="n">
+        <v>2040</v>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>135_VID_20220207_190448.mp4</t>
+        </is>
+      </c>
+      <c r="C531" t="b">
+        <v>1</v>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>4:58,</t>
+        </is>
+      </c>
+      <c r="F531" t="n">
+        <v>3</v>
+      </c>
       <c r="K531" s="17" t="n"/>
     </row>
     <row r="532">
+      <c r="A532" t="n">
+        <v>2041</v>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>NotRecruited_VID_20220207_183317.mp4</t>
+        </is>
+      </c>
+      <c r="C532" t="b">
+        <v>1</v>
+      </c>
+      <c r="E532" s="3" t="inlineStr">
+        <is>
+          <t>4:59,</t>
+        </is>
+      </c>
+      <c r="F532" t="n">
+        <v>3</v>
+      </c>
       <c r="K532" s="17" t="n"/>
     </row>
     <row r="533">
+      <c r="A533" t="n">
+        <v>2042</v>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>NotRecruited_VID_20220207_192045.mp4</t>
+        </is>
+      </c>
+      <c r="C533" t="b">
+        <v>1</v>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>5:27,</t>
+        </is>
+      </c>
+      <c r="F533" t="n">
+        <v>3</v>
+      </c>
       <c r="K533" s="17" t="n"/>
     </row>
     <row r="534">
+      <c r="A534" t="n">
+        <v>2043</v>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>NotRecruited_VID_20220207_192045.mp4</t>
+        </is>
+      </c>
+      <c r="C534" t="b">
+        <v>1</v>
+      </c>
+      <c r="E534" s="3" t="inlineStr">
+        <is>
+          <t>5:25,</t>
+        </is>
+      </c>
+      <c r="F534" t="n">
+        <v>3</v>
+      </c>
       <c r="K534" s="17" t="n"/>
     </row>
     <row r="535">
+      <c r="A535" t="n">
+        <v>2044</v>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>81_00005.MTS</t>
+        </is>
+      </c>
+      <c r="C535" t="b">
+        <v>1</v>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>3:51,</t>
+        </is>
+      </c>
+      <c r="F535" t="n">
+        <v>3</v>
+      </c>
       <c r="K535" s="17" t="n"/>
     </row>
     <row r="536">
+      <c r="A536" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>91_00004.MTS</t>
+        </is>
+      </c>
+      <c r="C536" t="b">
+        <v>1</v>
+      </c>
+      <c r="E536" s="3" t="inlineStr">
+        <is>
+          <t>6:00,</t>
+        </is>
+      </c>
+      <c r="F536" t="n">
+        <v>3</v>
+      </c>
       <c r="K536" s="17" t="n"/>
     </row>
     <row r="537">
+      <c r="A537" t="n">
+        <v>2046</v>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>145_00001.MTS</t>
+        </is>
+      </c>
+      <c r="C537" t="b">
+        <v>1</v>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>3:38,</t>
+        </is>
+      </c>
+      <c r="F537" t="n">
+        <v>3</v>
+      </c>
       <c r="K537" s="17" t="n"/>
     </row>
     <row r="538">
+      <c r="A538" t="n">
+        <v>2047</v>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>NotRecruited_00002.MTS</t>
+        </is>
+      </c>
+      <c r="C538" t="b">
+        <v>1</v>
+      </c>
+      <c r="E538" s="3" t="inlineStr">
+        <is>
+          <t>6:00,</t>
+        </is>
+      </c>
+      <c r="F538" t="n">
+        <v>3</v>
+      </c>
       <c r="K538" s="17" t="n"/>
     </row>
     <row r="539">
+      <c r="A539" t="n">
+        <v>2048</v>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>NotRecruited_00003.MTS</t>
+        </is>
+      </c>
+      <c r="C539" t="b">
+        <v>1</v>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>3:38,</t>
+        </is>
+      </c>
+      <c r="F539" t="n">
+        <v>3</v>
+      </c>
       <c r="K539" s="17" t="n"/>
     </row>
     <row r="540">
+      <c r="A540" t="n">
+        <v>2049</v>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>102_WIN_20220209_15_21_02_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C540" t="b">
+        <v>1</v>
+      </c>
+      <c r="E540" s="3" t="inlineStr">
+        <is>
+          <t>4:25,</t>
+        </is>
+      </c>
+      <c r="F540" t="n">
+        <v>3</v>
+      </c>
       <c r="K540" s="17" t="n"/>
     </row>
     <row r="541">
+      <c r="A541" t="n">
+        <v>2050</v>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>129_WIN_20220209_13_48_50_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C541" t="b">
+        <v>1</v>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>4:15,</t>
+        </is>
+      </c>
+      <c r="F541" t="n">
+        <v>3</v>
+      </c>
       <c r="K541" s="17" t="n"/>
     </row>
     <row r="542">
+      <c r="A542" t="n">
+        <v>2051</v>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>147_WIN_20220209_14_30_07_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C542" t="b">
+        <v>0</v>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>SAW THE VIDEO BEFORE.</t>
+        </is>
+      </c>
+      <c r="F542" t="n">
+        <v>3</v>
+      </c>
       <c r="K542" s="17" t="n"/>
     </row>
     <row r="543">
+      <c r="A543" t="n">
+        <v>2052</v>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>83_VID_20220209_165402.mp4</t>
+        </is>
+      </c>
+      <c r="C543" t="b">
+        <v>1</v>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>4:40,</t>
+        </is>
+      </c>
+      <c r="F543" t="n">
+        <v>3</v>
+      </c>
       <c r="K543" s="17" t="n"/>
     </row>
     <row r="544">
+      <c r="A544" t="n">
+        <v>2053</v>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>105_VID_20220209_154953.mp4</t>
+        </is>
+      </c>
+      <c r="C544" t="b">
+        <v>1</v>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>4:30,</t>
+        </is>
+      </c>
+      <c r="F544" t="n">
+        <v>3</v>
+      </c>
       <c r="K544" s="17" t="n"/>
     </row>
     <row r="545">
+      <c r="A545" t="n">
+        <v>2054</v>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>131_VID_20220209_173630.mp4</t>
+        </is>
+      </c>
+      <c r="C545" t="b">
+        <v>1</v>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>4:15,</t>
+        </is>
+      </c>
+      <c r="F545" t="n">
+        <v>3</v>
+      </c>
       <c r="K545" s="17" t="n"/>
     </row>
     <row r="546">
+      <c r="A546" t="n">
+        <v>2055</v>
+      </c>
+      <c r="B546" s="20" t="inlineStr">
+        <is>
+          <t>137_VID_20220209_161751.mp4</t>
+        </is>
+      </c>
+      <c r="C546" t="b">
+        <v>1</v>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>4:01,</t>
+        </is>
+      </c>
+      <c r="F546" t="n">
+        <v>3</v>
+      </c>
       <c r="K546" s="17" t="n"/>
     </row>
     <row r="547">
+      <c r="A547" t="n">
+        <v>2056</v>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>8_VID_20220405_150130.mp4</t>
+        </is>
+      </c>
+      <c r="C547" t="b">
+        <v>1</v>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>4:45,</t>
+        </is>
+      </c>
+      <c r="F547" t="n">
+        <v>1</v>
+      </c>
       <c r="K547" s="17" t="n"/>
     </row>
     <row r="548">
+      <c r="A548" t="n">
+        <v>2057</v>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>10_VID_20220405_125141.mp4</t>
+        </is>
+      </c>
+      <c r="C548" t="b">
+        <v>1</v>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>1:59,</t>
+        </is>
+      </c>
+      <c r="F548" t="n">
+        <v>1</v>
+      </c>
       <c r="K548" s="17" t="n"/>
     </row>
     <row r="549">
+      <c r="A549" t="n">
+        <v>2058</v>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>12_VID_20220405_141509.mp4</t>
+        </is>
+      </c>
+      <c r="C549" t="b">
+        <v>1</v>
+      </c>
+      <c r="E549" s="3" t="inlineStr">
+        <is>
+          <t>3:54,</t>
+        </is>
+      </c>
+      <c r="F549" t="n">
+        <v>1</v>
+      </c>
       <c r="K549" s="17" t="n"/>
     </row>
     <row r="550">
+      <c r="A550" t="n">
+        <v>2059</v>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>15_VID_20220405_134218.mp4</t>
+        </is>
+      </c>
+      <c r="C550" t="b">
+        <v>1</v>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>4:23,</t>
+        </is>
+      </c>
+      <c r="F550" t="n">
+        <v>1</v>
+      </c>
       <c r="K550" s="17" t="n"/>
     </row>
     <row r="551">
+      <c r="A551" t="n">
+        <v>2060</v>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>24_VID_20220405_121934.mp4</t>
+        </is>
+      </c>
+      <c r="C551" t="b">
+        <v>1</v>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>4:35,</t>
+        </is>
+      </c>
+      <c r="F551" t="n">
+        <v>1</v>
+      </c>
       <c r="K551" s="17" t="n"/>
     </row>
     <row r="552">
+      <c r="A552" t="n">
+        <v>2061</v>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>25_VID_20220405_152603.mp4</t>
+        </is>
+      </c>
+      <c r="C552" t="b">
+        <v>1</v>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>3:59,</t>
+        </is>
+      </c>
+      <c r="F552" t="n">
+        <v>1</v>
+      </c>
       <c r="K552" s="17" t="n"/>
     </row>
     <row r="553">
+      <c r="A553" t="n">
+        <v>2062</v>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>2_WIN_20220405_13_27_42_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C553" t="b">
+        <v>0</v>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>NOT relevant</t>
+        </is>
+      </c>
+      <c r="F553" t="n">
+        <v>2</v>
+      </c>
       <c r="K553" s="17" t="n"/>
     </row>
     <row r="554">
+      <c r="A554" t="n">
+        <v>2063</v>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>7_WIN_20220405_15_03_40_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C554" t="b">
+        <v>1</v>
+      </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>3:55,</t>
+        </is>
+      </c>
+      <c r="F554" t="n">
+        <v>2</v>
+      </c>
       <c r="K554" s="17" t="n"/>
     </row>
     <row r="555">
+      <c r="A555" t="n">
+        <v>2064</v>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>9_WIN_20220405_12_49_56_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C555" t="b">
+        <v>1</v>
+      </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>6:55,</t>
+        </is>
+      </c>
+      <c r="F555" t="n">
+        <v>2</v>
+      </c>
       <c r="K555" s="17" t="n"/>
     </row>
     <row r="556">
+      <c r="A556" t="n">
+        <v>2065</v>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>16_WIN_20220405_13_51_28_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C556" t="b">
+        <v>1</v>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>5:35,</t>
+        </is>
+      </c>
+      <c r="F556" t="n">
+        <v>2</v>
+      </c>
       <c r="K556" s="17" t="n"/>
     </row>
     <row r="557">
+      <c r="A557" t="n">
+        <v>2066</v>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>17_WIN_20220405_14_20_11_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C557" t="b">
+        <v>1</v>
+      </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>4:13,</t>
+        </is>
+      </c>
+      <c r="F557" t="n">
+        <v>2</v>
+      </c>
       <c r="K557" s="17" t="n"/>
     </row>
     <row r="558">
+      <c r="A558" t="n">
+        <v>2067</v>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>1_WIN_20220407_15_13_16_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C558" t="b">
+        <v>1</v>
+      </c>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>3:40,</t>
+        </is>
+      </c>
+      <c r="F558" t="n">
+        <v>1</v>
+      </c>
       <c r="K558" s="17" t="n"/>
     </row>
     <row r="559">
+      <c r="A559" t="n">
+        <v>2068</v>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>18_WIN_20220407_15_46_45_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C559" t="b">
+        <v>0</v>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>WE SAW BEFORE</t>
+        </is>
+      </c>
+      <c r="F559" t="n">
+        <v>1</v>
+      </c>
       <c r="K559" s="17" t="n"/>
     </row>
     <row r="560">
+      <c r="A560" t="n">
+        <v>2069</v>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>19_WIN_20220407_14_10_06_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C560" t="b">
+        <v>1</v>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>4:28,</t>
+        </is>
+      </c>
+      <c r="F560" t="n">
+        <v>1</v>
+      </c>
       <c r="K560" s="17" t="n"/>
     </row>
     <row r="561">
+      <c r="A561" t="n">
+        <v>2070</v>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>20_WIN_20220407_13_33_29_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C561" t="b">
+        <v>1</v>
+      </c>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>3:53,</t>
+        </is>
+      </c>
+      <c r="F561" t="n">
+        <v>1</v>
+      </c>
       <c r="K561" s="17" t="n"/>
     </row>
     <row r="562">
+      <c r="A562" t="n">
+        <v>2071</v>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>23_WIN_20220407_12_43_40_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C562" t="b">
+        <v>0</v>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>NOT relevant</t>
+        </is>
+      </c>
+      <c r="F562" t="n">
+        <v>1</v>
+      </c>
       <c r="K562" s="17" t="n"/>
     </row>
     <row r="563">
+      <c r="A563" t="n">
+        <v>2072</v>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>23_WIN_20220407_12_46_51_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C563" t="b">
+        <v>1</v>
+      </c>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>0:49,</t>
+        </is>
+      </c>
+      <c r="F563" t="n">
+        <v>1</v>
+      </c>
       <c r="K563" s="17" t="n"/>
     </row>
     <row r="564">
+      <c r="A564" t="n">
+        <v>2073</v>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>27_WIN_20220407_14_41_38_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C564" t="b">
+        <v>1</v>
+      </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>4:55,</t>
+        </is>
+      </c>
+      <c r="F564" t="n">
+        <v>1</v>
+      </c>
       <c r="K564" s="17" t="n"/>
     </row>
     <row r="565">
+      <c r="A565" t="n">
+        <v>2074</v>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>93_WIN_20220530_08_57_51_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C565" t="b">
+        <v>0</v>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>WE SAW BEFORE</t>
+        </is>
+      </c>
+      <c r="F565" t="n">
+        <v>3</v>
+      </c>
       <c r="K565" s="17" t="n"/>
     </row>
     <row r="566">
+      <c r="A566" t="n">
+        <v>2075</v>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>107_WIN_20220530_09_23_08_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C566" t="b">
+        <v>0</v>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>NOT relevant</t>
+        </is>
+      </c>
+      <c r="F566" t="n">
+        <v>3</v>
+      </c>
       <c r="K566" s="17" t="n"/>
     </row>
     <row r="567">
+      <c r="A567" t="n">
+        <v>2076</v>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>129_WIN_20220530_08_32_19_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C567" t="b">
+        <v>1</v>
+      </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>5:20,</t>
+        </is>
+      </c>
+      <c r="F567" t="n">
+        <v>3</v>
+      </c>
       <c r="K567" s="17" t="n"/>
     </row>
     <row r="568">
+      <c r="A568" t="n">
+        <v>2077</v>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>74_VID_20220607_122531.mp4</t>
+        </is>
+      </c>
+      <c r="C568" t="b">
+        <v>1</v>
+      </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>4:33,</t>
+        </is>
+      </c>
+      <c r="F568" t="n">
+        <v>3</v>
+      </c>
       <c r="K568" s="17" t="n"/>
     </row>
     <row r="569">
+      <c r="A569" t="n">
+        <v>2078</v>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>83_VID_20220607_145416.mp4</t>
+        </is>
+      </c>
+      <c r="C569" t="b">
+        <v>1</v>
+      </c>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>4:53,</t>
+        </is>
+      </c>
+      <c r="F569" t="n">
+        <v>3</v>
+      </c>
       <c r="K569" s="17" t="n"/>
     </row>
     <row r="570">
+      <c r="A570" t="n">
+        <v>2079</v>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>113_VID_20220607_120027.mp4</t>
+        </is>
+      </c>
+      <c r="C570" t="b">
+        <v>1</v>
+      </c>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t>3:25,</t>
+        </is>
+      </c>
+      <c r="F570" t="n">
+        <v>3</v>
+      </c>
       <c r="K570" s="17" t="n"/>
     </row>
     <row r="571">
+      <c r="A571" t="n">
+        <v>2080</v>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>120_VID_20220607_131639.mp4</t>
+        </is>
+      </c>
+      <c r="C571" t="b">
+        <v>1</v>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>3:25,</t>
+        </is>
+      </c>
+      <c r="F571" t="n">
+        <v>3</v>
+      </c>
       <c r="K571" s="17" t="n"/>
     </row>
     <row r="572">
+      <c r="A572" t="n">
+        <v>2081</v>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>123_VID_20220607_140402.mp4</t>
+        </is>
+      </c>
+      <c r="C572" t="b">
+        <v>1</v>
+      </c>
+      <c r="E572" s="3" t="inlineStr">
+        <is>
+          <t>5:32,</t>
+        </is>
+      </c>
+      <c r="F572" t="n">
+        <v>3</v>
+      </c>
       <c r="K572" s="17" t="n"/>
     </row>
     <row r="573">
+      <c r="A573" t="n">
+        <v>2082</v>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>135_VID_20220607_152453.mp4</t>
+        </is>
+      </c>
+      <c r="C573" t="b">
+        <v>1</v>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>3:53,</t>
+        </is>
+      </c>
+      <c r="F573" t="n">
+        <v>3</v>
+      </c>
       <c r="K573" s="17" t="n"/>
     </row>
     <row r="574">
+      <c r="A574" t="n">
+        <v>2083</v>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>137_VID_20220607_125123.mp4</t>
+        </is>
+      </c>
+      <c r="C574" t="b">
+        <v>1</v>
+      </c>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>4:21,</t>
+        </is>
+      </c>
+      <c r="F574" t="n">
+        <v>3</v>
+      </c>
       <c r="K574" s="17" t="n"/>
     </row>
     <row r="575">
+      <c r="A575" t="n">
+        <v>2084</v>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>59_WIN_20220607_13_19_03_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C575" t="b">
+        <v>1</v>
+      </c>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>4:33,</t>
+        </is>
+      </c>
+      <c r="F575" t="n">
+        <v>3</v>
+      </c>
       <c r="K575" s="17" t="n"/>
     </row>
     <row r="576">
+      <c r="A576" t="n">
+        <v>2085</v>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>61_WIN_20220607_09_55_46_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C576" t="b">
+        <v>1</v>
+      </c>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t>6:45,</t>
+        </is>
+      </c>
+      <c r="F576" t="n">
+        <v>3</v>
+      </c>
       <c r="K576" s="17" t="n"/>
     </row>
     <row r="577">
+      <c r="A577" t="n">
+        <v>2086</v>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>67_WIN_20220607_10_57_47_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C577" t="b">
+        <v>1</v>
+      </c>
+      <c r="E577" s="3" t="inlineStr">
+        <is>
+          <t>3:25,</t>
+        </is>
+      </c>
+      <c r="F577" t="n">
+        <v>3</v>
+      </c>
       <c r="K577" s="17" t="n"/>
     </row>
     <row r="578">
+      <c r="A578" t="n">
+        <v>2087</v>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>69_WIN_20220607_11_28_15_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C578" t="b">
+        <v>1</v>
+      </c>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>5:20,</t>
+        </is>
+      </c>
+      <c r="F578" t="n">
+        <v>3</v>
+      </c>
       <c r="K578" s="17" t="n"/>
     </row>
     <row r="579">
+      <c r="A579" t="n">
+        <v>2088</v>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>80_WIN_20220607_12_29_19_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C579" t="b">
+        <v>0</v>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>WE SAW BEFORE</t>
+        </is>
+      </c>
+      <c r="F579" t="n">
+        <v>3</v>
+      </c>
       <c r="K579" s="17" t="n"/>
     </row>
     <row r="580">
+      <c r="A580" t="n">
+        <v>2089</v>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>86_WIN_20220607_10_30_01_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C580" t="b">
+        <v>1</v>
+      </c>
+      <c r="E580" s="3" t="inlineStr">
+        <is>
+          <t>5:35,</t>
+        </is>
+      </c>
+      <c r="F580" t="n">
+        <v>3</v>
+      </c>
       <c r="K580" s="17" t="n"/>
     </row>
     <row r="581">
+      <c r="A581" t="n">
+        <v>2090</v>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>102_WIN_20220607_13_48_12_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C581" t="b">
+        <v>1</v>
+      </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>4:05,</t>
+        </is>
+      </c>
+      <c r="F581" t="n">
+        <v>3</v>
+      </c>
       <c r="K581" s="17" t="n"/>
     </row>
     <row r="582">
+      <c r="A582" t="n">
+        <v>2091</v>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>115_WIN_20220607_11_55_37_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C582" t="b">
+        <v>1</v>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>4:05,</t>
+        </is>
+      </c>
+      <c r="F582" t="n">
+        <v>3</v>
+      </c>
       <c r="K582" s="17" t="n"/>
     </row>
     <row r="583">
+      <c r="A583" t="n">
+        <v>2092</v>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>147_WIN_20220607_14_13_28_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C583" t="b">
+        <v>1</v>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>3:55,</t>
+        </is>
+      </c>
+      <c r="F583" t="n">
+        <v>3</v>
+      </c>
       <c r="K583" s="17" t="n"/>
     </row>
     <row r="584">
+      <c r="A584" t="n">
+        <v>2093</v>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>66_WIN_20220609_14_21_10_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C584" t="b">
+        <v>1</v>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>3:32,</t>
+        </is>
+      </c>
+      <c r="F584" t="n">
+        <v>3</v>
+      </c>
       <c r="K584" s="17" t="n"/>
     </row>
     <row r="585">
+      <c r="A585" t="n">
+        <v>2094</v>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>73_WIN_20220609_13_49_12_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C585" t="b">
+        <v>1</v>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>3:45,</t>
+        </is>
+      </c>
+      <c r="F585" t="n">
+        <v>3</v>
+      </c>
       <c r="K585" s="17" t="n"/>
     </row>
     <row r="586">
+      <c r="A586" t="n">
+        <v>2095</v>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>81_WIN_20220609_17_34_03_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C586" t="b">
+        <v>1</v>
+      </c>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>7:05,</t>
+        </is>
+      </c>
+      <c r="F586" t="n">
+        <v>3</v>
+      </c>
       <c r="K586" s="17" t="n"/>
     </row>
     <row r="587">
+      <c r="A587" t="n">
+        <v>2096</v>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>82_WIN_20220609_16_07_32_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C587" t="b">
+        <v>1</v>
+      </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>5:50,</t>
+        </is>
+      </c>
+      <c r="F587" t="n">
+        <v>3</v>
+      </c>
       <c r="K587" s="17" t="n"/>
     </row>
     <row r="588">
+      <c r="A588" t="n">
+        <v>2097</v>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>84_WIN_20220609_16_35_59_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C588" t="b">
+        <v>1</v>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>3:30,</t>
+        </is>
+      </c>
+      <c r="F588" t="n">
+        <v>3</v>
+      </c>
       <c r="K588" s="17" t="n"/>
     </row>
     <row r="589">
+      <c r="A589" t="n">
+        <v>2098</v>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>91_WIN_20220609_11_33_42_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C589" t="b">
+        <v>1</v>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>3:30,</t>
+        </is>
+      </c>
+      <c r="F589" t="n">
+        <v>3</v>
+      </c>
       <c r="K589" s="17" t="n"/>
     </row>
     <row r="590">
+      <c r="A590" t="n">
+        <v>2099</v>
+      </c>
+      <c r="B590" s="21" t="inlineStr">
+        <is>
+          <t>111_WIN_20220609_14_45_21_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C590" t="b">
+        <v>1</v>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>4:00,</t>
+        </is>
+      </c>
+      <c r="F590" t="n">
+        <v>3</v>
+      </c>
       <c r="K590" s="17" t="n"/>
     </row>
     <row r="591">
+      <c r="A591" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>112_WIN_20220609_15_41_10_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C591" t="b">
+        <v>1</v>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>4:00,</t>
+        </is>
+      </c>
+      <c r="F591" t="n">
+        <v>3</v>
+      </c>
       <c r="K591" s="17" t="n"/>
     </row>
     <row r="592">
+      <c r="A592" t="n">
+        <v>2101</v>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>121_WIN_20220609_15_15_36_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C592" t="b">
+        <v>1</v>
+      </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>3:55,</t>
+        </is>
+      </c>
+      <c r="F592" t="n">
+        <v>3</v>
+      </c>
       <c r="K592" s="17" t="n"/>
     </row>
     <row r="593">
+      <c r="A593" t="n">
+        <v>2102</v>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>122_WIN_20220609_12_01_50_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C593" t="b">
+        <v>1</v>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>3:05,</t>
+        </is>
+      </c>
+      <c r="F593" t="n">
+        <v>3</v>
+      </c>
       <c r="K593" s="17" t="n"/>
     </row>
     <row r="594">
+      <c r="A594" t="n">
+        <v>2103</v>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>8_WIN_20220726_11_13_18_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C594" t="b">
+        <v>1</v>
+      </c>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>7:30,</t>
+        </is>
+      </c>
+      <c r="F594" t="n">
+        <v>2</v>
+      </c>
       <c r="K594" s="17" t="n"/>
     </row>
     <row r="595">
+      <c r="A595" t="n">
+        <v>2104</v>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>12_WIN_20220726_12_26_57_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C595" t="b">
+        <v>1</v>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>5:18,</t>
+        </is>
+      </c>
+      <c r="F595" t="n">
+        <v>2</v>
+      </c>
       <c r="K595" s="17" t="n"/>
     </row>
     <row r="596">
+      <c r="A596" t="n">
+        <v>2105</v>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>13_WIN_20220726_09_37_01_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C596" t="b">
+        <v>1</v>
+      </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>4:15,</t>
+        </is>
+      </c>
+      <c r="F596" t="n">
+        <v>2</v>
+      </c>
       <c r="K596" s="17" t="n"/>
     </row>
     <row r="597">
+      <c r="A597" t="n">
+        <v>2106</v>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>17_WIN_20220726_10_07_22_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C597" t="b">
+        <v>1</v>
+      </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>5:35,</t>
+        </is>
+      </c>
+      <c r="F597" t="n">
+        <v>2</v>
+      </c>
       <c r="K597" s="17" t="n"/>
     </row>
     <row r="598">
+      <c r="A598" t="n">
+        <v>2107</v>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>23_WIN_20220726_13_21_07_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C598" t="b">
+        <v>1</v>
+      </c>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t>7:20,</t>
+        </is>
+      </c>
+      <c r="F598" t="n">
+        <v>2</v>
+      </c>
       <c r="K598" s="17" t="n"/>
     </row>
     <row r="599">
+      <c r="A599" t="n">
+        <v>2108</v>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>25_WIN_20220726_11_50_58_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C599" t="b">
+        <v>1</v>
+      </c>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t>2:05,</t>
+        </is>
+      </c>
+      <c r="F599" t="n">
+        <v>2</v>
+      </c>
       <c r="K599" s="17" t="n"/>
     </row>
     <row r="600">
+      <c r="A600" t="n">
+        <v>2109</v>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>29_WIN_20220726_13_56_15_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C600" t="b">
+        <v>1</v>
+      </c>
+      <c r="E600" t="inlineStr">
+        <is>
+          <t>6:08,</t>
+        </is>
+      </c>
+      <c r="F600" t="n">
+        <v>2</v>
+      </c>
       <c r="K600" s="17" t="n"/>
     </row>
     <row r="601">
+      <c r="A601" t="n">
+        <v>2110</v>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>2_WIN_20220726_10_39_17_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C601" t="b">
+        <v>1</v>
+      </c>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t>6:50,</t>
+        </is>
+      </c>
+      <c r="F601" t="n">
+        <v>2</v>
+      </c>
       <c r="K601" s="17" t="n"/>
     </row>
     <row r="602">
+      <c r="A602" t="n">
+        <v>2111</v>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>4_WIN_20220726_12_54_56_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C602" t="b">
+        <v>1</v>
+      </c>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>5:10,</t>
+        </is>
+      </c>
+      <c r="F602" t="n">
+        <v>2</v>
+      </c>
       <c r="K602" s="17" t="n"/>
     </row>
     <row r="603">
+      <c r="A603" t="n">
+        <v>2112</v>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>6_WIN_20220726_09_11_27_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C603" t="b">
+        <v>1</v>
+      </c>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>3:45,</t>
+        </is>
+      </c>
+      <c r="F603" t="n">
+        <v>2</v>
+      </c>
       <c r="K603" s="17" t="n"/>
     </row>
     <row r="604">
+      <c r="A604" t="n">
+        <v>2113</v>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>1_WIN_20220726_07_37_30_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C604" t="b">
+        <v>1</v>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>WE CAN'T SEE ANYTHING</t>
+        </is>
+      </c>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>4:40,</t>
+        </is>
+      </c>
+      <c r="F604" t="n">
+        <v>1</v>
+      </c>
       <c r="K604" s="17" t="n"/>
     </row>
     <row r="605">
+      <c r="A605" t="n">
+        <v>2114</v>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>5_WIN_20220726_08_49_30_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C605" t="b">
+        <v>1</v>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>WE CAN'T SEE ANYTHING</t>
+        </is>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>4:05,</t>
+        </is>
+      </c>
+      <c r="F605" t="n">
+        <v>1</v>
+      </c>
       <c r="K605" s="17" t="n"/>
     </row>
     <row r="606">
+      <c r="A606" t="n">
+        <v>2115</v>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>7_WIN_20220726_09_49_35_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C606" t="b">
+        <v>1</v>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>WE CAN'T SEE ANYTHING</t>
+        </is>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>3:20,</t>
+        </is>
+      </c>
+      <c r="F606" t="n">
+        <v>1</v>
+      </c>
       <c r="K606" s="17" t="n"/>
     </row>
     <row r="607">
+      <c r="A607" t="n">
+        <v>2116</v>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>9_WIN_20220726_10_36_45_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C607" t="b">
+        <v>1</v>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>WE CAN'T SEE ANYTHING</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>3:35,</t>
+        </is>
+      </c>
+      <c r="F607" t="n">
+        <v>1</v>
+      </c>
       <c r="K607" s="17" t="n"/>
     </row>
     <row r="608">
+      <c r="A608" t="n">
+        <v>2117</v>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>10_WIN_20220726_10_13_18_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C608" t="b">
+        <v>1</v>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>WE CAN'T SEE ANYTHING</t>
+        </is>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>3:40,</t>
+        </is>
+      </c>
+      <c r="F608" t="n">
+        <v>1</v>
+      </c>
       <c r="K608" s="17" t="n"/>
     </row>
     <row r="609">
+      <c r="A609" t="n">
+        <v>2118</v>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>15_WIN_20220726_12_44_15_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C609" t="b">
+        <v>1</v>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>WE CAN'T SEE ANYTHING</t>
+        </is>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>3:45,</t>
+        </is>
+      </c>
+      <c r="F609" t="n">
+        <v>1</v>
+      </c>
       <c r="K609" s="17" t="n"/>
     </row>
     <row r="610">
+      <c r="A610" t="n">
+        <v>2119</v>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>16_WIN_20220726_09_23_37_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C610" t="b">
+        <v>1</v>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>WE CAN'T SEE ANYTHING</t>
+        </is>
+      </c>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t>3:50,</t>
+        </is>
+      </c>
+      <c r="F610" t="n">
+        <v>1</v>
+      </c>
       <c r="K610" s="17" t="n"/>
     </row>
     <row r="611">
+      <c r="A611" t="n">
+        <v>2120</v>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>18_WIN_20220726_11_08_50_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C611" t="b">
+        <v>1</v>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>WE CAN'T SEE ANYTHING</t>
+        </is>
+      </c>
+      <c r="E611" t="inlineStr">
+        <is>
+          <t>3:40,</t>
+        </is>
+      </c>
+      <c r="F611" t="n">
+        <v>1</v>
+      </c>
       <c r="K611" s="17" t="n"/>
     </row>
     <row r="612">
+      <c r="A612" t="n">
+        <v>2121</v>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>20_WIN_20220726_12_18_02_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C612" t="b">
+        <v>1</v>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>WE CAN'T SEE ANYTHING</t>
+        </is>
+      </c>
+      <c r="E612" t="inlineStr">
+        <is>
+          <t>3:55,</t>
+        </is>
+      </c>
+      <c r="F612" t="n">
+        <v>1</v>
+      </c>
       <c r="K612" s="17" t="n"/>
     </row>
     <row r="613">
+      <c r="A613" t="n">
+        <v>2122</v>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>24_WIN_20220726_11_35_35_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C613" t="b">
+        <v>1</v>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>WE CAN'T SEE ANYTHING</t>
+        </is>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>5:02,</t>
+        </is>
+      </c>
+      <c r="F613" t="n">
+        <v>1</v>
+      </c>
       <c r="K613" s="17" t="n"/>
     </row>
     <row r="614">
+      <c r="A614" t="n">
+        <v>2123</v>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>26_WIN_20220726_08_08_23_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C614" t="b">
+        <v>1</v>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>WE CAN'T SEE ANYTHING</t>
+        </is>
+      </c>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>7:00,</t>
+        </is>
+      </c>
+      <c r="F614" t="n">
+        <v>1</v>
+      </c>
       <c r="K614" s="17" t="n"/>
     </row>
     <row r="615">
+      <c r="A615" t="n">
+        <v>2124</v>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>61_WIN_20220905_18_46_21_Pro_N61_Walking_T2.mp4</t>
+        </is>
+      </c>
+      <c r="C615" t="b">
+        <v>1</v>
+      </c>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>3:30,</t>
+        </is>
+      </c>
+      <c r="F615" t="n">
+        <v>3</v>
+      </c>
       <c r="K615" s="17" t="n"/>
     </row>
     <row r="616">
+      <c r="A616" t="n">
+        <v>2125</v>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>81_WIN_20220905_18_24_47_Pro_N81_walking_T2.mp4</t>
+        </is>
+      </c>
+      <c r="C616" t="b">
+        <v>1</v>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>3:50,</t>
+        </is>
+      </c>
+      <c r="F616" t="n">
+        <v>3</v>
+      </c>
       <c r="K616" s="17" t="n"/>
     </row>
     <row r="617">
+      <c r="A617" t="n">
+        <v>2126</v>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>107_WIN_20220905_16_07_44_Pro_N107_Walking_T2.mp4</t>
+        </is>
+      </c>
+      <c r="C617" t="b">
+        <v>1</v>
+      </c>
+      <c r="E617" t="inlineStr">
+        <is>
+          <t>3:25,</t>
+        </is>
+      </c>
+      <c r="F617" t="n">
+        <v>3</v>
+      </c>
       <c r="K617" s="17" t="n"/>
     </row>
     <row r="618">
+      <c r="A618" t="n">
+        <v>2127</v>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>121_WIN_20220905_16_39_30_Pro_N121_Walking_T2.mp4</t>
+        </is>
+      </c>
+      <c r="C618" t="b">
+        <v>1</v>
+      </c>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>3:50,</t>
+        </is>
+      </c>
+      <c r="F618" t="n">
+        <v>3</v>
+      </c>
       <c r="K618" s="17" t="n"/>
     </row>
     <row r="619">
+      <c r="A619" t="n">
+        <v>2128</v>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>123_WIN_20220905_17_30_53_Pro_N123_Walking_T2.mp4</t>
+        </is>
+      </c>
+      <c r="C619" t="b">
+        <v>1</v>
+      </c>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>5:20,</t>
+        </is>
+      </c>
+      <c r="F619" t="n">
+        <v>3</v>
+      </c>
       <c r="K619" s="17" t="n"/>
     </row>
     <row r="620">
+      <c r="A620" t="n">
+        <v>2129</v>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>127_WIN_20220905_17_04_35_Pro_N127_Walking_T2.mp4</t>
+        </is>
+      </c>
+      <c r="C620" t="b">
+        <v>1</v>
+      </c>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>4:15,</t>
+        </is>
+      </c>
+      <c r="F620" t="n">
+        <v>3</v>
+      </c>
       <c r="K620" s="17" t="n"/>
     </row>
     <row r="621">
+      <c r="A621" t="n">
+        <v>2130</v>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>59_WIN_20220918_15_00_41_Pro_Walking 59.mp4</t>
+        </is>
+      </c>
+      <c r="C621" t="b">
+        <v>1</v>
+      </c>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>4:10,</t>
+        </is>
+      </c>
+      <c r="F621" t="n">
+        <v>3</v>
+      </c>
       <c r="K621" s="17" t="n"/>
     </row>
     <row r="622">
+      <c r="A622" t="n">
+        <v>2131</v>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>73_WIN_20220918_16_50_04_Pro 73 walking.mp4</t>
+        </is>
+      </c>
+      <c r="C622" t="b">
+        <v>1</v>
+      </c>
+      <c r="E622" t="inlineStr">
+        <is>
+          <t>4:15,</t>
+        </is>
+      </c>
+      <c r="F622" t="n">
+        <v>3</v>
+      </c>
       <c r="K622" s="17" t="n"/>
     </row>
     <row r="623">
+      <c r="A623" t="n">
+        <v>2132</v>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>82_WIN_20220918_15_57_35_Pro 82 walking.mp4</t>
+        </is>
+      </c>
+      <c r="C623" t="b">
+        <v>1</v>
+      </c>
+      <c r="E623" t="inlineStr">
+        <is>
+          <t>6:35,</t>
+        </is>
+      </c>
+      <c r="F623" t="n">
+        <v>3</v>
+      </c>
       <c r="K623" s="17" t="n"/>
     </row>
     <row r="624">
+      <c r="A624" t="n">
+        <v>2133</v>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>84_WIN_20220918_17_12_56_Pro 84 walking.mp4</t>
+        </is>
+      </c>
+      <c r="C624" t="b">
+        <v>1</v>
+      </c>
+      <c r="E624" t="inlineStr">
+        <is>
+          <t>3:05,</t>
+        </is>
+      </c>
+      <c r="F624" t="n">
+        <v>3</v>
+      </c>
       <c r="K624" s="17" t="n"/>
     </row>
     <row r="625">
+      <c r="A625" t="n">
+        <v>2134</v>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>105_WIN_20220918_15_25_37_Pro walking 105.mp4</t>
+        </is>
+      </c>
+      <c r="C625" t="b">
+        <v>1</v>
+      </c>
+      <c r="E625" t="inlineStr">
+        <is>
+          <t>6:40,</t>
+        </is>
+      </c>
+      <c r="F625" t="n">
+        <v>3</v>
+      </c>
       <c r="K625" s="17" t="n"/>
     </row>
     <row r="626">
+      <c r="A626" t="n">
+        <v>2135</v>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>147_WIN_20220918_16_25_03_Pro 147 walking.mp4</t>
+        </is>
+      </c>
+      <c r="C626" t="b">
+        <v>1</v>
+      </c>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>4:25,</t>
+        </is>
+      </c>
+      <c r="F626" t="n">
+        <v>3</v>
+      </c>
       <c r="K626" s="17" t="n"/>
     </row>
     <row r="627">
+      <c r="A627" t="n">
+        <v>2136</v>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>60_WIN_20220918_16_00_19_Pro 60 walking.mp4</t>
+        </is>
+      </c>
+      <c r="C627" t="b">
+        <v>1</v>
+      </c>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>4:02,</t>
+        </is>
+      </c>
+      <c r="F627" t="n">
+        <v>3</v>
+      </c>
       <c r="K627" s="17" t="n"/>
     </row>
     <row r="628">
+      <c r="A628" t="n">
+        <v>2137</v>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>83_WIN_20220918_17_22_40_Pro 83 walking.mp4</t>
+        </is>
+      </c>
+      <c r="C628" t="b">
+        <v>1</v>
+      </c>
+      <c r="E628" t="inlineStr">
+        <is>
+          <t>3:55,</t>
+        </is>
+      </c>
+      <c r="F628" t="n">
+        <v>3</v>
+      </c>
       <c r="K628" s="17" t="n"/>
     </row>
     <row r="629">
+      <c r="A629" t="n">
+        <v>2138</v>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>86_WIN_20220918_15_33_27_Pro 86 walking.mp4</t>
+        </is>
+      </c>
+      <c r="C629" t="b">
+        <v>1</v>
+      </c>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>5:12,</t>
+        </is>
+      </c>
+      <c r="F629" t="n">
+        <v>3</v>
+      </c>
       <c r="K629" s="17" t="n"/>
     </row>
     <row r="630">
+      <c r="A630" t="n">
+        <v>2139</v>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>101_WIN_20220918_16_56_49_Pro walking 101.mp4</t>
+        </is>
+      </c>
+      <c r="C630" t="b">
+        <v>1</v>
+      </c>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>4:05,</t>
+        </is>
+      </c>
+      <c r="F630" t="n">
+        <v>3</v>
+      </c>
       <c r="K630" s="17" t="n"/>
     </row>
     <row r="631">
+      <c r="A631" t="n">
+        <v>2140</v>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>108_WIN_20220918_15_07_21_Pro108 walking.mp4</t>
+        </is>
+      </c>
+      <c r="C631" t="b">
+        <v>1</v>
+      </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>5:20,</t>
+        </is>
+      </c>
+      <c r="F631" t="n">
+        <v>3</v>
+      </c>
       <c r="K631" s="17" t="n"/>
     </row>
     <row r="632">
+      <c r="A632" t="n">
+        <v>2141</v>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>145_WIN_20220918_16_27_37_Pro 145 walking.mp4</t>
+        </is>
+      </c>
+      <c r="C632" t="b">
+        <v>1</v>
+      </c>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>4:50,</t>
+        </is>
+      </c>
+      <c r="F632" t="n">
+        <v>3</v>
+      </c>
       <c r="K632" s="17" t="n"/>
     </row>
     <row r="633">
+      <c r="A633" t="n">
+        <v>2142</v>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>74_WIN_20220920_10_30_56_Pro 74 walking.mp4</t>
+        </is>
+      </c>
+      <c r="C633" t="b">
+        <v>1</v>
+      </c>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>3:45,</t>
+        </is>
+      </c>
+      <c r="F633" t="n">
+        <v>3</v>
+      </c>
       <c r="K633" s="17" t="n"/>
     </row>
     <row r="634">
+      <c r="A634" t="n">
+        <v>2143</v>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>92_WIN_20220920_11_58_04_Pro 92 walking.mp4</t>
+        </is>
+      </c>
+      <c r="C634" t="b">
+        <v>1</v>
+      </c>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>14:25,</t>
+        </is>
+      </c>
+      <c r="F634" t="n">
+        <v>3</v>
+      </c>
       <c r="K634" s="17" t="n"/>
     </row>
     <row r="635">
+      <c r="A635" t="n">
+        <v>2144</v>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>111_WIN_20220920_13_19_00_Pro 111 walking.mp4</t>
+        </is>
+      </c>
+      <c r="C635" t="b">
+        <v>1</v>
+      </c>
+      <c r="E635" t="inlineStr">
+        <is>
+          <t>3:40,</t>
+        </is>
+      </c>
+      <c r="F635" t="n">
+        <v>3</v>
+      </c>
       <c r="K635" s="17" t="n"/>
     </row>
     <row r="636">
+      <c r="A636" t="n">
+        <v>2145</v>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>112_WIN_20220920_09_36_43_Pro 112 walking.mp4</t>
+        </is>
+      </c>
+      <c r="C636" t="b">
+        <v>1</v>
+      </c>
+      <c r="E636" t="inlineStr">
+        <is>
+          <t>3:55,</t>
+        </is>
+      </c>
+      <c r="F636" t="n">
+        <v>3</v>
+      </c>
       <c r="K636" s="17" t="n"/>
     </row>
     <row r="637">
+      <c r="A637" t="n">
+        <v>2146</v>
+      </c>
+      <c r="B637" s="21" t="inlineStr">
+        <is>
+          <t>113_WIN_20220920_11_30_58_Pro 113 walking.mp4</t>
+        </is>
+      </c>
+      <c r="C637" t="b">
+        <v>1</v>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>3:55,</t>
+        </is>
+      </c>
+      <c r="F637" t="n">
+        <v>3</v>
+      </c>
       <c r="K637" s="17" t="n"/>
     </row>
     <row r="638">
+      <c r="A638" t="n">
+        <v>2147</v>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>115_WIN_20220920_10_03_49_Pro 115 walking.mp4</t>
+        </is>
+      </c>
+      <c r="C638" t="b">
+        <v>1</v>
+      </c>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>3:18,</t>
+        </is>
+      </c>
+      <c r="F638" t="n">
+        <v>3</v>
+      </c>
       <c r="K638" s="17" t="n"/>
     </row>
     <row r="639">
+      <c r="A639" t="n">
+        <v>2148</v>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>120_WIN_20220920_12_34_10_Pro 120 walking.mp4</t>
+        </is>
+      </c>
+      <c r="C639" t="b">
+        <v>1</v>
+      </c>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>3:40,</t>
+        </is>
+      </c>
+      <c r="F639" t="n">
+        <v>3</v>
+      </c>
       <c r="K639" s="17" t="n"/>
     </row>
     <row r="640">
+      <c r="A640" t="n">
+        <v>2149</v>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>122_WIN_20220920_10_57_26_Pro 122 walking.mp4</t>
+        </is>
+      </c>
+      <c r="C640" t="b">
+        <v>1</v>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>8:10,</t>
+        </is>
+      </c>
+      <c r="F640" t="n">
+        <v>3</v>
+      </c>
       <c r="K640" s="17" t="n"/>
     </row>
     <row r="641">
+      <c r="A641" t="n">
+        <v>2150</v>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>124_WIN_20220920_13_43_46_Pro 124 walking.mp4</t>
+        </is>
+      </c>
+      <c r="C641" t="b">
+        <v>1</v>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>5:00,</t>
+        </is>
+      </c>
+      <c r="F641" t="n">
+        <v>3</v>
+      </c>
       <c r="K641" s="17" t="n"/>
     </row>
     <row r="642">
+      <c r="A642" t="n">
+        <v>2151</v>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>129_WIN_20220920_09_06_00_Pro 129 walking.mp4</t>
+        </is>
+      </c>
+      <c r="C642" t="b">
+        <v>1</v>
+      </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>4:13,</t>
+        </is>
+      </c>
+      <c r="F642" t="n">
+        <v>3</v>
+      </c>
       <c r="K642" s="17" t="n"/>
     </row>
     <row r="643">
+      <c r="A643" t="n">
+        <v>2152</v>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>131_WIN_20220920_08_20_21_Pro 131 wlalking.mp4</t>
+        </is>
+      </c>
+      <c r="C643" t="b">
+        <v>1</v>
+      </c>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>3:50,</t>
+        </is>
+      </c>
+      <c r="F643" t="n">
+        <v>3</v>
+      </c>
       <c r="K643" s="17" t="n"/>
     </row>
     <row r="644">
+      <c r="A644" t="n">
+        <v>2153</v>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>135_WIN_20220920_12_55_53_Pro 135 walking.mp4</t>
+        </is>
+      </c>
+      <c r="C644" t="b">
+        <v>1</v>
+      </c>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>3:30,</t>
+        </is>
+      </c>
+      <c r="F644" t="n">
+        <v>3</v>
+      </c>
       <c r="K644" s="17" t="n"/>
     </row>
     <row r="645">
+      <c r="A645" t="n">
+        <v>2154</v>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>67_WIN_20220920_08_37_36_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C645" t="b">
+        <v>1</v>
+      </c>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>3:30,</t>
+        </is>
+      </c>
+      <c r="F645" t="n">
+        <v>3</v>
+      </c>
       <c r="K645" s="17" t="n"/>
     </row>
     <row r="646">
+      <c r="A646" t="n">
+        <v>2155</v>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>69_WIN_20220920_11_01_39_Pro 69 walking.mp4</t>
+        </is>
+      </c>
+      <c r="C646" t="b">
+        <v>1</v>
+      </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>4:23,</t>
+        </is>
+      </c>
+      <c r="F646" t="n">
+        <v>3</v>
+      </c>
       <c r="K646" s="17" t="n"/>
     </row>
     <row r="647">
+      <c r="A647" t="n">
+        <v>2156</v>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>78_WIN_20220920_13_37_40_Pro 78 walking.mp4</t>
+        </is>
+      </c>
+      <c r="C647" t="b">
+        <v>1</v>
+      </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>3:55,</t>
+        </is>
+      </c>
+      <c r="F647" t="n">
+        <v>3</v>
+      </c>
       <c r="K647" s="17" t="n"/>
     </row>
     <row r="648">
+      <c r="A648" t="n">
+        <v>2157</v>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>80_WIN_20220920_10_34_11_Pro 80 walking.mp4</t>
+        </is>
+      </c>
+      <c r="C648" t="b">
+        <v>1</v>
+      </c>
+      <c r="E648" t="inlineStr">
+        <is>
+          <t>3:18,</t>
+        </is>
+      </c>
+      <c r="F648" t="n">
+        <v>3</v>
+      </c>
       <c r="K648" s="17" t="n"/>
     </row>
     <row r="649">
+      <c r="A649" t="n">
+        <v>2158</v>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>88_WIN_20220920_11_56_45_Pro 88 walking.mp4</t>
+        </is>
+      </c>
+      <c r="C649" t="b">
+        <v>1</v>
+      </c>
+      <c r="E649" t="inlineStr">
+        <is>
+          <t>3:00,</t>
+        </is>
+      </c>
+      <c r="F649" t="n">
+        <v>3</v>
+      </c>
       <c r="K649" s="17" t="n"/>
     </row>
     <row r="650">
+      <c r="A650" t="n">
+        <v>2159</v>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>93_WIN_20220920_10_03_06_Pro 93 walking.mp4</t>
+        </is>
+      </c>
+      <c r="C650" t="b">
+        <v>1</v>
+      </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>2:50,</t>
+        </is>
+      </c>
+      <c r="F650" t="n">
+        <v>3</v>
+      </c>
       <c r="K650" s="17" t="n"/>
     </row>
     <row r="651">
+      <c r="A651" t="n">
+        <v>2160</v>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>98_WIN_20220920_12_28_03_Pro 98 walking.mp4</t>
+        </is>
+      </c>
+      <c r="C651" t="b">
+        <v>1</v>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>4:10,</t>
+        </is>
+      </c>
+      <c r="F651" t="n">
+        <v>3</v>
+      </c>
       <c r="K651" s="17" t="n"/>
     </row>
     <row r="652">
+      <c r="A652" t="n">
+        <v>2161</v>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>102_WIN_20220920_12_51_11_Pro.mp4</t>
+        </is>
+      </c>
+      <c r="C652" t="b">
+        <v>1</v>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>3:56,</t>
+        </is>
+      </c>
+      <c r="F652" t="n">
+        <v>3</v>
+      </c>
       <c r="K652" s="17" t="n"/>
     </row>
     <row r="653">
+      <c r="A653" t="n">
+        <v>2162</v>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>109_WIN_20220920_09_37_38_Pro 109 walking.mp4</t>
+        </is>
+      </c>
+      <c r="C653" t="b">
+        <v>1</v>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>4:06,</t>
+        </is>
+      </c>
+      <c r="F653" t="n">
+        <v>3</v>
+      </c>
       <c r="K653" s="17" t="n"/>
     </row>
     <row r="654">
+      <c r="A654" t="n">
+        <v>2163</v>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>114_WIN_20220920_08_15_55_Pro 114 walking.mp4</t>
+        </is>
+      </c>
+      <c r="C654" t="b">
+        <v>1</v>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>3:39,</t>
+        </is>
+      </c>
+      <c r="F654" t="n">
+        <v>3</v>
+      </c>
       <c r="K654" s="17" t="n"/>
     </row>
     <row r="655">
+      <c r="A655" t="n">
+        <v>2164</v>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>117_WIN_20220920_14_01_39_Pro 117 walking.mp4</t>
+        </is>
+      </c>
+      <c r="C655" t="b">
+        <v>1</v>
+      </c>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>4:28,</t>
+        </is>
+      </c>
+      <c r="F655" t="n">
+        <v>3</v>
+      </c>
       <c r="K655" s="17" t="n"/>
     </row>
     <row r="656">
+      <c r="A656" t="n">
+        <v>2165</v>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>137_WIN_20220920_13_14_15_Pro 137 walking.mp4</t>
+        </is>
+      </c>
+      <c r="C656" t="b">
+        <v>1</v>
+      </c>
+      <c r="E656" t="inlineStr">
+        <is>
+          <t>3:14,</t>
+        </is>
+      </c>
+      <c r="F656" t="n">
+        <v>3</v>
+      </c>
       <c r="K656" s="17" t="n"/>
     </row>
     <row r="657">
+      <c r="A657" t="n">
+        <v>2166</v>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>2_WALKING.mp4</t>
+        </is>
+      </c>
+      <c r="C657" t="b">
+        <v>1</v>
+      </c>
+      <c r="E657" t="inlineStr">
+        <is>
+          <t>7:40,</t>
+        </is>
+      </c>
+      <c r="F657" t="n">
+        <v>2</v>
+      </c>
       <c r="K657" s="17" t="n"/>
     </row>
     <row r="658">
+      <c r="A658" t="n">
+        <v>2167</v>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>4_WALKING.mp4</t>
+        </is>
+      </c>
+      <c r="C658" t="b">
+        <v>1</v>
+      </c>
+      <c r="E658" s="3" t="inlineStr">
+        <is>
+          <t>5:00,</t>
+        </is>
+      </c>
+      <c r="F658" t="n">
+        <v>2</v>
+      </c>
       <c r="K658" s="17" t="n"/>
     </row>
     <row r="659">
+      <c r="A659" t="n">
+        <v>2168</v>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>7_WALKING.mp4</t>
+        </is>
+      </c>
+      <c r="C659" t="b">
+        <v>1</v>
+      </c>
+      <c r="E659" t="inlineStr">
+        <is>
+          <t>6:05,</t>
+        </is>
+      </c>
+      <c r="F659" t="n">
+        <v>2</v>
+      </c>
       <c r="K659" s="17" t="n"/>
     </row>
     <row r="660">
+      <c r="A660" t="n">
+        <v>2169</v>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>8_WALKING.mp4</t>
+        </is>
+      </c>
+      <c r="C660" t="b">
+        <v>1</v>
+      </c>
+      <c r="E660" t="inlineStr">
+        <is>
+          <t>8:10,</t>
+        </is>
+      </c>
+      <c r="F660" t="n">
+        <v>2</v>
+      </c>
       <c r="K660" s="17" t="n"/>
     </row>
     <row r="661">
+      <c r="A661" t="n">
+        <v>2170</v>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>9_WALKING.mp4</t>
+        </is>
+      </c>
+      <c r="C661" t="b">
+        <v>1</v>
+      </c>
+      <c r="E661" t="inlineStr">
+        <is>
+          <t>8:10,</t>
+        </is>
+      </c>
+      <c r="F661" t="n">
+        <v>2</v>
+      </c>
       <c r="K661" s="17" t="n"/>
     </row>
     <row r="662">
+      <c r="A662" t="n">
+        <v>2171</v>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>10_WALKING.mp4</t>
+        </is>
+      </c>
+      <c r="C662" t="b">
+        <v>1</v>
+      </c>
+      <c r="E662" t="inlineStr">
+        <is>
+          <t>4:50,</t>
+        </is>
+      </c>
+      <c r="F662" t="n">
+        <v>2</v>
+      </c>
       <c r="K662" s="17" t="n"/>
     </row>
     <row r="663">
+      <c r="A663" t="n">
+        <v>2172</v>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>20_WALKING.mp4</t>
+        </is>
+      </c>
+      <c r="C663" t="b">
+        <v>1</v>
+      </c>
+      <c r="E663" t="inlineStr">
+        <is>
+          <t>4:20,</t>
+        </is>
+      </c>
+      <c r="F663" t="n">
+        <v>2</v>
+      </c>
       <c r="K663" s="17" t="n"/>
     </row>
     <row r="664">
+      <c r="A664" t="n">
+        <v>2173</v>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>23_WALKING.mp4</t>
+        </is>
+      </c>
+      <c r="C664" t="b">
+        <v>1</v>
+      </c>
+      <c r="E664" t="inlineStr">
+        <is>
+          <t>5:45,</t>
+        </is>
+      </c>
+      <c r="F664" t="n">
+        <v>2</v>
+      </c>
       <c r="K664" s="17" t="n"/>
     </row>
     <row r="665">
+      <c r="A665" t="n">
+        <v>2174</v>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>25_WALKING.mp4</t>
+        </is>
+      </c>
+      <c r="C665" t="b">
+        <v>1</v>
+      </c>
+      <c r="E665" t="inlineStr">
+        <is>
+          <t>3:45,</t>
+        </is>
+      </c>
+      <c r="F665" t="n">
+        <v>2</v>
+      </c>
       <c r="K665" s="17" t="n"/>
     </row>
     <row r="666">
+      <c r="A666" t="n">
+        <v>2175</v>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>26_WALKING.mp4</t>
+        </is>
+      </c>
+      <c r="C666" t="b">
+        <v>1</v>
+      </c>
+      <c r="E666" t="inlineStr">
+        <is>
+          <t>4:00,</t>
+        </is>
+      </c>
+      <c r="F666" t="n">
+        <v>2</v>
+      </c>
       <c r="K666" s="17" t="n"/>
     </row>
     <row r="667">
+      <c r="A667" t="n">
+        <v>2176</v>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>27_WALKING.mp4</t>
+        </is>
+      </c>
+      <c r="C667" t="b">
+        <v>1</v>
+      </c>
+      <c r="E667" t="inlineStr">
+        <is>
+          <t>5:35,</t>
+        </is>
+      </c>
+      <c r="F667" t="n">
+        <v>2</v>
+      </c>
       <c r="K667" s="17" t="n"/>
     </row>
     <row r="668">
+      <c r="A668" t="n">
+        <v>2177</v>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>28_WALKING.mp4</t>
+        </is>
+      </c>
+      <c r="C668" t="b">
+        <v>1</v>
+      </c>
+      <c r="E668" t="inlineStr">
+        <is>
+          <t>8:19,</t>
+        </is>
+      </c>
+      <c r="F668" t="n">
+        <v>2</v>
+      </c>
       <c r="K668" s="17" t="n"/>
     </row>
     <row r="669">
+      <c r="A669" t="n">
+        <v>2178</v>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>31_WALKING.mp4</t>
+        </is>
+      </c>
+      <c r="C669" t="b">
+        <v>1</v>
+      </c>
+      <c r="E669" t="inlineStr">
+        <is>
+          <t>3:55,</t>
+        </is>
+      </c>
+      <c r="F669" t="n">
+        <v>2</v>
+      </c>
       <c r="K669" s="17" t="n"/>
     </row>
     <row r="670">
+      <c r="A670" t="n">
+        <v>2179</v>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>1_WALKING.mp4</t>
+        </is>
+      </c>
+      <c r="C670" t="b">
+        <v>1</v>
+      </c>
+      <c r="E670" t="inlineStr">
+        <is>
+          <t>4:40,</t>
+        </is>
+      </c>
+      <c r="F670" t="n">
+        <v>2</v>
+      </c>
       <c r="K670" s="17" t="n"/>
     </row>
     <row r="671">
+      <c r="A671" t="n">
+        <v>2180</v>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>5_WALKING.mp4</t>
+        </is>
+      </c>
+      <c r="C671" t="b">
+        <v>1</v>
+      </c>
+      <c r="E671" s="3" t="inlineStr">
+        <is>
+          <t>2:50,</t>
+        </is>
+      </c>
+      <c r="F671" t="n">
+        <v>2</v>
+      </c>
       <c r="K671" s="17" t="n"/>
     </row>
     <row r="672">
+      <c r="A672" t="n">
+        <v>2181</v>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>6_WALKING.mp4</t>
+        </is>
+      </c>
+      <c r="C672" t="b">
+        <v>1</v>
+      </c>
+      <c r="E672" t="inlineStr">
+        <is>
+          <t>2:40,</t>
+        </is>
+      </c>
+      <c r="F672" t="n">
+        <v>2</v>
+      </c>
       <c r="K672" s="17" t="n"/>
     </row>
     <row r="673">
+      <c r="A673" t="n">
+        <v>2182</v>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>12_WALKING.mp4</t>
+        </is>
+      </c>
+      <c r="C673" t="b">
+        <v>1</v>
+      </c>
+      <c r="E673" t="inlineStr">
+        <is>
+          <t>3:25,</t>
+        </is>
+      </c>
+      <c r="F673" t="n">
+        <v>2</v>
+      </c>
       <c r="K673" s="17" t="n"/>
     </row>
     <row r="674">
+      <c r="A674" t="n">
+        <v>2183</v>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>13_WALKING.mp4</t>
+        </is>
+      </c>
+      <c r="C674" t="b">
+        <v>1</v>
+      </c>
+      <c r="E674" t="inlineStr">
+        <is>
+          <t>3:45,</t>
+        </is>
+      </c>
+      <c r="F674" t="n">
+        <v>2</v>
+      </c>
       <c r="K674" s="17" t="n"/>
     </row>
     <row r="675">
+      <c r="A675" t="n">
+        <v>2184</v>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>15_WALKING.mp4</t>
+        </is>
+      </c>
+      <c r="C675" t="b">
+        <v>1</v>
+      </c>
+      <c r="E675" t="inlineStr">
+        <is>
+          <t>3:50,</t>
+        </is>
+      </c>
+      <c r="F675" t="n">
+        <v>2</v>
+      </c>
       <c r="K675" s="17" t="n"/>
     </row>
     <row r="676">
+      <c r="A676" t="n">
+        <v>2185</v>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>19_WALKING.mp4</t>
+        </is>
+      </c>
+      <c r="C676" t="b">
+        <v>1</v>
+      </c>
+      <c r="E676" t="inlineStr">
+        <is>
+          <t>3:37,</t>
+        </is>
+      </c>
+      <c r="F676" t="n">
+        <v>2</v>
+      </c>
       <c r="K676" s="17" t="n"/>
     </row>
     <row r="677">
+      <c r="A677" t="n">
+        <v>2186</v>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>29_WALKING.mp4</t>
+        </is>
+      </c>
+      <c r="C677" t="b">
+        <v>1</v>
+      </c>
+      <c r="E677" t="inlineStr">
+        <is>
+          <t>3:20,</t>
+        </is>
+      </c>
+      <c r="F677" t="n">
+        <v>2</v>
+      </c>
       <c r="K677" s="17" t="n"/>
     </row>
     <row r="678">
+      <c r="A678" t="n">
+        <v>2187</v>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>59.mp4</t>
+        </is>
+      </c>
+      <c r="C678" t="b">
+        <v>1</v>
+      </c>
+      <c r="E678" t="inlineStr">
+        <is>
+          <t>4:30,</t>
+        </is>
+      </c>
+      <c r="F678" t="n">
+        <v>3</v>
+      </c>
       <c r="K678" s="17" t="n"/>
     </row>
     <row r="679">
+      <c r="A679" t="n">
+        <v>2188</v>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>61.mov</t>
+        </is>
+      </c>
+      <c r="C679" t="b">
+        <v>1</v>
+      </c>
+      <c r="E679" t="inlineStr">
+        <is>
+          <t>3:56,</t>
+        </is>
+      </c>
+      <c r="F679" t="n">
+        <v>3</v>
+      </c>
       <c r="K679" s="17" t="n"/>
     </row>
     <row r="680">
+      <c r="A680" t="n">
+        <v>2189</v>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>69.mp4</t>
+        </is>
+      </c>
+      <c r="C680" t="b">
+        <v>1</v>
+      </c>
+      <c r="E680" t="inlineStr">
+        <is>
+          <t>3:45,</t>
+        </is>
+      </c>
+      <c r="F680" t="n">
+        <v>3</v>
+      </c>
       <c r="K680" s="17" t="n"/>
     </row>
     <row r="681">
+      <c r="A681" t="n">
+        <v>2190</v>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>74.mp4</t>
+        </is>
+      </c>
+      <c r="C681" t="b">
+        <v>1</v>
+      </c>
+      <c r="E681" t="inlineStr">
+        <is>
+          <t>3:10,</t>
+        </is>
+      </c>
+      <c r="F681" t="n">
+        <v>3</v>
+      </c>
       <c r="K681" s="17" t="n"/>
     </row>
     <row r="682">
+      <c r="A682" t="n">
+        <v>2191</v>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>78.mp4</t>
+        </is>
+      </c>
+      <c r="C682" t="b">
+        <v>1</v>
+      </c>
+      <c r="E682" t="inlineStr">
+        <is>
+          <t>3:00,</t>
+        </is>
+      </c>
+      <c r="F682" t="n">
+        <v>3</v>
+      </c>
       <c r="K682" s="17" t="n"/>
     </row>
     <row r="683">
+      <c r="A683" t="n">
+        <v>2192</v>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>81.mp4</t>
+        </is>
+      </c>
+      <c r="C683" t="b">
+        <v>1</v>
+      </c>
+      <c r="E683" t="inlineStr">
+        <is>
+          <t>4:00,</t>
+        </is>
+      </c>
+      <c r="F683" t="n">
+        <v>3</v>
+      </c>
       <c r="K683" s="17" t="n"/>
     </row>
     <row r="684">
+      <c r="A684" t="n">
+        <v>2193</v>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>86.mp4</t>
+        </is>
+      </c>
+      <c r="C684" t="b">
+        <v>1</v>
+      </c>
+      <c r="E684" t="inlineStr">
+        <is>
+          <t>3:55,</t>
+        </is>
+      </c>
+      <c r="F684" t="n">
+        <v>3</v>
+      </c>
       <c r="K684" s="17" t="n"/>
     </row>
     <row r="685">
+      <c r="A685" t="n">
+        <v>2194</v>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>94.mp4</t>
+        </is>
+      </c>
+      <c r="C685" t="b">
+        <v>1</v>
+      </c>
+      <c r="E685" t="inlineStr">
+        <is>
+          <t>5:10,</t>
+        </is>
+      </c>
+      <c r="F685" t="n">
+        <v>3</v>
+      </c>
       <c r="K685" s="17" t="n"/>
     </row>
     <row r="686">
+      <c r="A686" t="n">
+        <v>2195</v>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>98.mp4</t>
+        </is>
+      </c>
+      <c r="C686" t="b">
+        <v>1</v>
+      </c>
+      <c r="E686" t="inlineStr">
+        <is>
+          <t>5:30,</t>
+        </is>
+      </c>
+      <c r="F686" t="n">
+        <v>3</v>
+      </c>
       <c r="K686" s="17" t="n"/>
     </row>
     <row r="687">
+      <c r="A687" t="n">
+        <v>2196</v>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>107.mp4</t>
+        </is>
+      </c>
+      <c r="C687" t="b">
+        <v>1</v>
+      </c>
+      <c r="E687" t="inlineStr">
+        <is>
+          <t>4:35,</t>
+        </is>
+      </c>
+      <c r="F687" t="n">
+        <v>3</v>
+      </c>
       <c r="K687" s="17" t="n"/>
     </row>
     <row r="688">
+      <c r="A688" t="n">
+        <v>2197</v>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>111.mp4</t>
+        </is>
+      </c>
+      <c r="C688" t="b">
+        <v>1</v>
+      </c>
+      <c r="E688" t="inlineStr">
+        <is>
+          <t>5:00,</t>
+        </is>
+      </c>
+      <c r="F688" t="n">
+        <v>3</v>
+      </c>
       <c r="K688" s="17" t="n"/>
     </row>
     <row r="689">
+      <c r="A689" t="n">
+        <v>2198</v>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>112.mp4</t>
+        </is>
+      </c>
+      <c r="C689" t="b">
+        <v>1</v>
+      </c>
+      <c r="E689" t="inlineStr">
+        <is>
+          <t>3:10,</t>
+        </is>
+      </c>
+      <c r="F689" t="n">
+        <v>3</v>
+      </c>
       <c r="K689" s="17" t="n"/>
     </row>
     <row r="690">
+      <c r="A690" t="n">
+        <v>2199</v>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>114.mp4</t>
+        </is>
+      </c>
+      <c r="C690" t="b">
+        <v>1</v>
+      </c>
+      <c r="E690" t="inlineStr">
+        <is>
+          <t>3:04,</t>
+        </is>
+      </c>
+      <c r="F690" t="n">
+        <v>3</v>
+      </c>
       <c r="K690" s="17" t="n"/>
     </row>
     <row r="691">
+      <c r="A691" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>116.mp4</t>
+        </is>
+      </c>
+      <c r="C691" t="b">
+        <v>1</v>
+      </c>
+      <c r="E691" t="inlineStr">
+        <is>
+          <t>4:45,</t>
+        </is>
+      </c>
+      <c r="F691" t="n">
+        <v>3</v>
+      </c>
       <c r="K691" s="17" t="n"/>
     </row>
     <row r="692">
+      <c r="A692" t="n">
+        <v>2201</v>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>117.mp4</t>
+        </is>
+      </c>
+      <c r="C692" t="b">
+        <v>1</v>
+      </c>
+      <c r="E692" t="inlineStr">
+        <is>
+          <t>4:00,</t>
+        </is>
+      </c>
+      <c r="F692" t="n">
+        <v>3</v>
+      </c>
       <c r="K692" s="17" t="n"/>
     </row>
     <row r="693">
+      <c r="A693" t="n">
+        <v>2202</v>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>120.mp3</t>
+        </is>
+      </c>
+      <c r="C693" t="b">
+        <v>1</v>
+      </c>
+      <c r="E693" t="inlineStr">
+        <is>
+          <t>3:50,</t>
+        </is>
+      </c>
+      <c r="F693" t="n">
+        <v>3</v>
+      </c>
       <c r="K693" s="17" t="n"/>
     </row>
     <row r="694">
+      <c r="A694" t="n">
+        <v>2203</v>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>123.mp3</t>
+        </is>
+      </c>
+      <c r="C694" t="b">
+        <v>1</v>
+      </c>
+      <c r="E694" t="inlineStr">
+        <is>
+          <t>3:09,</t>
+        </is>
+      </c>
+      <c r="F694" t="n">
+        <v>3</v>
+      </c>
       <c r="K694" s="17" t="n"/>
     </row>
     <row r="695">
+      <c r="A695" t="n">
+        <v>2204</v>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>124.mp4</t>
+        </is>
+      </c>
+      <c r="C695" t="b">
+        <v>1</v>
+      </c>
+      <c r="E695" t="inlineStr">
+        <is>
+          <t>3:28,</t>
+        </is>
+      </c>
+      <c r="F695" t="n">
+        <v>3</v>
+      </c>
       <c r="K695" s="17" t="n"/>
     </row>
     <row r="696">
+      <c r="A696" t="n">
+        <v>2205</v>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>129.mp4</t>
+        </is>
+      </c>
+      <c r="C696" t="b">
+        <v>1</v>
+      </c>
+      <c r="E696" t="inlineStr">
+        <is>
+          <t>3:25,</t>
+        </is>
+      </c>
+      <c r="F696" t="n">
+        <v>3</v>
+      </c>
       <c r="K696" s="17" t="n"/>
     </row>
     <row r="697">
+      <c r="A697" t="n">
+        <v>2206</v>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>137.mp4</t>
+        </is>
+      </c>
+      <c r="C697" t="b">
+        <v>1</v>
+      </c>
+      <c r="E697" t="inlineStr">
+        <is>
+          <t>3:35,</t>
+        </is>
+      </c>
+      <c r="F697" t="n">
+        <v>3</v>
+      </c>
       <c r="K697" s="17" t="n"/>
     </row>
     <row r="698">
+      <c r="A698" t="n">
+        <v>2207</v>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>145.mp4</t>
+        </is>
+      </c>
+      <c r="C698" t="b">
+        <v>1</v>
+      </c>
+      <c r="E698" t="inlineStr">
+        <is>
+          <t>5:30,</t>
+        </is>
+      </c>
+      <c r="F698" t="n">
+        <v>3</v>
+      </c>
       <c r="K698" s="17" t="n"/>
     </row>
     <row r="699">
+      <c r="A699" t="n">
+        <v>2208</v>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>147.mp4</t>
+        </is>
+      </c>
+      <c r="C699" t="b">
+        <v>1</v>
+      </c>
+      <c r="E699" t="inlineStr">
+        <is>
+          <t>4:33,</t>
+        </is>
+      </c>
+      <c r="F699" t="n">
+        <v>3</v>
+      </c>
       <c r="K699" s="17" t="n"/>
     </row>
     <row r="700">
+      <c r="A700" t="n">
+        <v>2209</v>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>60.mp4</t>
+        </is>
+      </c>
+      <c r="C700" t="b">
+        <v>1</v>
+      </c>
+      <c r="E700" t="inlineStr">
+        <is>
+          <t>4:23,</t>
+        </is>
+      </c>
+      <c r="F700" t="n">
+        <v>3</v>
+      </c>
       <c r="K700" s="17" t="n"/>
     </row>
     <row r="701">
+      <c r="A701" t="n">
+        <v>2210</v>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>67.mp4</t>
+        </is>
+      </c>
+      <c r="C701" t="b">
+        <v>1</v>
+      </c>
+      <c r="E701" t="inlineStr">
+        <is>
+          <t>5:10,</t>
+        </is>
+      </c>
+      <c r="F701" t="n">
+        <v>3</v>
+      </c>
       <c r="K701" s="17" t="n"/>
     </row>
     <row r="702">
+      <c r="A702" t="n">
+        <v>2211</v>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>73.mp4</t>
+        </is>
+      </c>
+      <c r="C702" t="b">
+        <v>1</v>
+      </c>
+      <c r="E702" t="inlineStr">
+        <is>
+          <t>3:36,</t>
+        </is>
+      </c>
+      <c r="F702" t="n">
+        <v>3</v>
+      </c>
       <c r="K702" s="17" t="n"/>
     </row>
     <row r="703">
+      <c r="A703" t="n">
+        <v>2212</v>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>80.mp4</t>
+        </is>
+      </c>
+      <c r="C703" t="b">
+        <v>1</v>
+      </c>
+      <c r="E703" t="inlineStr">
+        <is>
+          <t>3:45,</t>
+        </is>
+      </c>
+      <c r="F703" t="n">
+        <v>3</v>
+      </c>
       <c r="K703" s="17" t="n"/>
     </row>
     <row r="704">
+      <c r="A704" t="n">
+        <v>2213</v>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>88.mp4</t>
+        </is>
+      </c>
+      <c r="C704" t="b">
+        <v>1</v>
+      </c>
+      <c r="E704" t="inlineStr">
+        <is>
+          <t>3:35,</t>
+        </is>
+      </c>
+      <c r="F704" t="n">
+        <v>3</v>
+      </c>
       <c r="K704" s="17" t="n"/>
     </row>
     <row r="705">
+      <c r="A705" t="n">
+        <v>2214</v>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>93.mp4</t>
+        </is>
+      </c>
+      <c r="C705" t="b">
+        <v>1</v>
+      </c>
+      <c r="E705" t="inlineStr">
+        <is>
+          <t>3:17,</t>
+        </is>
+      </c>
+      <c r="F705" t="n">
+        <v>3</v>
+      </c>
       <c r="K705" s="17" t="n"/>
     </row>
     <row r="706">
+      <c r="A706" t="n">
+        <v>2215</v>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>101.mp4</t>
+        </is>
+      </c>
+      <c r="C706" t="b">
+        <v>1</v>
+      </c>
+      <c r="E706" t="inlineStr">
+        <is>
+          <t>3:22,</t>
+        </is>
+      </c>
+      <c r="F706" t="n">
+        <v>3</v>
+      </c>
       <c r="K706" s="17" t="n"/>
     </row>
     <row r="707">
+      <c r="A707" t="n">
+        <v>2216</v>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>131.mp4</t>
+        </is>
+      </c>
+      <c r="C707" t="b">
+        <v>1</v>
+      </c>
+      <c r="E707" t="inlineStr">
+        <is>
+          <t>3:04,</t>
+        </is>
+      </c>
+      <c r="F707" t="n">
+        <v>3</v>
+      </c>
       <c r="K707" s="17" t="n"/>
     </row>
     <row r="708">

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -604,8 +604,8 @@
   </sheetPr>
   <dimension ref="A1:L1159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="O234" sqref="O234"/>
+    <sheetView tabSelected="1" topLeftCell="A345" workbookViewId="0">
+      <selection activeCell="J360" sqref="J360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>1.434634974533107</v>
+        <v>1.402173913043478</v>
       </c>
       <c r="K17" s="7" t="n">
         <v>1.33</v>
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
@@ -1195,9 +1195,6 @@
         <is>
           <t>988, 693, 1321, 693</t>
         </is>
-      </c>
-      <c r="J20" t="n">
-        <v>1.376923076923077</v>
       </c>
       <c r="K20" s="7" t="n">
         <v>1.07</v>
@@ -1226,7 +1223,7 @@
       </c>
       <c r="E21" s="3" t="inlineStr">
         <is>
-          <t>3:50,</t>
+          <t>3:55,</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1241,6 +1238,9 @@
         <is>
           <t>1075, 1031, 1408, 1031</t>
         </is>
+      </c>
+      <c r="J21" t="n">
+        <v>1.106879918761107</v>
       </c>
       <c r="K21" s="8" t="n">
         <v>1.12</v>
@@ -1280,7 +1280,7 @@
         </is>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1340,16 +1340,16 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>931, 465, 1198, 465</t>
+          <t>928, 438, 1195, 438</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>908, 768, 1241, 768</t>
+          <t>893, 766, 1226, 766</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>1.863442389758179</v>
+        <v>1.364341085271318</v>
       </c>
       <c r="K24" s="8" t="n">
         <v>1.36</v>
@@ -1407,7 +1407,7 @@
         <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>1.283714578354387</v>
+        <v>1.621621621621621</v>
       </c>
       <c r="K26" s="7" t="n">
         <v>1.4</v>
@@ -1452,9 +1452,6 @@
           <t>860, 773, 1193, 773</t>
         </is>
       </c>
-      <c r="J27" t="n">
-        <v>3.117408906882591</v>
-      </c>
       <c r="K27" s="8" t="n">
         <v>1.33</v>
       </c>
@@ -1555,7 +1552,7 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>1.327953044754219</v>
+        <v>1.47377938517179</v>
       </c>
       <c r="K30" s="8" t="n">
         <v>1.5</v>
@@ -1705,7 +1702,7 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>1.087063453025086</v>
+        <v>1.13703405738804</v>
       </c>
       <c r="K36" s="8" t="n">
         <v>1.22</v>
@@ -1761,7 +1758,7 @@
         <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>1.165048543689321</v>
+        <v>1.512365250475586</v>
       </c>
       <c r="K38" s="7" t="n">
         <v>1.36</v>
@@ -1916,7 +1913,7 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>1.428773919206237</v>
+        <v>1.610810810810811</v>
       </c>
       <c r="K44" s="7" t="n">
         <v>1.33</v>
@@ -1962,7 +1959,7 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>1.20752427184466</v>
+        <v>1.260726072607261</v>
       </c>
       <c r="K45" s="8" t="n">
         <v>1.48</v>
@@ -2019,16 +2016,16 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>1225, 541, 1491, 541</t>
+          <t>1223, 543, 1490, 543</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>1186, 880, 1520, 880</t>
+          <t>1163, 878, 1496, 878</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>1.481707317073171</v>
+        <v>1.489655172413793</v>
       </c>
       <c r="K47" s="7" t="n">
         <v>1.1</v>
@@ -2217,7 +2214,7 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>1.157699443413729</v>
+        <v>1.365554276946682</v>
       </c>
       <c r="K54" s="8" t="n">
         <v>1.39</v>
@@ -2283,7 +2280,7 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>0.8326930464848252</v>
+        <v>0.8712121212121212</v>
       </c>
       <c r="K56" s="7" t="n">
         <v>0.89</v>
@@ -2328,6 +2325,9 @@
           <t>898, 1053, 1231, 1053</t>
         </is>
       </c>
+      <c r="J57" t="n">
+        <v>1.149362970994849</v>
+      </c>
       <c r="K57" s="8" t="n">
         <v>0.98</v>
       </c>
@@ -2403,16 +2403,16 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>978, 653, 1245, 653</t>
+          <t>973, 655, 1240, 655</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>913, 1053, 1246, 1053</t>
+          <t>883, 1053, 1216, 1053</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>0.9283154121863799</v>
+        <v>0.9718032786885247</v>
       </c>
       <c r="K60" s="8" t="n">
         <v>1.14</v>
@@ -2629,7 +2629,7 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>0.9876710472835659</v>
+        <v>1.057289240801118</v>
       </c>
       <c r="K69" s="8" t="n">
         <v>1.17</v>
@@ -2711,16 +2711,16 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>721, 541, 988, 541</t>
+          <t>728, 515, 995, 515</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>700, 975, 1033, 975</t>
+          <t>680, 976, 1013, 976</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>1.36381247578458</v>
+        <v>1.174112256586483</v>
       </c>
       <c r="K72" s="8" t="n">
         <v>1.21</v>
@@ -3193,7 +3193,7 @@
         <v/>
       </c>
     </row>
-    <row r="91">
+    <row r="91" ht="13.2" customHeight="1">
       <c r="A91" t="n">
         <v>30</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>2</v>
       </c>
       <c r="J92" t="n">
-        <v>1.174112256586483</v>
+        <v>1.27891156462585</v>
       </c>
       <c r="K92" s="12" t="n">
         <v>1.67</v>
@@ -4811,7 +4811,7 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>1.005046257359125</v>
+        <v>1.076774505070015</v>
       </c>
       <c r="K179" s="12" t="n">
         <v>1.38</v>
@@ -5234,7 +5234,7 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>1.058275058275058</v>
+        <v>1.172098341909663</v>
       </c>
       <c r="K198" s="13" t="n">
         <v>0.92</v>
@@ -5313,11 +5313,16 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>895, 630, 1161, 630</t>
+          <t>891, 585, 1158, 585</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>868, 933, 1201, 933</t>
         </is>
       </c>
       <c r="J201" t="n">
-        <v>1.847903340440654</v>
+        <v>1.320116054158607</v>
       </c>
       <c r="K201" s="13" t="n">
         <v>1.34</v>
@@ -5471,11 +5476,16 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>891, 628, 1158, 628</t>
+          <t>898, 585, 1165, 585</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>865, 935, 1198, 935</t>
         </is>
       </c>
       <c r="J207" t="n">
-        <v>1.658263305322129</v>
+        <v>1.253446447507953</v>
       </c>
       <c r="K207" s="13" t="n">
         <v>1.16</v>
@@ -5800,16 +5810,16 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>930, 556, 1196, 556</t>
+          <t>930, 560, 1196, 560</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>813, 1026, 1146, 1026</t>
+          <t>778, 1026, 1111, 1026</t>
         </is>
       </c>
       <c r="J221" t="n">
-        <v>1.380039656311963</v>
+        <v>1.206060606060606</v>
       </c>
       <c r="K221" s="12" t="n">
         <v>1</v>
@@ -6052,16 +6062,16 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>858, 650, 1125, 650</t>
+          <t>840, 600, 1106, 600</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>855, 985, 1188, 985</t>
+          <t>835, 990, 1168, 990</t>
         </is>
       </c>
       <c r="J233" t="n">
-        <v>2.071428571428571</v>
+        <v>1.392914653784219</v>
       </c>
       <c r="K233" s="12" t="n">
         <v>1.36</v>
@@ -6209,11 +6219,16 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>1008, 673, 1275, 673</t>
+          <t>991, 628, 1258, 628</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>961, 988, 1295, 988</t>
         </is>
       </c>
       <c r="J240" t="n">
-        <v>1.726708074534161</v>
+        <v>1.359447004608295</v>
       </c>
       <c r="K240" s="13" t="n">
         <v>1.38</v>
@@ -6270,11 +6285,16 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>876, 653, 1143, 653</t>
+          <t>896, 616, 1163, 616</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>806, 916, 1140, 916</t>
         </is>
       </c>
       <c r="J242" t="n">
-        <v>1.832167832167832</v>
+        <v>1.344180225281602</v>
       </c>
       <c r="K242" s="12" t="n">
         <v>1.33</v>
@@ -6331,16 +6351,16 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>753, 426, 1020, 426</t>
+          <t>753, 425, 1020, 425</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>770, 670, 1103, 670</t>
+          <t>760, 668, 1093, 668</t>
         </is>
       </c>
       <c r="J244" t="n">
-        <v>1.536203522504892</v>
+        <v>1.500465983224604</v>
       </c>
       <c r="K244" s="14" t="n">
         <v>1.34</v>
@@ -6423,11 +6443,16 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>875, 655, 1141, 655</t>
+          <t>905, 616, 1171, 616</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>813, 915, 1146, 915</t>
         </is>
       </c>
       <c r="J246" t="n">
-        <v>1.548451548451548</v>
+        <v>1.182294700058241</v>
       </c>
       <c r="K246" s="13" t="n">
         <v>1.09</v>
@@ -6564,11 +6589,16 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>896, 655, 1163, 655</t>
+          <t>900, 616, 1166, 616</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>810, 915, 1143, 915</t>
         </is>
       </c>
       <c r="J252" t="n">
-        <v>1.904761904761905</v>
+        <v>1.481481481481481</v>
       </c>
       <c r="K252" s="13" t="n">
         <v>1.36</v>
@@ -6709,16 +6739,16 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>808, 621, 1075, 621</t>
+          <t>816, 575, 1083, 575</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>753, 958, 1086, 958</t>
+          <t>741, 956, 1075, 956</t>
         </is>
       </c>
       <c r="J258" t="n">
-        <v>1.318840579710145</v>
+        <v>1.026841219922475</v>
       </c>
       <c r="K258" s="13" t="n">
         <v>1.06</v>
@@ -7167,16 +7197,16 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>698, 705, 965, 705</t>
+          <t>706, 663, 973, 663</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>618, 976, 951, 976</t>
+          <t>600, 975, 933, 975</t>
         </is>
       </c>
       <c r="J279" t="n">
-        <v>1.455882352941176</v>
+        <v>1.107142857142857</v>
       </c>
       <c r="K279" s="13" t="n">
         <v>1.11</v>
@@ -8026,7 +8056,7 @@
         </is>
       </c>
       <c r="J322" t="n">
-        <v>1.090999256136871</v>
+        <v>1.18252427184466</v>
       </c>
       <c r="K322" s="14" t="n">
         <v>1.25</v>
@@ -8354,11 +8384,16 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>816, 596, 1083, 596</t>
+          <t>803, 601, 1070, 601</t>
+        </is>
+      </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>830, 988, 1163, 988</t>
         </is>
       </c>
       <c r="J338" t="n">
-        <v>0.8181818181818181</v>
+        <v>0.9533417402269861</v>
       </c>
       <c r="K338" s="12" t="n">
         <v>1.33</v>
@@ -8395,13 +8430,16 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>811, 565, 1078, 565</t>
+          <t>813, 558, 1080, 558</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>735, 881, 1068, 881</t>
-        </is>
+          <t>721, 881, 1055, 881</t>
+        </is>
+      </c>
+      <c r="J339" t="n">
+        <v>1.539473684210526</v>
       </c>
       <c r="K339" s="13" t="n">
         <v>1.51</v>
@@ -8462,7 +8500,7 @@
         </is>
       </c>
       <c r="J341" t="n">
-        <v>1.277173913043478</v>
+        <v>1.284340659340659</v>
       </c>
       <c r="K341" s="12" t="n">
         <v>1.13</v>
@@ -8548,7 +8586,7 @@
         </is>
       </c>
       <c r="J344" t="n">
-        <v>1.421362489486964</v>
+        <v>1.326331216414265</v>
       </c>
       <c r="K344" s="12" t="n">
         <v>1.26</v>
@@ -8923,7 +8961,7 @@
         </is>
       </c>
       <c r="J360" t="n">
-        <v>1.137078651685393</v>
+        <v>1.646616541353383</v>
       </c>
       <c r="K360" s="13" t="n">
         <v>1.33</v>
@@ -9173,6 +9211,9 @@
           <t>841, 990, 1175, 990</t>
         </is>
       </c>
+      <c r="J368" t="n">
+        <v>1.157699443413729</v>
+      </c>
       <c r="K368" s="12" t="n">
         <v>1.16</v>
       </c>
@@ -9208,16 +9249,16 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>763, 558, 1030, 558</t>
+          <t>780, 560, 1046, 560</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>671, 881, 1005, 881</t>
+          <t>675, 883, 1008, 883</t>
         </is>
       </c>
       <c r="J369" t="n">
-        <v>1.266666666666667</v>
+        <v>1.20752427184466</v>
       </c>
       <c r="K369" s="13" t="n">
         <v>1.1</v>
@@ -9315,12 +9356,12 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>903, 628, 1170, 628</t>
+          <t>935, 586, 1201, 586</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>955, 1003, 1288, 1003</t>
+          <t>936, 1001, 1270, 1001</t>
         </is>
       </c>
       <c r="K372" s="13" t="n">
@@ -9520,16 +9561,16 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>761, 423, 1028, 423</t>
+          <t>753, 426, 1020, 426</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>758, 673, 1091, 673</t>
+          <t>760, 668, 1093, 668</t>
         </is>
       </c>
       <c r="J382" t="n">
-        <v>1.256578947368421</v>
+        <v>1.483516483516484</v>
       </c>
       <c r="K382" s="14" t="n">
         <v>1.47</v>
@@ -9789,7 +9830,7 @@
         </is>
       </c>
       <c r="J392" t="n">
-        <v>1.026315789473684</v>
+        <v>1.35258358662614</v>
       </c>
       <c r="K392" s="12" t="n">
         <v>1.26</v>
@@ -10052,16 +10093,16 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>786, 560, 1053, 560</t>
+          <t>806, 538, 1073, 538</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>698, 880, 1031, 880</t>
+          <t>681, 883, 1015, 883</t>
         </is>
       </c>
       <c r="J405" t="n">
-        <v>2.036238136324418</v>
+        <v>1.832167832167832</v>
       </c>
       <c r="K405" s="13" t="n">
         <v>1.43</v>
@@ -10174,13 +10215,16 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>855, 530, 1121, 530</t>
+          <t>851, 528, 1118, 528</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>805, 956, 1138, 956</t>
-        </is>
+          <t>803, 960, 1136, 960</t>
+        </is>
+      </c>
+      <c r="J410" t="n">
+        <v>1.195479777954005</v>
       </c>
       <c r="K410" s="12" t="n">
         <v>1.26</v>
@@ -10765,16 +10809,16 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>801, 653, 1068, 653</t>
+          <t>813, 615, 1080, 615</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>778, 913, 1111, 913</t>
+          <t>755, 915, 1088, 915</t>
         </is>
       </c>
       <c r="J440" t="n">
-        <v>1.368052856587641</v>
+        <v>0.971675845790716</v>
       </c>
       <c r="K440" s="12" t="n">
         <v>1.05</v>
@@ -11050,8 +11094,18 @@
       <c r="F452" t="n">
         <v>6</v>
       </c>
+      <c r="H452" t="inlineStr">
+        <is>
+          <t>701, 523, 968, 523</t>
+        </is>
+      </c>
+      <c r="I452" t="inlineStr">
+        <is>
+          <t>738, 930, 1071, 930</t>
+        </is>
+      </c>
       <c r="J452" t="n">
-        <v>1.240195039219843</v>
+        <v>1.411764705882353</v>
       </c>
       <c r="K452" s="23" t="n">
         <v>1.333333333333333</v>
@@ -11097,7 +11151,7 @@
         </is>
       </c>
       <c r="J453" t="n">
-        <v>1.212121212121212</v>
+        <v>1.057453416149068</v>
       </c>
       <c r="K453" s="23" t="n">
         <v>1.333333333333333</v>
@@ -11158,7 +11212,7 @@
         </is>
       </c>
       <c r="J455" t="n">
-        <v>0.8770806658130601</v>
+        <v>0.8451123344740366</v>
       </c>
       <c r="K455" s="23" t="n">
         <v>1</v>
@@ -11204,7 +11258,7 @@
         </is>
       </c>
       <c r="J456" t="n">
-        <v>1.218211648892535</v>
+        <v>1.196428571428571</v>
       </c>
       <c r="K456" s="23" t="n">
         <v>1.129943502824859</v>
@@ -11250,7 +11304,7 @@
         </is>
       </c>
       <c r="J457" t="n">
-        <v>0.7920878354827466</v>
+        <v>0.8637116818558409</v>
       </c>
       <c r="K457" s="23" t="n">
         <v>1</v>
@@ -11287,16 +11341,16 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>450, 243, 716, 243</t>
+          <t>435, 243, 701, 243</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>361, 441, 695, 441</t>
+          <t>350, 441, 683, 441</t>
         </is>
       </c>
       <c r="J458" t="n">
-        <v>1.162552398695855</v>
+        <v>1.285909712722298</v>
       </c>
       <c r="K458" s="23" t="n">
         <v>1.333333333333333</v>
@@ -11342,7 +11396,7 @@
         </is>
       </c>
       <c r="J459" t="n">
-        <v>1.246233318984072</v>
+        <v>1.191037735849056</v>
       </c>
       <c r="K459" s="23" t="n">
         <v>1.066666666666667</v>
@@ -11377,8 +11431,18 @@
       <c r="F460" t="n">
         <v>6</v>
       </c>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>735, 521, 1001, 521</t>
+        </is>
+      </c>
+      <c r="I460" t="inlineStr">
+        <is>
+          <t>768, 925, 1101, 925</t>
+        </is>
+      </c>
       <c r="J460" t="n">
-        <v>1.03725782414307</v>
+        <v>1.15045871559633</v>
       </c>
       <c r="K460" s="23" t="n">
         <v>1.081081081081081</v>
@@ -11424,7 +11488,7 @@
         </is>
       </c>
       <c r="J461" t="n">
-        <v>0.8909589041095891</v>
+        <v>0.9674922600619195</v>
       </c>
       <c r="K461" s="23" t="n">
         <v>1.142857142857143</v>
@@ -11502,8 +11566,18 @@
       <c r="F463" t="n">
         <v>5</v>
       </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>773, 506, 1040, 506</t>
+        </is>
+      </c>
+      <c r="I463" t="inlineStr">
+        <is>
+          <t>743, 710, 1076, 710</t>
+        </is>
+      </c>
       <c r="J463" t="n">
-        <v>1.579220779220779</v>
+        <v>1.920122887864823</v>
       </c>
       <c r="K463" s="23" t="n">
         <v>2.105263157894737</v>
@@ -11538,8 +11612,13 @@
       <c r="F464" t="n">
         <v>5</v>
       </c>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>761, 505, 1028, 505</t>
+        </is>
+      </c>
       <c r="J464" t="n">
-        <v>1.420168067226891</v>
+        <v>1.621917808219178</v>
       </c>
       <c r="K464" s="23" t="n">
         <v>1.616161616161616</v>
@@ -11590,7 +11669,7 @@
         </is>
       </c>
       <c r="J465" t="n">
-        <v>1.191037735849056</v>
+        <v>1.081124757595346</v>
       </c>
       <c r="K465" s="23" t="n">
         <v>1.095890410958904</v>
@@ -11625,8 +11704,18 @@
       <c r="F466" t="n">
         <v>5</v>
       </c>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>770, 505, 1036, 505</t>
+        </is>
+      </c>
+      <c r="I466" t="inlineStr">
+        <is>
+          <t>773, 710, 1106, 710</t>
+        </is>
+      </c>
       <c r="J466" t="n">
-        <v>1.512365250475586</v>
+        <v>1.693163751987281</v>
       </c>
       <c r="K466" s="23" t="n">
         <v>1.904761904761905</v>
@@ -11661,8 +11750,18 @@
       <c r="F467" t="n">
         <v>5</v>
       </c>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>780, 478, 1046, 478</t>
+        </is>
+      </c>
+      <c r="I467" t="inlineStr">
+        <is>
+          <t>758, 683, 1091, 683</t>
+        </is>
+      </c>
       <c r="J467" t="n">
-        <v>1.272727272727273</v>
+        <v>1.420565984869711</v>
       </c>
       <c r="K467" s="23" t="n">
         <v>1.379310344827586</v>
@@ -11728,7 +11827,7 @@
         </is>
       </c>
       <c r="J469" t="n">
-        <v>1.29091960670908</v>
+        <v>1.176923076923077</v>
       </c>
       <c r="K469" s="23" t="n">
         <v>1.176470588235294</v>
@@ -11763,8 +11862,15 @@
       <c r="F470" t="n">
         <v>5</v>
       </c>
-      <c r="J470" t="n">
-        <v>1.204335608189482</v>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>770, 478, 1036, 478</t>
+        </is>
+      </c>
+      <c r="I470" t="inlineStr">
+        <is>
+          <t>775, 683, 1108, 683</t>
+        </is>
       </c>
       <c r="K470" s="23" t="n">
         <v>1.151079136690647</v>
@@ -11799,8 +11905,18 @@
       <c r="F471" t="n">
         <v>5</v>
       </c>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>763, 478, 1030, 478</t>
+        </is>
+      </c>
+      <c r="I471" t="inlineStr">
+        <is>
+          <t>761, 681, 1095, 681</t>
+        </is>
+      </c>
       <c r="J471" t="n">
-        <v>1.106578276389597</v>
+        <v>1.256578947368421</v>
       </c>
       <c r="K471" s="23" t="n">
         <v>0.5333333333333333</v>
@@ -11835,8 +11951,18 @@
       <c r="F472" t="n">
         <v>6</v>
       </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>845, 551, 1111, 551</t>
+        </is>
+      </c>
+      <c r="I472" t="inlineStr">
+        <is>
+          <t>1006, 980, 1340, 980</t>
+        </is>
+      </c>
       <c r="J472" t="n">
-        <v>1.289655172413793</v>
+        <v>1.025715955581531</v>
       </c>
       <c r="K472" s="23" t="n">
         <v>1.081081081081081</v>
@@ -11914,8 +12040,18 @@
       <c r="F474" t="n">
         <v>6</v>
       </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>836, 551, 1103, 551</t>
+        </is>
+      </c>
+      <c r="I474" t="inlineStr">
+        <is>
+          <t>1048, 976, 1381, 976</t>
+        </is>
+      </c>
       <c r="J474" t="n">
-        <v>1.184594436879984</v>
+        <v>1.015574994666098</v>
       </c>
       <c r="K474" s="23" t="n">
         <v>1.038961038961039</v>
@@ -11950,8 +12086,18 @@
       <c r="F475" t="n">
         <v>6</v>
       </c>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>845, 551, 1111, 551</t>
+        </is>
+      </c>
+      <c r="I475" t="inlineStr">
+        <is>
+          <t>1016, 976, 1350, 976</t>
+        </is>
+      </c>
       <c r="J475" t="n">
-        <v>1.404709748083242</v>
+        <v>1.18252427184466</v>
       </c>
       <c r="K475" s="23" t="n">
         <v>1.13960113960114</v>
@@ -11986,8 +12132,13 @@
       <c r="F476" t="n">
         <v>5</v>
       </c>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>773, 480, 1040, 480</t>
+        </is>
+      </c>
       <c r="J476" t="n">
-        <v>1.04735883424408</v>
+        <v>1.233396584440228</v>
       </c>
       <c r="K476" s="23" t="n">
         <v>1.012658227848101</v>
@@ -12042,8 +12193,18 @@
       <c r="F478" t="n">
         <v>5</v>
       </c>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>756, 400, 1023, 400</t>
+        </is>
+      </c>
+      <c r="I478" t="inlineStr">
+        <is>
+          <t>631, 596, 965, 596</t>
+        </is>
+      </c>
       <c r="J478" t="n">
-        <v>1.194769169803844</v>
+        <v>1.333497962711446</v>
       </c>
       <c r="K478" s="23" t="n">
         <v>1.333333333333333</v>
@@ -12078,8 +12239,18 @@
       <c r="F479" t="n">
         <v>6</v>
       </c>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>756, 493, 1023, 493</t>
+        </is>
+      </c>
+      <c r="I479" t="inlineStr">
+        <is>
+          <t>548, 760, 881, 760</t>
+        </is>
+      </c>
       <c r="J479" t="n">
-        <v>1.144518121536924</v>
+        <v>1.206060606060606</v>
       </c>
       <c r="K479" s="23" t="n">
         <v>1.538461538461538</v>
@@ -12115,7 +12286,7 @@
         <v>6</v>
       </c>
       <c r="J480" t="n">
-        <v>0.952921157118548</v>
+        <v>1.00250626566416</v>
       </c>
       <c r="K480" s="23" t="n">
         <v>1.142857142857143</v>
@@ -12150,8 +12321,18 @@
       <c r="F481" t="n">
         <v>5</v>
       </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>758, 400, 1025, 400</t>
+        </is>
+      </c>
+      <c r="I481" t="inlineStr">
+        <is>
+          <t>636, 598, 970, 598</t>
+        </is>
+      </c>
       <c r="J481" t="n">
-        <v>0.9639953542392568</v>
+        <v>1.086173001310616</v>
       </c>
       <c r="K481" s="23" t="n">
         <v>1.111111111111111</v>
@@ -12186,8 +12367,18 @@
       <c r="F482" t="n">
         <v>6</v>
       </c>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>741, 495, 1008, 495</t>
+        </is>
+      </c>
+      <c r="I482" t="inlineStr">
+        <is>
+          <t>540, 761, 873, 761</t>
+        </is>
+      </c>
       <c r="J482" t="n">
-        <v>1.188235294117647</v>
+        <v>1.084103062712688</v>
       </c>
       <c r="K482" s="23" t="n">
         <v>1.24031007751938</v>
@@ -12222,8 +12413,18 @@
       <c r="F483" t="n">
         <v>6</v>
       </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>746, 495, 1013, 495</t>
+        </is>
+      </c>
+      <c r="I483" t="inlineStr">
+        <is>
+          <t>556, 761, 890, 761</t>
+        </is>
+      </c>
       <c r="J483" t="n">
-        <v>1.245161290322581</v>
+        <v>1.304964539007092</v>
       </c>
       <c r="K483" s="23" t="n">
         <v>1.290322580645161</v>
@@ -12258,8 +12459,13 @@
       <c r="F484" t="n">
         <v>5</v>
       </c>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>761, 400, 1028, 400</t>
+        </is>
+      </c>
       <c r="J484" t="n">
-        <v>1.225638353309015</v>
+        <v>1.502112345485839</v>
       </c>
       <c r="K484" s="23" t="n">
         <v>1.428571428571429</v>
@@ -12294,8 +12500,13 @@
       <c r="F485" t="n">
         <v>6</v>
       </c>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t>756, 400, 1023, 400</t>
+        </is>
+      </c>
       <c r="J485" t="n">
-        <v>0.9762845849802371</v>
+        <v>1.15045871559633</v>
       </c>
       <c r="K485" s="23" t="n">
         <v>1.025641025641026</v>
@@ -12341,7 +12552,7 @@
         </is>
       </c>
       <c r="J486" t="n">
-        <v>1.079903147699758</v>
+        <v>1.122377622377623</v>
       </c>
       <c r="K486" s="23" t="n">
         <v>1</v>
@@ -12370,14 +12581,19 @@
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>8:57,</t>
+          <t>8:30,</t>
         </is>
       </c>
       <c r="F487" t="n">
         <v>5</v>
       </c>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>776, 401, 1043, 401</t>
+        </is>
+      </c>
       <c r="J487" t="n">
-        <v>0.8901098901098901</v>
+        <v>0.9880726484142044</v>
       </c>
       <c r="K487" s="23" t="n">
         <v>1</v>
@@ -12412,8 +12628,13 @@
       <c r="F488" t="n">
         <v>5</v>
       </c>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>751, 400, 1018, 400</t>
+        </is>
+      </c>
       <c r="J488" t="n">
-        <v>1.263297872340426</v>
+        <v>1.414898044111527</v>
       </c>
       <c r="K488" s="23" t="n">
         <v>1.403508771929824</v>
@@ -12448,8 +12669,18 @@
       <c r="F489" t="n">
         <v>6</v>
       </c>
+      <c r="H489" t="inlineStr">
+        <is>
+          <t>790, 431, 1056, 431</t>
+        </is>
+      </c>
+      <c r="I489" t="inlineStr">
+        <is>
+          <t>600, 695, 933, 695</t>
+        </is>
+      </c>
       <c r="J489" t="n">
-        <v>1.153952843273232</v>
+        <v>1.283459162663006</v>
       </c>
       <c r="K489" s="23" t="n">
         <v>1.324503311258278</v>
@@ -12485,7 +12716,7 @@
         <v>6</v>
       </c>
       <c r="J490" t="n">
-        <v>1.247575953458306</v>
+        <v>1.249190938511327</v>
       </c>
       <c r="K490" s="23" t="n">
         <v>1.111111111111111</v>
